--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -1,11 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E8587-D8D2-479E-B68F-8B5B57673F64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D50B48-0231-405A-8CF6-DB69169F2E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E185E41F-4256-4DE7-8C4F-657057E290C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="213">
   <si>
     <t>Document type:</t>
   </si>
@@ -128,27 +129,9 @@
     <t>Currency (year)</t>
   </si>
   <si>
-    <t>ArDEM</t>
-  </si>
-  <si>
-    <t>LEAP</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>JRC_EU_TIMES</t>
-  </si>
-  <si>
-    <t>European TIMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nov-19</t>
-  </si>
-  <si>
-    <t>PET_IE</t>
-  </si>
-  <si>
     <t>2.0.7</t>
   </si>
   <si>
@@ -200,9 +183,6 @@
     <t>Version:</t>
   </si>
   <si>
-    <t>Residential 2.0.7</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
@@ -263,27 +243,15 @@
     <t>Data Sources</t>
   </si>
   <si>
-    <t xml:space="preserve">ArDEM SQL </t>
-  </si>
-  <si>
     <t>Assumptions</t>
   </si>
   <si>
-    <t xml:space="preserve">Irish LEAP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irish TIMES 1.0 </t>
-  </si>
-  <si>
     <t>BER Database</t>
   </si>
   <si>
     <t>https://ndber.seai.ie/pass/ber/search.aspx</t>
   </si>
   <si>
-    <t>https://www.seai.ie/data-and-insights/seai-statistics/key-publications/national-energy-balance/</t>
-  </si>
-  <si>
     <t>Verision Control</t>
   </si>
   <si>
@@ -330,9 +298,6 @@
   </si>
   <si>
     <t xml:space="preserve">TIMES-Ireland Residential </t>
-  </si>
-  <si>
-    <t>11th December 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Sub RES Template </t>
@@ -422,54 +387,12 @@
     <t>2018M€</t>
   </si>
   <si>
-    <t>Energy Balance 2018</t>
-  </si>
-  <si>
     <t>CSO 2016</t>
   </si>
   <si>
     <t>https://www.cso.ie/en/csolatestnews/presspages/2017/census2016profile1-housinginireland/</t>
   </si>
   <si>
-    <t>TopTen</t>
-  </si>
-  <si>
-    <t>EU Appliances Data https://storage.topten.eu/source/files/WhiteGoods_in_Europe_June15.pdf</t>
-  </si>
-  <si>
-    <t>SEAI Residential</t>
-  </si>
-  <si>
-    <t>https://www.seai.ie/publications/Energy-Emissions-Report-2020.pdf</t>
-  </si>
-  <si>
-    <t>SEAI Emissions</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>https://www.epa.ie/pubs/reports/air/airemissions/ghg/nir2019/Ireland%20NIR%202019_Final.pdf (Table 3.1.1))</t>
-  </si>
-  <si>
-    <t>SEAI Data</t>
-  </si>
-  <si>
-    <t>https://www.seai.ie/data-and-insights/seai-statistics/conversion-factors/</t>
-  </si>
-  <si>
-    <t>Central Bank</t>
-  </si>
-  <si>
-    <t>vol-2019-no-14-population-change-and-housing-demand-in-ireland-(conefrey-and-staunton)</t>
-  </si>
-  <si>
-    <t>HDD Projection</t>
-  </si>
-  <si>
-    <t>http://www.epa.ie/pubs/reports/research/climate/researchreport339/Research_Report_339_Part3.pdf</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -752,9 +675,6 @@
     <t>Weighted Average Assumed Saving (%)</t>
   </si>
   <si>
-    <t>http://www.esru.strath.ac.uk/EandE/Web_sites/16-17/Retrofit/uploads/1/0/5/7/105723345/phpp_sap_and_sbem_comparison_study.pdf</t>
-  </si>
-  <si>
     <t>No Retrofit Required for Heat Pump</t>
   </si>
   <si>
@@ -765,6 +685,54 @@
   </si>
   <si>
     <t>DayNite</t>
+  </si>
+  <si>
+    <t>Residential 1.0</t>
+  </si>
+  <si>
+    <t>19th July 2021</t>
+  </si>
+  <si>
+    <t>SEAI</t>
+  </si>
+  <si>
+    <t>http://www.seai.ie/Your_Building/BER/Your_Guide_to_Building_Energy_ Rating.pdf.</t>
+  </si>
+  <si>
+    <t>Open Source</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TABULA</t>
+  </si>
+  <si>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>Usman Ali, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A data-driven approach to optimize urban scale energy retrofit decisions for residential buildings</t>
+  </si>
+  <si>
+    <t>Attribution 4.0 International (CC BY 4.0</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1080/00036846.2017.1302068</t>
+  </si>
+  <si>
+    <t>ESRI Paper</t>
+  </si>
+  <si>
+    <t>Reproduction of the contents is permissible provided the source is acknowledged.</t>
+  </si>
+  <si>
+    <t>RECAST Section 1 - April 2020</t>
   </si>
 </sst>
 </file>
@@ -772,17 +740,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1090,8 +1065,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,6 +1210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="50">
     <border>
@@ -1846,501 +1833,527 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="28" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="28" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="18" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="18" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="14"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="41" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="42" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="42" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="42" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="43" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="43" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="15" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="15" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="15" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="15" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="15" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="15" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="28" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Colore 2" xfId="10" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
@@ -3316,120 +3329,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>45242</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>50006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109571" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538D1452-9F67-463D-8469-C41551889809}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18595180" y="4050506"/>
-          <a:ext cx="7789069" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="A32F86"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="5F4779"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Subsequently published in "Value for money in energy efficiency retrofits in Ireland: grant provider and grant recipients", </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IE" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="5F4779"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Applied Economics, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="5F4779"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>vol. 49, March, 2017, pp. 1-23, http://doi.org/10.1080/00036846.2017.1302068</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3759,7 +3658,10 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3908,14 +3810,14 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
+      <c r="A17" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -3953,13 +3855,13 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="168" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
+      <c r="B20" s="163" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
@@ -3971,15 +3873,15 @@
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
@@ -3993,57 +3895,57 @@
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
+      <c r="B22" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="B23" s="160" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="184" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="166"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -4209,218 +4111,229 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B1:T45"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="1">
+      <selection activeCell="F7" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="93.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="16"/>
-    <col min="7" max="7" width="18.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="96.5703125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="18.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="96.5703125" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="G2" s="171" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="186"/>
+      <c r="H2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="173"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="I2" s="168"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="187"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="25">
+        <v>44136</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="188"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="31">
+        <v>44169</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="188"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="31">
+        <v>44166</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="188"/>
+      <c r="H6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="35">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="188"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="26">
-        <v>44136</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="32">
-        <v>44169</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="35">
         <v>44166</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="36">
-        <v>43862</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="36">
-        <v>44166</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="E8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="188"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4432,509 +4345,515 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="35">
+        <v>44044</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="188"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="35">
+        <v>44136</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="188"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="35">
+        <v>44013</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="188"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="35">
+        <v>44136</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="188"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="35">
+        <v>44136</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="188"/>
+    </row>
+    <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="35">
+        <v>44105</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="188"/>
+    </row>
+    <row r="15" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="35">
+        <v>44105</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="188"/>
+      <c r="H15" s="166" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="168"/>
+    </row>
+    <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="35">
+        <v>44166</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="188"/>
+      <c r="H16" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="35">
+        <v>44166</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="188"/>
+      <c r="H17" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="42">
+        <v>44166</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="188"/>
+      <c r="H18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="57">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="189"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="185" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="59">
+        <v>43952</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="192" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="193" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="59">
+        <v>43952</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="192" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="195" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="196" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="197">
+        <v>43952</v>
+      </c>
+      <c r="E24" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="59">
+        <v>43466</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="192" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="59">
+        <v>43952</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="194" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="195" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="200" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="197">
+        <v>43983</v>
+      </c>
+      <c r="E27" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="59">
+        <v>43983</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="192" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="188"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="188"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="188"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="188"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="188"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="188"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="188"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="188"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="186"/>
+      <c r="H38" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="173"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="187"/>
+      <c r="H39" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="31" t="s">
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="36">
-        <v>44044</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="36">
-        <v>44136</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="36">
-        <v>44013</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="36">
-        <v>44136</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="36">
-        <v>44136</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="36">
-        <v>44105</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="36">
-        <v>44105</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="36">
+      <c r="D40" s="65">
         <v>44166</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="36">
-        <v>44166</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="43">
-        <v>44166</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="G20" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="173"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="G22" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53"/>
-      <c r="G23" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="59">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="61">
-        <v>43466</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="61">
-        <v>43952</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="61">
-        <v>43952</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="61">
-        <v>44044</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="61">
-        <v>44044</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="65">
-        <v>44044</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="171" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="G38" s="177" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="178"/>
-    </row>
-    <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="70">
-        <v>44166</v>
-      </c>
-      <c r="E40" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-    </row>
-    <row r="41" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="69"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-    </row>
-    <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-    </row>
-    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="72"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-    </row>
-    <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="72"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="E40" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="191"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="64"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="190"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="67"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="67"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{0675D694-3662-48D4-A15C-74FF2A242E2E}"/>
-    <hyperlink ref="C26" r:id="rId2" xr:uid="{60161292-23D6-4BE6-8844-1ED64BFDC499}"/>
-    <hyperlink ref="C29" r:id="rId3" display="https://storage.topten.eu/source/files/WhiteGoods_in_Europe_June15.pdf" xr:uid="{F262E45C-C6EF-45C8-B96A-E3768E7F3D74}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{E672637D-1E23-491A-BFE4-80F834BC4B95}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{0440E293-B3E8-4D45-85CC-421540DB00AD}"/>
-    <hyperlink ref="C32" r:id="rId6" xr:uid="{9B0727B9-96A2-4590-A456-8678D215F088}"/>
-    <hyperlink ref="C34" r:id="rId7" xr:uid="{F60D63AD-5F87-4B12-83DC-2BE3D1F3B981}"/>
-    <hyperlink ref="C36" r:id="rId8" xr:uid="{1F6E5E4D-581E-4F2F-AA32-77F6DA5D2B25}"/>
-    <hyperlink ref="C33" r:id="rId9" xr:uid="{9A8E48D4-E870-45E1-81C3-470DB5464BAF}"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{9D97BC3C-B4D2-4506-8CFC-A3E5927AAC5F}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{FBAC4B9D-D0CB-4BD4-BC18-200BE6892338}"/>
+    <hyperlink ref="C28" r:id="rId3" xr:uid="{E672637D-1E23-491A-BFE4-80F834BC4B95}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{60161292-23D6-4BE6-8844-1ED64BFDC499}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{46B64FEE-7460-437F-8951-0FFFF029BDE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4945,544 +4864,545 @@
   </sheetPr>
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="85" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="85" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="85" customWidth="1"/>
-    <col min="9" max="9" width="2" style="85" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.85546875" style="85" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="85"/>
-    <col min="15" max="15" width="9.5703125" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="85"/>
-    <col min="17" max="21" width="11.140625" style="85" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="14" style="80" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="80" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" style="80" customWidth="1"/>
+    <col min="9" max="9" width="2" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.85546875" style="80" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="80"/>
+    <col min="15" max="15" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="80"/>
+    <col min="17" max="21" width="11.140625" style="80" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="78"/>
+      <c r="A1" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
-        <v>83</v>
+      <c r="A2" s="74" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="K4" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="90" t="s">
-        <v>143</v>
+      <c r="A4" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="K4" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="85" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="174" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="174"/>
+    </row>
+    <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="U6" s="84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="S5" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="T5" s="179" t="s">
-        <v>140</v>
-      </c>
-      <c r="U5" s="179"/>
-    </row>
-    <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="80" t="str">
+      <c r="B7" s="75" t="str">
         <f t="shared" ref="B7:B12" si="0">"R-RTFT-"&amp;Q7&amp;"_"&amp;R7</f>
         <v>R-RTFT-Apt_Shallow</v>
       </c>
-      <c r="C7" s="80" t="str">
+      <c r="C7" s="75" t="str">
         <f t="shared" ref="C7:C12" si="1">"Residential "&amp;Q7&amp;" - "&amp;R7&amp;" retrofit"</f>
         <v>Residential Apt - Shallow retrofit</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80" t="str">
+      <c r="E7" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75" t="str">
         <f t="shared" ref="J7:J12" si="2">B7</f>
         <v>R-RTFT-Apt_Shallow</v>
       </c>
-      <c r="K7" s="80" t="str">
+      <c r="K7" s="75" t="str">
         <f>"RSDSH_"&amp;Q7</f>
         <v>RSDSH_Apt</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="75">
         <v>2020</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="75">
         <v>50</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="75">
         <f>U7</f>
         <v>5.9072960538612464E-3</v>
       </c>
-      <c r="O7" s="161">
+      <c r="O7" s="155">
         <f>Data!U59/1000</f>
         <v>11.196414691601362</v>
       </c>
-      <c r="Q7" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="85">
+      <c r="Q7" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="80">
         <v>1.6E-2</v>
       </c>
-      <c r="T7" s="163">
+      <c r="T7" s="157">
         <f>Data!X59</f>
         <v>0.36920600336632792</v>
       </c>
-      <c r="U7" s="85">
+      <c r="U7" s="80">
         <f>S7*T7</f>
         <v>5.9072960538612464E-3</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="88" t="str">
+      <c r="A8" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="83" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Apt_Deep</v>
       </c>
-      <c r="C8" s="88" t="str">
+      <c r="C8" s="83" t="str">
         <f t="shared" si="1"/>
         <v>Residential Apt - Deep retrofit</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="88" t="str">
+      <c r="E8" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="83" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Apt_Deep</v>
       </c>
-      <c r="K8" s="88" t="str">
+      <c r="K8" s="83" t="str">
         <f t="shared" ref="K8:K12" si="3">"RSDSH_"&amp;Q8</f>
         <v>RSDSH_Apt</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="83">
         <v>2020</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="83">
         <v>50</v>
       </c>
-      <c r="N8" s="88">
+      <c r="N8" s="83">
         <f t="shared" ref="N8:N12" si="4">U8</f>
         <v>8.1965689357556444E-3</v>
       </c>
-      <c r="O8" s="162">
+      <c r="O8" s="156">
         <f>Data!U60/1000</f>
         <v>15.982779351113084</v>
       </c>
-      <c r="Q8" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="R8" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="S8" s="86">
+      <c r="Q8" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="81">
         <v>1.6E-2</v>
       </c>
-      <c r="T8" s="164">
+      <c r="T8" s="158">
         <f>Data!X60</f>
         <v>0.51228555848472779</v>
       </c>
-      <c r="U8" s="86">
+      <c r="U8" s="81">
         <f t="shared" ref="U8:U12" si="5">S8*T8</f>
         <v>8.1965689357556444E-3</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="80" t="str">
+      <c r="A9" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Att_Shallow</v>
       </c>
-      <c r="C9" s="80" t="str">
+      <c r="C9" s="75" t="str">
         <f t="shared" si="1"/>
         <v>Residential Att - Shallow retrofit</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80" t="str">
+      <c r="E9" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Att_Shallow</v>
       </c>
-      <c r="K9" s="80" t="str">
+      <c r="K9" s="75" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Att</v>
       </c>
-      <c r="L9" s="80">
+      <c r="L9" s="75">
         <v>2020</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="75">
         <v>50</v>
       </c>
-      <c r="N9" s="80">
+      <c r="N9" s="75">
         <f t="shared" si="4"/>
         <v>9.413814304323951E-3</v>
       </c>
-      <c r="O9" s="161">
+      <c r="O9" s="155">
         <f>Data!S59/1000</f>
         <v>9.6084735804205188</v>
       </c>
-      <c r="Q9" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="R9" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="S9" s="85">
+      <c r="Q9" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" s="80">
         <v>2.69E-2</v>
       </c>
-      <c r="T9" s="163">
+      <c r="T9" s="157">
         <f>Data!V59</f>
         <v>0.3499559220938272</v>
       </c>
-      <c r="U9" s="85">
+      <c r="U9" s="80">
         <f t="shared" si="5"/>
         <v>9.413814304323951E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="88" t="str">
+      <c r="A10" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="83" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Att_Deep</v>
       </c>
-      <c r="C10" s="88" t="str">
+      <c r="C10" s="83" t="str">
         <f t="shared" si="1"/>
         <v>Residential Att - Deep retrofit</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="88" t="str">
+      <c r="E10" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="83" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Att_Deep</v>
       </c>
-      <c r="K10" s="88" t="str">
+      <c r="K10" s="83" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Att</v>
       </c>
-      <c r="L10" s="88">
+      <c r="L10" s="83">
         <v>2020</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="83">
         <v>50</v>
       </c>
-      <c r="N10" s="88">
+      <c r="N10" s="83">
         <f t="shared" si="4"/>
         <v>1.5328198459374942E-2</v>
       </c>
-      <c r="O10" s="162">
+      <c r="O10" s="156">
         <f>Data!S60/1000</f>
         <v>20.5630239417189</v>
       </c>
-      <c r="Q10" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="R10" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="S10" s="86">
+      <c r="Q10" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="81">
         <v>2.69E-2</v>
       </c>
-      <c r="T10" s="164">
+      <c r="T10" s="158">
         <f>Data!V60</f>
         <v>0.56982150406598298</v>
       </c>
-      <c r="U10" s="86">
+      <c r="U10" s="81">
         <f t="shared" si="5"/>
         <v>1.5328198459374942E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="80" t="str">
+      <c r="A11" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="75" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Det_Shallow</v>
       </c>
-      <c r="C11" s="80" t="str">
+      <c r="C11" s="75" t="str">
         <f t="shared" si="1"/>
         <v>Residential Det - Shallow retrofit</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80" t="str">
+      <c r="E11" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Det_Shallow</v>
       </c>
-      <c r="K11" s="80" t="str">
+      <c r="K11" s="75" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Det</v>
       </c>
-      <c r="L11" s="80">
+      <c r="L11" s="75">
         <v>2020</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="75">
         <v>50</v>
       </c>
-      <c r="N11" s="80">
+      <c r="N11" s="75">
         <f t="shared" si="4"/>
         <v>1.6649605686878701E-2</v>
       </c>
-      <c r="O11" s="161">
+      <c r="O11" s="155">
         <f>Data!T59/1000</f>
         <v>14.333869646601945</v>
       </c>
-      <c r="Q11" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" s="85">
+      <c r="Q11" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" s="80">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="T11" s="163">
+      <c r="T11" s="157">
         <f>Data!W59</f>
         <v>0.34759093292022342</v>
       </c>
-      <c r="U11" s="85">
+      <c r="U11" s="80">
         <f t="shared" si="5"/>
         <v>1.6649605686878701E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="88" t="str">
+      <c r="A12" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="83" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Det_Deep</v>
       </c>
-      <c r="C12" s="88" t="str">
+      <c r="C12" s="83" t="str">
         <f t="shared" si="1"/>
         <v>Residential Det - Deep retrofit</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="88" t="str">
+      <c r="E12" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="83" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Det_Deep</v>
       </c>
-      <c r="K12" s="88" t="str">
+      <c r="K12" s="83" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Det</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="83">
         <v>2020</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="83">
         <v>50</v>
       </c>
-      <c r="N12" s="88">
+      <c r="N12" s="83">
         <f t="shared" si="4"/>
         <v>2.7503185042088787E-2</v>
       </c>
-      <c r="O12" s="162">
+      <c r="O12" s="156">
         <f>Data!T60/1000</f>
         <v>22.25938755708523</v>
       </c>
-      <c r="Q12" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="S12" s="86">
+      <c r="Q12" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="81">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="T12" s="164">
+      <c r="T12" s="158">
         <f>Data!W60</f>
         <v>0.57417922843609159</v>
       </c>
-      <c r="U12" s="86">
+      <c r="U12" s="81">
         <f t="shared" si="5"/>
         <v>2.7503185042088787E-2</v>
       </c>
@@ -5728,8 +5648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A6DB4B-6EBE-42F5-800F-C9AB0144B3BB}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="1">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5756,911 +5679,911 @@
   <sheetData>
     <row r="1" spans="3:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="183" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="184"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="183" t="s">
-        <v>202</v>
-      </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
-        <v>212</v>
-      </c>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="Y2" s="125" t="s">
-        <v>205</v>
+      <c r="L2" s="178" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="179"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="178" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="AD2" s="120" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="3:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="L3" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="M3" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q3" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="S3" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="T3" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="U3" s="94" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y3" s="126"/>
+      <c r="C3" s="177" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="L3" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="S3" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="U3" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y3" s="121"/>
       <c r="AB3" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="AE3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="95" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="98">
+      <c r="C4" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="93">
         <v>1.4285714285714286</v>
       </c>
-      <c r="M4" s="98">
+      <c r="M4" s="93">
         <v>1.375</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="93">
         <v>1.3478893740902476</v>
       </c>
-      <c r="O4" s="99">
+      <c r="O4" s="94">
         <v>13455.569795438192</v>
       </c>
-      <c r="P4" s="99">
+      <c r="P4" s="94">
         <v>21274.101374868016</v>
       </c>
-      <c r="Q4" s="100">
+      <c r="Q4" s="95">
         <v>27468.241730097478</v>
       </c>
-      <c r="R4" s="99">
+      <c r="R4" s="94">
         <v>52.179898737999999</v>
       </c>
-      <c r="S4" s="99">
+      <c r="S4" s="94">
         <v>54.365575896999999</v>
       </c>
-      <c r="T4" s="100">
+      <c r="T4" s="95">
         <v>56</v>
       </c>
-      <c r="U4" s="145">
+      <c r="U4" s="139">
         <f>AVERAGE(R4:T4)</f>
         <v>54.181824878333337</v>
       </c>
-      <c r="Y4" s="127"/>
+      <c r="Y4" s="122"/>
     </row>
     <row r="5" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C5" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="99">
+      <c r="C5" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="94">
         <v>15472.073727176739</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="94">
         <v>20378.706337556119</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="94">
         <v>9418.8988568067343</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="96">
         <v>45269.678921539591</v>
       </c>
-      <c r="K5" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="103">
+      <c r="K5" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="98">
         <v>1</v>
       </c>
-      <c r="M5" s="103">
+      <c r="M5" s="98">
         <v>1</v>
       </c>
-      <c r="N5" s="103">
+      <c r="N5" s="98">
         <v>1</v>
       </c>
-      <c r="O5" s="104">
+      <c r="O5" s="99">
         <v>7459.2913438514906</v>
       </c>
-      <c r="P5" s="104">
+      <c r="P5" s="99">
         <v>9537.7783975583752</v>
       </c>
-      <c r="Q5" s="105">
+      <c r="Q5" s="100">
         <v>9433.9012004747347</v>
       </c>
-      <c r="R5" s="104">
+      <c r="R5" s="99">
         <v>90.810760361000007</v>
       </c>
-      <c r="S5" s="104">
+      <c r="S5" s="99">
         <v>89.503049435999998</v>
       </c>
-      <c r="T5" s="105">
+      <c r="T5" s="100">
         <v>90</v>
       </c>
-      <c r="U5" s="145">
+      <c r="U5" s="139">
         <f t="shared" ref="U5:U12" si="0">AVERAGE(R5:T5)</f>
         <v>90.104603265666654</v>
       </c>
-      <c r="AA5" s="128" t="s">
-        <v>144</v>
+      <c r="AA5" s="123" t="s">
+        <v>118</v>
       </c>
       <c r="AB5">
         <f>AVERAGE(AH5:AI5)</f>
         <v>235</v>
       </c>
-      <c r="AC5" s="129">
+      <c r="AC5" s="124">
         <v>400</v>
       </c>
-      <c r="AD5" s="129">
+      <c r="AD5" s="124">
         <v>140</v>
       </c>
-      <c r="AH5" s="130">
+      <c r="AH5" s="125">
         <v>190</v>
       </c>
-      <c r="AI5" s="129">
+      <c r="AI5" s="124">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C6" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="104">
+      <c r="C6" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="99">
         <v>9537.7783975583752</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="99">
         <v>9433.9012004747347</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="99">
         <v>7459.2913438514906</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="101">
         <v>26430.9709418846</v>
       </c>
-      <c r="K6" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="108">
+      <c r="K6" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="103">
         <v>1</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="103">
         <v>1</v>
       </c>
-      <c r="N6" s="108">
+      <c r="N6" s="103">
         <v>1</v>
       </c>
-      <c r="O6" s="109">
+      <c r="O6" s="104">
         <v>14041.847426430093</v>
       </c>
-      <c r="P6" s="109">
+      <c r="P6" s="104">
         <v>17545.09295382088</v>
       </c>
-      <c r="Q6" s="110">
+      <c r="Q6" s="105">
         <v>20090.949195825138</v>
       </c>
-      <c r="R6" s="109">
+      <c r="R6" s="104">
         <v>114.211320254</v>
       </c>
-      <c r="S6" s="109">
+      <c r="S6" s="104">
         <v>116.155508754</v>
       </c>
-      <c r="T6" s="110">
+      <c r="T6" s="105">
         <v>116</v>
       </c>
-      <c r="U6" s="145">
+      <c r="U6" s="139">
         <f t="shared" si="0"/>
         <v>115.45560966933333</v>
       </c>
-      <c r="AA6" s="131" t="s">
-        <v>146</v>
+      <c r="AA6" s="126" t="s">
+        <v>120</v>
       </c>
       <c r="AB6">
         <f t="shared" ref="AB6:AB19" si="1">AVERAGE(AH6:AI6)</f>
         <v>470</v>
       </c>
-      <c r="AC6" s="132">
+      <c r="AC6" s="127">
         <v>800</v>
       </c>
-      <c r="AD6" s="132">
+      <c r="AD6" s="127">
         <v>280</v>
       </c>
-      <c r="AH6" s="133">
+      <c r="AH6" s="128">
         <v>380</v>
       </c>
-      <c r="AI6" s="132">
+      <c r="AI6" s="127">
         <v>560</v>
       </c>
     </row>
     <row r="7" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C7" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="109">
+      <c r="C7" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="104">
         <v>17545.09295382088</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="104">
         <v>20090.949195825138</v>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="104">
         <v>14041.847426430093</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="106">
         <v>51677.889576076108</v>
       </c>
-      <c r="K7" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="103">
+      <c r="K7" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="98">
         <v>1</v>
       </c>
-      <c r="M7" s="103">
+      <c r="M7" s="98">
         <v>1</v>
       </c>
-      <c r="N7" s="103">
+      <c r="N7" s="98">
         <v>1</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="99">
         <v>19924.480375055824</v>
       </c>
-      <c r="P7" s="104">
+      <c r="P7" s="99">
         <v>49768.849685929476</v>
       </c>
-      <c r="Q7" s="105">
+      <c r="Q7" s="100">
         <v>53466.210043981671</v>
       </c>
-      <c r="R7" s="104">
+      <c r="R7" s="99">
         <v>138.494823139</v>
       </c>
-      <c r="S7" s="104">
+      <c r="S7" s="99">
         <v>140.28979616699999</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="100">
         <v>140</v>
       </c>
-      <c r="U7" s="145">
+      <c r="U7" s="139">
         <f t="shared" si="0"/>
         <v>139.59487310199998</v>
       </c>
-      <c r="AA7" s="131" t="s">
-        <v>147</v>
+      <c r="AA7" s="126" t="s">
+        <v>121</v>
       </c>
       <c r="AB7">
         <f t="shared" si="1"/>
         <v>585</v>
       </c>
-      <c r="AC7" s="132">
+      <c r="AC7" s="127">
         <v>900</v>
       </c>
-      <c r="AD7" s="132">
+      <c r="AD7" s="127">
         <v>350</v>
       </c>
-      <c r="AH7" s="133">
+      <c r="AH7" s="128">
         <v>470</v>
       </c>
-      <c r="AI7" s="132">
+      <c r="AI7" s="127">
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C8" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="104">
+      <c r="C8" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="99">
         <v>49768.849685929476</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="99">
         <v>53466.210043981671</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="99">
         <v>19924.480375055824</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="101">
         <v>123159.54010496697</v>
       </c>
-      <c r="K8" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="108">
+      <c r="K8" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="103">
         <v>0.62350597609561753</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="103">
         <v>0.63854266538830295</v>
       </c>
-      <c r="N8" s="108">
+      <c r="N8" s="103">
         <v>0.65110565110565111</v>
       </c>
-      <c r="O8" s="109">
+      <c r="O8" s="104">
         <v>36727.496963354082</v>
       </c>
-      <c r="P8" s="109">
+      <c r="P8" s="104">
         <v>180165.78839768126</v>
       </c>
-      <c r="Q8" s="110">
+      <c r="Q8" s="105">
         <v>163635.17790575436</v>
       </c>
-      <c r="R8" s="109">
+      <c r="R8" s="104">
         <v>187.42567462599999</v>
       </c>
-      <c r="S8" s="109">
+      <c r="S8" s="104">
         <v>189.15351469199999</v>
       </c>
-      <c r="T8" s="110">
+      <c r="T8" s="105">
         <v>190</v>
       </c>
-      <c r="U8" s="145">
+      <c r="U8" s="139">
         <f t="shared" si="0"/>
         <v>188.85972977266667</v>
       </c>
-      <c r="AA8" s="131" t="s">
-        <v>148</v>
+      <c r="AA8" s="126" t="s">
+        <v>122</v>
       </c>
       <c r="AB8">
         <f t="shared" si="1"/>
         <v>745</v>
       </c>
-      <c r="AC8" s="134">
+      <c r="AC8" s="129">
         <v>1200</v>
       </c>
-      <c r="AD8" s="132">
+      <c r="AD8" s="127">
         <v>440</v>
       </c>
-      <c r="AH8" s="133">
+      <c r="AH8" s="128">
         <v>590</v>
       </c>
-      <c r="AI8" s="132">
+      <c r="AI8" s="127">
         <v>900</v>
       </c>
     </row>
     <row r="9" spans="3:35" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="109">
+      <c r="C9" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="104">
         <v>282151.52747564798</v>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="104">
         <v>251318.93361374349</v>
       </c>
-      <c r="F9" s="109">
+      <c r="F9" s="104">
         <v>58904.8034364337</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="106">
         <v>592375.26452582516</v>
       </c>
-      <c r="I9" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="K9" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="103">
+      <c r="I9" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="98">
         <v>0.64275466284074612</v>
       </c>
-      <c r="M9" s="103">
+      <c r="M9" s="98">
         <v>0.6669136717302705</v>
       </c>
-      <c r="N9" s="103">
+      <c r="N9" s="98">
         <v>0.67542972699696668</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="99">
         <v>28113.665794547433</v>
       </c>
-      <c r="P9" s="104">
+      <c r="P9" s="99">
         <v>125131.02640900291</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="100">
         <v>112572.38085312897</v>
       </c>
-      <c r="R9" s="104">
+      <c r="R9" s="99">
         <v>260.96259530600003</v>
       </c>
-      <c r="S9" s="104">
+      <c r="S9" s="99">
         <v>259.598229774</v>
       </c>
-      <c r="T9" s="105">
+      <c r="T9" s="100">
         <v>261</v>
       </c>
-      <c r="U9" s="145">
+      <c r="U9" s="139">
         <f t="shared" si="0"/>
         <v>260.5202750266667</v>
       </c>
-      <c r="AA9" s="131" t="s">
-        <v>149</v>
+      <c r="AA9" s="126" t="s">
+        <v>123</v>
       </c>
       <c r="AB9">
         <f t="shared" si="1"/>
         <v>950</v>
       </c>
-      <c r="AC9" s="134">
+      <c r="AC9" s="129">
         <v>1500</v>
       </c>
-      <c r="AD9" s="132">
+      <c r="AD9" s="127">
         <v>570</v>
       </c>
-      <c r="AH9" s="133">
+      <c r="AH9" s="128">
         <v>800</v>
       </c>
-      <c r="AI9" s="134">
+      <c r="AI9" s="129">
         <v>1100</v>
       </c>
     </row>
     <row r="10" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C10" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="104">
+      <c r="C10" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="99">
         <v>187627.02237661046</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="99">
         <v>166667.79141279124</v>
       </c>
-      <c r="F10" s="104">
+      <c r="F10" s="99">
         <v>43739.341649106158</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="101">
         <v>398034.15543850785</v>
       </c>
-      <c r="K10" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="108">
+      <c r="K10" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="103">
         <v>0.65947786606129399</v>
       </c>
-      <c r="M10" s="108">
+      <c r="M10" s="103">
         <v>0.68235651381718798</v>
       </c>
-      <c r="N10" s="108">
+      <c r="N10" s="103">
         <v>0.68787878787878787</v>
       </c>
-      <c r="O10" s="109">
+      <c r="O10" s="104">
         <v>16993.344189187668</v>
       </c>
-      <c r="P10" s="109">
+      <c r="P10" s="104">
         <v>69203.844283713814</v>
       </c>
-      <c r="Q10" s="110">
+      <c r="Q10" s="105">
         <v>55991.061950391217</v>
       </c>
-      <c r="R10" s="109">
+      <c r="R10" s="104">
         <v>336.50531067600002</v>
       </c>
-      <c r="S10" s="109">
+      <c r="S10" s="104">
         <v>338.29602796400002</v>
       </c>
-      <c r="T10" s="110">
+      <c r="T10" s="105">
         <v>338</v>
       </c>
-      <c r="U10" s="145">
+      <c r="U10" s="139">
         <f t="shared" si="0"/>
         <v>337.60044621333333</v>
       </c>
-      <c r="AA10" s="131" t="s">
-        <v>150</v>
+      <c r="AA10" s="126" t="s">
+        <v>124</v>
       </c>
       <c r="AB10">
         <f t="shared" si="1"/>
         <v>1150</v>
       </c>
-      <c r="AC10" s="134">
+      <c r="AC10" s="129">
         <v>1900</v>
       </c>
-      <c r="AD10" s="132">
+      <c r="AD10" s="127">
         <v>700</v>
       </c>
-      <c r="AH10" s="133">
+      <c r="AH10" s="128">
         <v>900</v>
       </c>
-      <c r="AI10" s="134">
+      <c r="AI10" s="129">
         <v>1400</v>
       </c>
     </row>
     <row r="11" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C11" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="109">
+      <c r="C11" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="104">
         <v>101418.89596184672</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="104">
         <v>81396.697989555512</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="104">
         <v>25767.876472761334</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="106">
         <v>208583.47042416356</v>
       </c>
-      <c r="K11" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="103">
+      <c r="K11" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="98">
         <v>0.67760942760942755</v>
       </c>
-      <c r="M11" s="103">
+      <c r="M11" s="98">
         <v>0.69366197183098599</v>
       </c>
-      <c r="N11" s="103">
+      <c r="N11" s="98">
         <v>0.69895091794679653</v>
       </c>
-      <c r="O11" s="104">
+      <c r="O11" s="99">
         <v>8355.7192320215872</v>
       </c>
-      <c r="P11" s="104">
+      <c r="P11" s="99">
         <v>34768.978124585461</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="100">
         <v>30223.340670968584</v>
       </c>
-      <c r="R11" s="104">
+      <c r="R11" s="99">
         <v>412.60313041799998</v>
       </c>
-      <c r="S11" s="104">
+      <c r="S11" s="99">
         <v>413.05174855199999</v>
       </c>
-      <c r="T11" s="105">
+      <c r="T11" s="100">
         <v>415</v>
       </c>
-      <c r="U11" s="145">
+      <c r="U11" s="139">
         <f t="shared" si="0"/>
         <v>413.55162632333332</v>
       </c>
-      <c r="AA11" s="131" t="s">
-        <v>151</v>
+      <c r="AA11" s="126" t="s">
+        <v>125</v>
       </c>
       <c r="AB11">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="AC11" s="134">
+      <c r="AC11" s="129">
         <v>2200</v>
       </c>
-      <c r="AD11" s="132">
+      <c r="AD11" s="127">
         <v>800</v>
       </c>
-      <c r="AH11" s="135">
+      <c r="AH11" s="130">
         <v>1100</v>
       </c>
-      <c r="AI11" s="134">
+      <c r="AI11" s="129">
         <v>1600</v>
       </c>
     </row>
     <row r="12" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="104">
+      <c r="C12" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="99">
         <v>50123.806027321167</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="99">
         <v>43241.005762967114</v>
       </c>
-      <c r="F12" s="104">
+      <c r="F12" s="99">
         <v>12331.173226884033</v>
       </c>
-      <c r="G12" s="106">
+      <c r="G12" s="101">
         <v>105695.98501717232</v>
       </c>
-      <c r="K12" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="L12" s="114">
+      <c r="K12" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="109">
         <v>0.56219445953286251</v>
       </c>
-      <c r="M12" s="114">
+      <c r="M12" s="109">
         <v>0.54586660910856888</v>
       </c>
-      <c r="N12" s="114">
+      <c r="N12" s="109">
         <v>0.55669942286694751</v>
       </c>
-      <c r="O12" s="115">
+      <c r="O12" s="110">
         <v>8551.6367409636478</v>
       </c>
-      <c r="P12" s="115">
+      <c r="P12" s="110">
         <v>28770.813628890308</v>
       </c>
-      <c r="Q12" s="116">
+      <c r="Q12" s="111">
         <v>43665.016200037615</v>
       </c>
-      <c r="R12" s="115">
+      <c r="R12" s="110">
         <v>602.18691236799998</v>
       </c>
-      <c r="S12" s="115">
+      <c r="S12" s="110">
         <v>604.314151735</v>
       </c>
-      <c r="T12" s="116">
+      <c r="T12" s="111">
         <v>673</v>
       </c>
-      <c r="U12" s="145">
+      <c r="U12" s="139">
         <f t="shared" si="0"/>
         <v>626.50035470099999</v>
       </c>
-      <c r="AA12" s="131" t="s">
-        <v>153</v>
+      <c r="AA12" s="126" t="s">
+        <v>127</v>
       </c>
       <c r="AB12">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="AC12" s="134">
+      <c r="AC12" s="129">
         <v>2600</v>
       </c>
-      <c r="AD12" s="134">
+      <c r="AD12" s="129">
         <v>1000</v>
       </c>
-      <c r="AH12" s="135">
+      <c r="AH12" s="130">
         <v>1300</v>
       </c>
-      <c r="AI12" s="134">
+      <c r="AI12" s="129">
         <v>1900</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="118">
+      <c r="C13" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="113">
         <v>52706.674394088106</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="113">
         <v>78435.533443104825</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="113">
         <v>15211.172212670604</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="106">
         <v>146353.38004986354</v>
       </c>
-      <c r="O13" s="119">
+      <c r="O13" s="114">
         <v>0.74286208971025169</v>
       </c>
-      <c r="P13" s="119">
+      <c r="P13" s="114">
         <v>0.69963472197389465</v>
       </c>
-      <c r="Q13" s="119">
+      <c r="Q13" s="114">
         <v>0.71303848954914961</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>154</v>
+      <c r="AA13" s="126" t="s">
+        <v>128</v>
       </c>
       <c r="AB13">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="AC13" s="134">
+      <c r="AC13" s="129">
         <v>2900</v>
       </c>
-      <c r="AD13" s="134">
+      <c r="AD13" s="129">
         <v>1100</v>
       </c>
-      <c r="AH13" s="135">
+      <c r="AH13" s="130">
         <v>1500</v>
       </c>
-      <c r="AI13" s="134">
+      <c r="AI13" s="129">
         <v>2200</v>
       </c>
     </row>
     <row r="14" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="120" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="145">
+      <c r="C14" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="139">
         <f>SUM(D5:D13)</f>
         <v>766351.72099999979</v>
       </c>
-      <c r="E14" s="145">
+      <c r="E14" s="139">
         <f t="shared" ref="E14:F14" si="2">SUM(E5:E13)</f>
         <v>724429.72899999993</v>
       </c>
-      <c r="F14" s="145">
+      <c r="F14" s="139">
         <f t="shared" si="2"/>
         <v>206798.88499999998</v>
       </c>
-      <c r="G14" s="121">
+      <c r="G14" s="116">
         <v>1697580.3349999997</v>
       </c>
-      <c r="AA14" s="131" t="s">
-        <v>155</v>
+      <c r="AA14" s="126" t="s">
+        <v>129</v>
       </c>
       <c r="AB14">
         <f t="shared" si="1"/>
         <v>2150</v>
       </c>
-      <c r="AC14" s="134">
+      <c r="AC14" s="129">
         <v>3500</v>
       </c>
-      <c r="AD14" s="134">
+      <c r="AD14" s="129">
         <v>1300</v>
       </c>
-      <c r="AH14" s="135">
+      <c r="AH14" s="130">
         <v>1700</v>
       </c>
-      <c r="AI14" s="134">
+      <c r="AI14" s="129">
         <v>2600</v>
       </c>
     </row>
     <row r="15" spans="3:35" x14ac:dyDescent="0.2">
       <c r="L15" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA15" s="131" t="s">
-        <v>157</v>
+        <v>185</v>
+      </c>
+      <c r="AA15" s="126" t="s">
+        <v>131</v>
       </c>
       <c r="AB15">
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
-      <c r="AC15" s="134">
+      <c r="AC15" s="129">
         <v>4100</v>
       </c>
-      <c r="AD15" s="134">
+      <c r="AD15" s="129">
         <v>1500</v>
       </c>
-      <c r="AH15" s="135">
+      <c r="AH15" s="130">
         <v>2000</v>
       </c>
-      <c r="AI15" s="134">
+      <c r="AI15" s="129">
         <v>3100</v>
       </c>
     </row>
     <row r="16" spans="3:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L16" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA16" s="131" t="s">
-        <v>158</v>
+        <v>188</v>
+      </c>
+      <c r="AA16" s="126" t="s">
+        <v>132</v>
       </c>
       <c r="AB16">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="AC16" s="134">
+      <c r="AC16" s="129">
         <v>4700</v>
       </c>
-      <c r="AD16" s="134">
+      <c r="AD16" s="129">
         <v>1800</v>
       </c>
-      <c r="AH16" s="135">
+      <c r="AH16" s="130">
         <v>2300</v>
       </c>
-      <c r="AI16" s="134">
+      <c r="AI16" s="129">
         <v>3500</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="123" t="s">
-        <v>204</v>
+      <c r="F17" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="118" t="s">
+        <v>178</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA17" s="131" t="s">
-        <v>160</v>
+        <v>122</v>
+      </c>
+      <c r="AA17" s="126" t="s">
+        <v>134</v>
       </c>
       <c r="AB17">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="AC17" s="134">
+      <c r="AC17" s="129">
         <v>5300</v>
       </c>
-      <c r="AD17" s="134">
+      <c r="AD17" s="129">
         <v>2000</v>
       </c>
-      <c r="AH17" s="135">
+      <c r="AH17" s="130">
         <v>2600</v>
       </c>
-      <c r="AI17" s="134">
+      <c r="AI17" s="129">
         <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18" s="145">
+        <v>193</v>
+      </c>
+      <c r="F18" s="139">
         <f>SUM(D5:D8)</f>
         <v>92323.794764485472</v>
       </c>
-      <c r="G18" s="145">
+      <c r="G18" s="139">
         <f>SUM(E5:E8)</f>
         <v>103369.76677783766</v>
       </c>
-      <c r="H18" s="145">
+      <c r="H18" s="139">
         <f>SUM(F5:F8)</f>
         <v>50844.518002144141</v>
       </c>
-      <c r="L18" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="O18" s="97" t="s">
-        <v>145</v>
+      <c r="L18" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" s="92" t="s">
+        <v>119</v>
       </c>
       <c r="P18">
         <f>1-U4/$U$12</f>
@@ -6670,2005 +6593,1999 @@
         <f>1-U4/$U$11</f>
         <v>0.86898413298471344</v>
       </c>
-      <c r="R18" s="124">
+      <c r="R18" s="119">
         <f>1-U4/$U$10</f>
         <v>0.83950902468862476</v>
       </c>
-      <c r="S18" s="124">
+      <c r="S18" s="119">
         <f>1-U4/$U$9</f>
         <v>0.79202453677439377</v>
       </c>
-      <c r="T18" s="124">
+      <c r="T18" s="119">
         <f>1-U4/$U$8</f>
         <v>0.71311075715530881</v>
       </c>
-      <c r="U18" s="124">
+      <c r="U18" s="119">
         <f>1-U4/$U$7</f>
         <v>0.61186379073718955</v>
       </c>
-      <c r="V18" s="124">
+      <c r="V18" s="119">
         <f>1-U4/$U$6</f>
         <v>0.53071292912045642</v>
       </c>
-      <c r="W18" s="124">
+      <c r="W18" s="119">
         <f>1-U4/$U$5</f>
         <v>0.39867861447009212</v>
       </c>
-      <c r="AA18" s="131" t="s">
-        <v>161</v>
+      <c r="AA18" s="126" t="s">
+        <v>135</v>
       </c>
       <c r="AB18">
         <f t="shared" si="1"/>
         <v>3950</v>
       </c>
-      <c r="AC18" s="134">
+      <c r="AC18" s="129">
         <v>6300</v>
       </c>
-      <c r="AD18" s="134">
+      <c r="AD18" s="129">
         <v>2400</v>
       </c>
-      <c r="AH18" s="135">
+      <c r="AH18" s="130">
         <v>3200</v>
       </c>
-      <c r="AI18" s="134">
+      <c r="AI18" s="129">
         <v>4700</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="145">
+        <v>194</v>
+      </c>
+      <c r="F19" s="139">
         <f>D9</f>
         <v>282151.52747564798</v>
       </c>
-      <c r="G19" s="145">
+      <c r="G19" s="139">
         <f t="shared" ref="G19:H19" si="3">E9</f>
         <v>251318.93361374349</v>
       </c>
-      <c r="H19" s="145">
+      <c r="H19" s="139">
         <f t="shared" si="3"/>
         <v>58904.8034364337</v>
       </c>
-      <c r="O19" s="102" t="s">
-        <v>148</v>
+      <c r="O19" s="97" t="s">
+        <v>122</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19:P25" si="4">1-U5/$U$12</f>
         <v>0.85617788946237794</v>
       </c>
-      <c r="Q19" s="124">
+      <c r="Q19" s="119">
         <f t="shared" ref="Q19:Q24" si="5">1-U5/$U$11</f>
         <v>0.78212006063973538</v>
       </c>
-      <c r="R19" s="124">
+      <c r="R19" s="119">
         <f t="shared" ref="R19:R23" si="6">1-U5/$U$10</f>
         <v>0.73310283124232423</v>
       </c>
-      <c r="S19" s="124">
+      <c r="S19" s="119">
         <f t="shared" ref="S19:S22" si="7">1-U5/$U$9</f>
         <v>0.65413592759164874</v>
       </c>
-      <c r="T19" s="124">
+      <c r="T19" s="119">
         <f t="shared" ref="T19:T21" si="8">1-U5/$U$8</f>
         <v>0.5229019792936962</v>
       </c>
-      <c r="U19" s="124">
+      <c r="U19" s="119">
         <f t="shared" ref="U19:U20" si="9">1-U5/$U$7</f>
         <v>0.35452784716650365</v>
       </c>
-      <c r="V19" s="93">
+      <c r="V19" s="88">
         <f>1-U5/$U$6</f>
         <v>0.21957362207234754</v>
       </c>
-      <c r="AA19" s="136" t="s">
-        <v>162</v>
+      <c r="AA19" s="131" t="s">
+        <v>136</v>
       </c>
       <c r="AB19">
         <f t="shared" si="1"/>
         <v>4950</v>
       </c>
-      <c r="AC19" s="137">
+      <c r="AC19" s="132">
         <v>7900</v>
       </c>
-      <c r="AD19" s="137">
+      <c r="AD19" s="132">
         <v>3000</v>
       </c>
-      <c r="AH19" s="138">
+      <c r="AH19" s="133">
         <v>4000</v>
       </c>
-      <c r="AI19" s="137">
+      <c r="AI19" s="132">
         <v>5900</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="145">
+        <v>195</v>
+      </c>
+      <c r="F20" s="139">
         <f>SUM(D10:D13)</f>
         <v>391876.39875986642</v>
       </c>
-      <c r="G20" s="145">
+      <c r="G20" s="139">
         <f t="shared" ref="G20:H20" si="10">SUM(E10:E13)</f>
         <v>369741.02860841871</v>
       </c>
-      <c r="H20" s="145">
+      <c r="H20" s="139">
         <f t="shared" si="10"/>
         <v>97049.563561422125</v>
       </c>
-      <c r="O20" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" s="124">
+      <c r="O20" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="119">
         <f t="shared" si="4"/>
         <v>0.81571341691508692</v>
       </c>
-      <c r="Q20" s="124">
+      <c r="Q20" s="119">
         <f t="shared" si="5"/>
         <v>0.72081935526215313</v>
       </c>
-      <c r="R20" s="124">
+      <c r="R20" s="119">
         <f t="shared" si="6"/>
         <v>0.658011086879975</v>
       </c>
-      <c r="S20" s="124">
+      <c r="S20" s="119">
         <f t="shared" si="7"/>
         <v>0.55682677804053693</v>
       </c>
-      <c r="T20" s="124">
+      <c r="T20" s="119">
         <f t="shared" si="8"/>
         <v>0.388670047297489</v>
       </c>
-      <c r="U20" s="93">
+      <c r="U20" s="88">
         <f t="shared" si="9"/>
         <v>0.17292371056513256</v>
       </c>
-      <c r="Y20" s="139" t="s">
-        <v>206</v>
+      <c r="Y20" s="134" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="145">
+      <c r="F21" s="139">
         <f>SUM(F18:F20)</f>
         <v>766351.7209999999</v>
       </c>
-      <c r="G21" s="85"/>
-      <c r="O21" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="124">
+      <c r="G21" s="80"/>
+      <c r="O21" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="119">
         <f t="shared" si="4"/>
         <v>0.77718309007403152</v>
       </c>
-      <c r="Q21" s="124">
+      <c r="Q21" s="119">
         <f t="shared" si="5"/>
         <v>0.66244873864222598</v>
       </c>
-      <c r="R21" s="124">
+      <c r="R21" s="119">
         <f t="shared" si="6"/>
         <v>0.58650862382513413</v>
       </c>
-      <c r="S21" s="124">
+      <c r="S21" s="119">
         <f t="shared" si="7"/>
         <v>0.46416887097285942</v>
       </c>
-      <c r="T21" s="93">
+      <c r="T21" s="88">
         <f t="shared" si="8"/>
         <v>0.26085421561265365</v>
       </c>
-      <c r="Y21" s="140" t="s">
-        <v>207</v>
+      <c r="Y21" s="135" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="F22" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="O22" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" s="124">
+      <c r="F22" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="119">
         <f t="shared" si="4"/>
         <v>0.69854808803292578</v>
       </c>
-      <c r="Q22" s="124">
+      <c r="Q22" s="119">
         <f t="shared" si="5"/>
         <v>0.54332248321275467</v>
       </c>
-      <c r="R22" s="124">
+      <c r="R22" s="119">
         <f t="shared" si="6"/>
         <v>0.44058210855170443</v>
       </c>
-      <c r="S22" s="93">
+      <c r="S22" s="88">
         <f t="shared" si="7"/>
         <v>0.27506705666829534</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="165">
+        <v>193</v>
+      </c>
+      <c r="F23" s="159">
         <f>F18/$D$14</f>
         <v>0.12047183066805627</v>
       </c>
-      <c r="G23" s="165">
+      <c r="G23" s="159">
         <f>G18/$E$14</f>
         <v>0.14269122682268837</v>
       </c>
-      <c r="H23" s="165">
+      <c r="H23" s="159">
         <f>H18/$F$14</f>
         <v>0.24586456547937455</v>
       </c>
-      <c r="O23" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" s="124">
+      <c r="O23" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="119">
         <f t="shared" si="4"/>
         <v>0.58416579803693625</v>
       </c>
-      <c r="Q23" s="124">
+      <c r="Q23" s="119">
         <f t="shared" si="5"/>
         <v>0.37004171077063985</v>
       </c>
-      <c r="R23" s="93">
+      <c r="R23" s="88">
         <f t="shared" si="6"/>
         <v>0.22831774084196221</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="165">
+        <v>194</v>
+      </c>
+      <c r="F24" s="159">
         <f t="shared" ref="F24:F25" si="11">F19/$D$14</f>
         <v>0.36817497729041837</v>
       </c>
-      <c r="G24" s="165">
+      <c r="G24" s="159">
         <f t="shared" ref="G24:G25" si="12">G19/$E$14</f>
         <v>0.34691968530979972</v>
       </c>
-      <c r="H24" s="165">
+      <c r="H24" s="159">
         <f t="shared" ref="H24:H25" si="13">H19/$F$14</f>
         <v>0.28484101080348528</v>
       </c>
-      <c r="O24" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="P24" s="124">
+      <c r="O24" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="119">
         <f t="shared" si="4"/>
         <v>0.46113287298224337</v>
       </c>
-      <c r="Q24" s="93">
+      <c r="Q24" s="88">
         <f t="shared" si="5"/>
         <v>0.18365586126511313</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="165">
+        <v>195</v>
+      </c>
+      <c r="F25" s="159">
         <f t="shared" si="11"/>
         <v>0.51135319204152541</v>
       </c>
-      <c r="G25" s="165">
+      <c r="G25" s="159">
         <f t="shared" si="12"/>
         <v>0.5103890878675118</v>
       </c>
-      <c r="H25" s="165">
+      <c r="H25" s="159">
         <f t="shared" si="13"/>
         <v>0.46929442371714014</v>
       </c>
-      <c r="O25" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="P25" s="93">
+      <c r="O25" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="88">
         <f t="shared" si="4"/>
         <v>0.33990200768409362</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C27" s="92"/>
+      <c r="C27" s="87"/>
     </row>
     <row r="28" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="91"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
+      <c r="C28" s="86"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
     </row>
     <row r="29" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="186" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="186" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="180" t="s">
-        <v>216</v>
-      </c>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="181"/>
-      <c r="S29" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="T29" s="181"/>
-      <c r="U29" s="181"/>
-      <c r="V29" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="W29" s="181"/>
-      <c r="X29" s="181"/>
+      <c r="A29" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="181" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="181" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="175" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="175" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="W29" s="176"/>
+      <c r="X29" s="176"/>
     </row>
     <row r="30" spans="1:35" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="142" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="M30" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="N30" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="O30" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="P30" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q30" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="R30" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="S30" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="T30" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="U30" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="V30" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="W30" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="X30" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA30" s="143" t="s">
-        <v>208</v>
+      <c r="A30" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q30" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="T30" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="U30" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="V30" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="W30" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="X30" s="144" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C31" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146">
+      <c r="C31" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140">
         <v>14978</v>
       </c>
-      <c r="F31" s="146">
+      <c r="F31" s="140">
         <v>6086</v>
       </c>
-      <c r="G31" s="146">
+      <c r="G31" s="140">
         <f t="shared" ref="G31:G56" si="14">SUM(E31:F31)</f>
         <v>21064</v>
       </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146">
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140">
         <f t="shared" ref="M31:M44" si="15">AVERAGE(G31:I31)</f>
         <v>21064</v>
       </c>
-      <c r="N31" s="146">
+      <c r="N31" s="140">
         <f>AVERAGE(G31*1.1,J31:K31)</f>
         <v>23170.400000000001</v>
       </c>
-      <c r="O31" s="146">
+      <c r="O31" s="140">
         <f>AVERAGE(G31*0.9,L31)</f>
         <v>18957.600000000002</v>
       </c>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="140"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C32" s="147" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147">
+      <c r="C32" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141">
         <v>24338</v>
       </c>
-      <c r="F32" s="147">
+      <c r="F32" s="141">
         <v>6086</v>
       </c>
-      <c r="G32" s="147">
+      <c r="G32" s="141">
         <f t="shared" si="14"/>
         <v>30424</v>
       </c>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147">
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141">
         <f t="shared" si="15"/>
         <v>30424</v>
       </c>
-      <c r="N32" s="147">
+      <c r="N32" s="141">
         <f t="shared" ref="N32:N57" si="16">AVERAGE(G32*1.1,J32:K32)</f>
         <v>33466.400000000001</v>
       </c>
-      <c r="O32" s="147">
+      <c r="O32" s="141">
         <f t="shared" ref="O32:O57" si="17">AVERAGE(G32*0.9,L32)</f>
         <v>27381.600000000002</v>
       </c>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="152"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C33" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147">
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C33" s="141" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141">
         <v>24338</v>
       </c>
-      <c r="F33" s="147">
+      <c r="F33" s="141">
         <v>6086</v>
       </c>
-      <c r="G33" s="147">
+      <c r="G33" s="141">
         <f t="shared" si="14"/>
         <v>30424</v>
       </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147">
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141">
         <f t="shared" si="15"/>
         <v>30424</v>
       </c>
-      <c r="N33" s="147">
+      <c r="N33" s="141">
         <f t="shared" si="16"/>
         <v>33466.400000000001</v>
       </c>
-      <c r="O33" s="147">
+      <c r="O33" s="141">
         <f t="shared" si="17"/>
         <v>27381.600000000002</v>
       </c>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="AA33" s="143" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C34" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147">
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C34" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141">
         <v>26211</v>
       </c>
-      <c r="F34" s="147">
+      <c r="F34" s="141">
         <v>6086</v>
       </c>
-      <c r="G34" s="147">
+      <c r="G34" s="141">
         <f t="shared" si="14"/>
         <v>32297</v>
       </c>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147">
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141">
         <f t="shared" si="15"/>
         <v>32297</v>
       </c>
-      <c r="N34" s="147">
+      <c r="N34" s="141">
         <f t="shared" si="16"/>
         <v>35526.700000000004</v>
       </c>
-      <c r="O34" s="147">
+      <c r="O34" s="141">
         <f t="shared" si="17"/>
         <v>29067.3</v>
       </c>
-      <c r="P34" s="152"/>
-      <c r="Q34" s="152"/>
-      <c r="R34" s="152"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-    </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C35" s="147" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147">
+      <c r="P34" s="146"/>
+      <c r="Q34" s="146"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="141"/>
+      <c r="U34" s="141"/>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C35" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141">
         <v>28083</v>
       </c>
-      <c r="F35" s="147">
+      <c r="F35" s="141">
         <v>6086</v>
       </c>
-      <c r="G35" s="147">
+      <c r="G35" s="141">
         <f t="shared" si="14"/>
         <v>34169</v>
       </c>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147">
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141">
         <f t="shared" si="15"/>
         <v>34169</v>
       </c>
-      <c r="N35" s="147">
+      <c r="N35" s="141">
         <f t="shared" si="16"/>
         <v>37585.9</v>
       </c>
-      <c r="O35" s="147">
+      <c r="O35" s="141">
         <f t="shared" si="17"/>
         <v>30752.100000000002</v>
       </c>
-      <c r="P35" s="152"/>
-      <c r="Q35" s="152"/>
-      <c r="R35" s="152"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-    </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C36" s="147" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147">
+      <c r="P35" s="146"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="141"/>
+      <c r="U35" s="141"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C36" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141">
         <v>29955</v>
       </c>
-      <c r="F36" s="147">
+      <c r="F36" s="141">
         <v>6086</v>
       </c>
-      <c r="G36" s="147">
+      <c r="G36" s="141">
         <f t="shared" si="14"/>
         <v>36041</v>
       </c>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147">
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="141">
         <f t="shared" si="15"/>
         <v>36041</v>
       </c>
-      <c r="N36" s="147">
+      <c r="N36" s="141">
         <f t="shared" si="16"/>
         <v>39645.100000000006</v>
       </c>
-      <c r="O36" s="147">
+      <c r="O36" s="141">
         <f t="shared" si="17"/>
         <v>32436.9</v>
       </c>
-      <c r="P36" s="152"/>
-      <c r="Q36" s="152"/>
-      <c r="R36" s="152"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C37" s="148" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148">
+      <c r="P36" s="146"/>
+      <c r="Q36" s="146"/>
+      <c r="R36" s="146"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="141"/>
+      <c r="U36" s="141"/>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C37" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142">
         <v>14978</v>
       </c>
-      <c r="F37" s="148">
+      <c r="F37" s="142">
         <v>6086</v>
       </c>
-      <c r="G37" s="148">
+      <c r="G37" s="142">
         <f t="shared" si="14"/>
         <v>21064</v>
       </c>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148">
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142">
         <f t="shared" si="15"/>
         <v>21064</v>
       </c>
-      <c r="N37" s="148">
+      <c r="N37" s="142">
         <f t="shared" si="16"/>
         <v>23170.400000000001</v>
       </c>
-      <c r="O37" s="148">
+      <c r="O37" s="142">
         <f>AVERAGE(G37*0.9,L37)</f>
         <v>18957.600000000002</v>
       </c>
-      <c r="P37" s="153">
+      <c r="P37" s="147">
         <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$8:$AB$10))</f>
         <v>0.5465729349736379</v>
       </c>
-      <c r="Q37" s="153">
+      <c r="Q37" s="147">
         <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$8:$AC$10))</f>
         <v>0.54347826086956519</v>
       </c>
-      <c r="R37" s="153">
+      <c r="R37" s="147">
         <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$8:$AD$10))</f>
         <v>0.54970760233918126</v>
       </c>
-      <c r="S37" s="148">
+      <c r="S37" s="142">
         <f>SUM(D6:D8)/SUM(D6:D13)*M37</f>
         <v>2155.8776533753853</v>
       </c>
-      <c r="T37" s="148">
+      <c r="T37" s="142">
         <f>SUM(E6:E8)/SUM(E6:E13)*N37</f>
         <v>2731.2453287173885</v>
       </c>
-      <c r="U37" s="148">
+      <c r="U37" s="142">
         <f>SUM(F6:F8)/SUM(F6:F13)*O37</f>
         <v>3978.7737999936576</v>
       </c>
-      <c r="V37" s="153">
+      <c r="V37" s="147">
         <f>SUM(D6:D8)/SUM(D6:D13)*P37</f>
         <v>5.5941149660532832E-2</v>
       </c>
-      <c r="W37" s="153">
+      <c r="W37" s="147">
         <f>SUM(E6:E8)/SUM(E6:E13)*Q37</f>
         <v>6.4063307550126458E-2</v>
       </c>
-      <c r="X37" s="153">
+      <c r="X37" s="147">
         <f>SUM(F6:F8)/SUM(F6:F13)*R37</f>
         <v>0.11537126038340646</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C38" s="146" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C38" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140">
         <v>24338</v>
       </c>
-      <c r="F38" s="146">
+      <c r="F38" s="140">
         <v>6086</v>
       </c>
-      <c r="G38" s="146">
+      <c r="G38" s="140">
         <f t="shared" si="14"/>
         <v>30424</v>
       </c>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146">
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="140">
         <f t="shared" si="15"/>
         <v>30424</v>
       </c>
-      <c r="N38" s="146">
+      <c r="N38" s="140">
         <f t="shared" si="16"/>
         <v>33466.400000000001</v>
       </c>
-      <c r="O38" s="146">
+      <c r="O38" s="140">
         <f t="shared" si="17"/>
         <v>27381.600000000002</v>
       </c>
-      <c r="P38" s="154">
+      <c r="P38" s="148">
         <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$11:$AB$13))</f>
         <v>0.73124999999999996</v>
       </c>
-      <c r="Q38" s="154">
+      <c r="Q38" s="148">
         <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$11:$AC$13))</f>
         <v>0.72727272727272729</v>
       </c>
-      <c r="R38" s="154">
+      <c r="R38" s="148">
         <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$11:$AD$13))</f>
         <v>0.73448275862068968</v>
       </c>
-      <c r="S38" s="146">
+      <c r="S38" s="140">
         <f>SUM(D9)/SUM(D6:D13)*M38</f>
         <v>11432.162401919726</v>
       </c>
-      <c r="T38" s="146">
+      <c r="T38" s="140">
         <f t="shared" ref="T38:U38" si="18">SUM(E9)/SUM(E6:E13)*N38</f>
         <v>11946.208000785055</v>
       </c>
-      <c r="U38" s="146">
+      <c r="U38" s="140">
         <f t="shared" si="18"/>
         <v>8171.5871871879508</v>
       </c>
-      <c r="V38" s="154">
+      <c r="V38" s="148">
         <f>SUM(D9)/SUM(D6:D13)*P37</f>
         <v>0.20538096756220545</v>
       </c>
-      <c r="W38" s="154">
+      <c r="W38" s="148">
         <f t="shared" ref="W38:X38" si="19">SUM(E9)/SUM(E6:E13)*Q37</f>
         <v>0.19400067973408391</v>
       </c>
-      <c r="X38" s="154">
+      <c r="X38" s="148">
         <f t="shared" si="19"/>
         <v>0.16405117304959033</v>
       </c>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C39" s="148" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C39" s="142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142">
         <v>7489</v>
       </c>
-      <c r="F39" s="148">
+      <c r="F39" s="142">
         <v>5326</v>
       </c>
-      <c r="G39" s="148">
+      <c r="G39" s="142">
         <f t="shared" si="14"/>
         <v>12815</v>
       </c>
-      <c r="H39" s="148">
+      <c r="H39" s="142">
         <v>5200</v>
       </c>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148">
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142">
         <f>AVERAGE(G39:I39)</f>
         <v>9007.5</v>
       </c>
-      <c r="N39" s="148">
+      <c r="N39" s="142">
         <f t="shared" si="16"/>
         <v>14096.500000000002</v>
       </c>
-      <c r="O39" s="148">
+      <c r="O39" s="142">
         <f>AVERAGE(G39*0.9,L39)</f>
         <v>11533.5</v>
       </c>
-      <c r="P39" s="153">
+      <c r="P39" s="147">
         <f>1-(AVERAGE(AB8:AB10)/AVERAGE($AB$11:$AB$13))</f>
         <v>0.40729166666666661</v>
       </c>
-      <c r="Q39" s="153">
+      <c r="Q39" s="147">
         <f>1-(AVERAGE(AC8:AC10)/AVERAGE($AC$11:$AC$13))</f>
         <v>0.40259740259740262</v>
       </c>
-      <c r="R39" s="153">
+      <c r="R39" s="147">
         <f>1-(AVERAGE(AD8:AD10)/AVERAGE($AD$11:$AD$13))</f>
         <v>0.41034482758620683</v>
       </c>
-      <c r="S39" s="148">
+      <c r="S39" s="142">
         <f>D9/SUM(D6:D13)*M39</f>
         <v>3384.6700905631055</v>
       </c>
-      <c r="T39" s="148">
+      <c r="T39" s="142">
         <f>E9/SUM(E6:E13)*N39</f>
         <v>5031.9042706435866</v>
       </c>
-      <c r="U39" s="148">
+      <c r="U39" s="142">
         <f>F9/SUM(F6:F13)*O39</f>
         <v>3441.9829675195106</v>
       </c>
-      <c r="V39" s="153">
+      <c r="V39" s="147">
         <f>D9/SUM(D6:D13)*P39</f>
         <v>0.15304445432165026</v>
       </c>
-      <c r="W39" s="153">
+      <c r="W39" s="147">
         <f t="shared" ref="W39:X39" si="20">E9/SUM(E6:E13)*Q39</f>
         <v>0.14371167236405388</v>
       </c>
-      <c r="X39" s="153">
+      <c r="X39" s="147">
         <f t="shared" si="20"/>
         <v>0.12246065005084789</v>
       </c>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C40" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147">
+    <row r="40" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C40" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141">
         <v>24338</v>
       </c>
-      <c r="F40" s="147">
+      <c r="F40" s="141">
         <v>6086</v>
       </c>
-      <c r="G40" s="147">
+      <c r="G40" s="141">
         <f t="shared" si="14"/>
         <v>30424</v>
       </c>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147">
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141">
         <f t="shared" si="15"/>
         <v>30424</v>
       </c>
-      <c r="N40" s="147">
+      <c r="N40" s="141">
         <f t="shared" si="16"/>
         <v>33466.400000000001</v>
       </c>
-      <c r="O40" s="147">
+      <c r="O40" s="141">
         <f t="shared" si="17"/>
         <v>27381.600000000002</v>
       </c>
-      <c r="P40" s="155">
+      <c r="P40" s="149">
         <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$14:$AB$15))</f>
         <v>0.81702127659574475</v>
       </c>
-      <c r="Q40" s="155">
+      <c r="Q40" s="149">
         <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$14:$AC$15))</f>
         <v>0.81578947368421051</v>
       </c>
-      <c r="R40" s="155">
+      <c r="R40" s="149">
         <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$14:$AD$15))</f>
         <v>0.81666666666666665</v>
       </c>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="147"/>
-    </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C41" s="146" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146">
+      <c r="S40" s="141"/>
+      <c r="T40" s="141"/>
+      <c r="U40" s="141"/>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C41" s="140" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140">
         <v>7489</v>
       </c>
-      <c r="F41" s="146">
+      <c r="F41" s="140">
         <v>5326</v>
       </c>
-      <c r="G41" s="146">
+      <c r="G41" s="140">
         <f t="shared" si="14"/>
         <v>12815</v>
       </c>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146">
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140">
         <f t="shared" si="15"/>
         <v>12815</v>
       </c>
-      <c r="N41" s="146">
+      <c r="N41" s="140">
         <f t="shared" si="16"/>
         <v>14096.500000000002</v>
       </c>
-      <c r="O41" s="146">
+      <c r="O41" s="140">
         <f t="shared" si="17"/>
         <v>11533.5</v>
       </c>
-      <c r="P41" s="154">
+      <c r="P41" s="148">
         <f>1-(AVERAGE(AB8:AB10)/AVERAGE($AB$14:$AB$15))</f>
         <v>0.59645390070921978</v>
       </c>
-      <c r="Q41" s="154">
+      <c r="Q41" s="148">
         <f>1-(AVERAGE(AC8:AC10)/AVERAGE($AC$14:$AC$15))</f>
         <v>0.59649122807017552</v>
       </c>
-      <c r="R41" s="154">
+      <c r="R41" s="148">
         <f>1-(AVERAGE(AD8:AD10)/AVERAGE($AD$14:$AD$15))</f>
         <v>0.59285714285714286</v>
       </c>
-      <c r="S41" s="146">
+      <c r="S41" s="140">
         <f>SUM(D10)/SUM(D6:D13)*M41</f>
         <v>3202.1646884279426</v>
       </c>
-      <c r="T41" s="146">
+      <c r="T41" s="140">
         <f t="shared" ref="T41:U41" si="21">SUM(E10)/SUM(E6:E13)*N41</f>
         <v>3337.0202528302325</v>
       </c>
-      <c r="U41" s="146">
+      <c r="U41" s="140">
         <f t="shared" si="21"/>
         <v>2555.819902348102</v>
       </c>
-      <c r="V41" s="154">
+      <c r="V41" s="148">
         <f>SUM(D10)/SUM(D6:D13)*P41</f>
         <v>0.14903968935826528</v>
       </c>
-      <c r="W41" s="154">
+      <c r="W41" s="148">
         <f t="shared" ref="W41:X41" si="22">SUM(E10)/SUM(E6:E13)*Q41</f>
         <v>0.14120549843619004</v>
       </c>
-      <c r="X41" s="154">
+      <c r="X41" s="148">
         <f t="shared" si="22"/>
         <v>0.13137695278653641</v>
       </c>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C42" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C42" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142">
         <v>3744</v>
       </c>
-      <c r="F42" s="148">
+      <c r="F42" s="142">
         <v>4565</v>
       </c>
-      <c r="G42" s="148">
+      <c r="G42" s="142">
         <f t="shared" si="14"/>
         <v>8309</v>
       </c>
-      <c r="H42" s="148">
+      <c r="H42" s="142">
         <v>5000</v>
       </c>
-      <c r="I42" s="148">
+      <c r="I42" s="142">
         <v>9300</v>
       </c>
-      <c r="J42" s="148">
+      <c r="J42" s="142">
         <v>30000</v>
       </c>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148">
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142">
         <f t="shared" si="15"/>
         <v>7536.333333333333</v>
       </c>
-      <c r="N42" s="148">
+      <c r="N42" s="142">
         <f t="shared" si="16"/>
         <v>19569.95</v>
       </c>
-      <c r="O42" s="148">
+      <c r="O42" s="142">
         <f t="shared" si="17"/>
         <v>7478.1</v>
       </c>
-      <c r="P42" s="153">
+      <c r="P42" s="147">
         <f>1-(AVERAGE(AB11:AB13)/AVERAGE($AB$14:$AB$15))</f>
         <v>0.31914893617021278</v>
       </c>
-      <c r="Q42" s="153">
+      <c r="Q42" s="147">
         <f>1-(AVERAGE(AC11:AC13)/AVERAGE($AC$14:$AC$15))</f>
         <v>0.32456140350877194</v>
       </c>
-      <c r="R42" s="153">
+      <c r="R42" s="147">
         <f>1-(AVERAGE(AD11:AD13)/AVERAGE($AD$14:$AD$15))</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="S42" s="148">
+      <c r="S42" s="142">
         <f>D10/SUM(D6:D13)*M42</f>
         <v>1883.1510324012836</v>
       </c>
-      <c r="T42" s="148">
+      <c r="T42" s="142">
         <f>E10/SUM(E6:E13)*N42</f>
         <v>4632.7329122033843</v>
       </c>
-      <c r="U42" s="148">
+      <c r="U42" s="142">
         <f>F10/SUM(F6:F13)*O42</f>
         <v>1657.1445625134904</v>
       </c>
-      <c r="V42" s="153">
+      <c r="V42" s="147">
         <f>D10/SUM(D6:D13)*P42</f>
         <v>7.9747752926539114E-2</v>
       </c>
-      <c r="W42" s="153">
+      <c r="W42" s="147">
         <f t="shared" ref="W42:X42" si="23">E10/SUM(E6:E13)*Q42</f>
         <v>7.6832403560868096E-2</v>
       </c>
-      <c r="X42" s="153">
+      <c r="X42" s="147">
         <f t="shared" si="23"/>
         <v>6.8590376956826238E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C43" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147">
+    <row r="43" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C43" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141">
         <v>26211</v>
       </c>
-      <c r="F43" s="147">
+      <c r="F43" s="141">
         <v>6086</v>
       </c>
-      <c r="G43" s="147">
+      <c r="G43" s="141">
         <f t="shared" si="14"/>
         <v>32297</v>
       </c>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147">
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141">
         <f t="shared" si="15"/>
         <v>32297</v>
       </c>
-      <c r="N43" s="147">
+      <c r="N43" s="141">
         <f t="shared" si="16"/>
         <v>35526.700000000004</v>
       </c>
-      <c r="O43" s="147">
+      <c r="O43" s="141">
         <f t="shared" si="17"/>
         <v>29067.3</v>
       </c>
-      <c r="P43" s="155">
+      <c r="P43" s="149">
         <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$16:$AB$17))</f>
         <v>0.8612903225806452</v>
       </c>
-      <c r="Q43" s="155">
+      <c r="Q43" s="149">
         <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$16:$AC$17))</f>
         <v>0.86</v>
       </c>
-      <c r="R43" s="155">
+      <c r="R43" s="149">
         <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$16:$AD$17))</f>
         <v>0.86491228070175441</v>
       </c>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-    </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C44" s="146" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146">
+      <c r="S43" s="141"/>
+      <c r="T43" s="141"/>
+      <c r="U43" s="141"/>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C44" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140">
         <v>14978</v>
       </c>
-      <c r="F44" s="146">
+      <c r="F44" s="140">
         <v>5326</v>
       </c>
-      <c r="G44" s="146">
+      <c r="G44" s="140">
         <f t="shared" si="14"/>
         <v>20304</v>
       </c>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146">
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="140">
         <f t="shared" si="15"/>
         <v>20304</v>
       </c>
-      <c r="N44" s="146">
+      <c r="N44" s="140">
         <f t="shared" si="16"/>
         <v>22334.400000000001</v>
       </c>
-      <c r="O44" s="146">
+      <c r="O44" s="140">
         <f t="shared" si="17"/>
         <v>18273.600000000002</v>
       </c>
-      <c r="P44" s="154">
+      <c r="P44" s="148">
         <f>1-(AVERAGE(AB8:AB10)/AVERAGE($AB$16:$AB$17))</f>
         <v>0.69408602150537635</v>
       </c>
-      <c r="Q44" s="154">
+      <c r="Q44" s="148">
         <f>1-(AVERAGE(AC8:AC10)/AVERAGE($AC$16:$AC$17))</f>
         <v>0.69333333333333336</v>
       </c>
-      <c r="R44" s="154">
+      <c r="R44" s="148">
         <f>1-(AVERAGE(AD8:AD10)/AVERAGE($AD$16:$AD$17))</f>
         <v>0.7</v>
       </c>
-      <c r="S44" s="146">
+      <c r="S44" s="140">
         <f>SUM(D11)/SUM(D6:D13)*M44</f>
         <v>2742.3958967170497</v>
       </c>
-      <c r="T44" s="146">
+      <c r="T44" s="140">
         <f t="shared" ref="T44:U44" si="24">SUM(E11)/SUM(E6:E13)*N44</f>
         <v>2582.1231033841427</v>
       </c>
-      <c r="U44" s="146">
+      <c r="U44" s="140">
         <f t="shared" si="24"/>
         <v>2385.6110070402383</v>
       </c>
-      <c r="V44" s="154">
+      <c r="V44" s="148">
         <f>SUM(D11)/SUM(D6:D13)*P44</f>
         <v>9.3747963817228427E-2</v>
       </c>
-      <c r="W44" s="154">
+      <c r="W44" s="148">
         <f t="shared" ref="W44:X44" si="25">SUM(E11)/SUM(E6:E13)*Q44</f>
         <v>8.0157605234362189E-2</v>
       </c>
-      <c r="X44" s="154">
+      <c r="X44" s="148">
         <f t="shared" si="25"/>
         <v>9.1384713736109291E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C45" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147">
+    <row r="45" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C45" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141">
         <v>9361</v>
       </c>
-      <c r="F45" s="147">
+      <c r="F45" s="141">
         <v>4565</v>
       </c>
-      <c r="G45" s="147">
+      <c r="G45" s="141">
         <f t="shared" si="14"/>
         <v>13926</v>
       </c>
-      <c r="H45" s="147">
+      <c r="H45" s="141">
         <f>H46+12600</f>
         <v>24800</v>
       </c>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147">
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141">
         <v>15500</v>
       </c>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147">
+      <c r="L45" s="141"/>
+      <c r="M45" s="141">
         <f t="shared" ref="M45:M57" si="26">AVERAGE(G45:I45)</f>
         <v>19363</v>
       </c>
-      <c r="N45" s="147">
+      <c r="N45" s="141">
         <f t="shared" si="16"/>
         <v>15409.3</v>
       </c>
-      <c r="O45" s="147">
+      <c r="O45" s="141">
         <f t="shared" si="17"/>
         <v>12533.4</v>
       </c>
-      <c r="P45" s="155">
+      <c r="P45" s="149">
         <f>1-(AVERAGE(AB11:AB13)/AVERAGE($AB$16:$AB$17))</f>
         <v>0.4838709677419355</v>
       </c>
-      <c r="Q45" s="155">
+      <c r="Q45" s="149">
         <f>1-(AVERAGE(AC11:AC13)/AVERAGE($AC$16:$AC$17))</f>
         <v>0.48666666666666669</v>
       </c>
-      <c r="R45" s="155">
+      <c r="R45" s="149">
         <f>1-(AVERAGE(AD11:AD13)/AVERAGE($AD$16:$AD$17))</f>
         <v>0.49122807017543857</v>
       </c>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-    </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C46" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148">
+      <c r="S45" s="141"/>
+      <c r="T45" s="141"/>
+      <c r="U45" s="141"/>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C46" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142">
         <v>9361</v>
       </c>
-      <c r="F46" s="148">
+      <c r="F46" s="142">
         <v>3804</v>
       </c>
-      <c r="G46" s="148">
+      <c r="G46" s="142">
         <f t="shared" si="14"/>
         <v>13165</v>
       </c>
-      <c r="H46" s="148">
+      <c r="H46" s="142">
         <v>12200</v>
       </c>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148">
+      <c r="I46" s="142"/>
+      <c r="J46" s="142">
         <v>14000</v>
       </c>
-      <c r="K46" s="148">
+      <c r="K46" s="142">
         <v>2000</v>
       </c>
-      <c r="L46" s="148"/>
-      <c r="M46" s="148">
+      <c r="L46" s="142"/>
+      <c r="M46" s="142">
         <f t="shared" si="26"/>
         <v>12682.5</v>
       </c>
-      <c r="N46" s="148">
+      <c r="N46" s="142">
         <f t="shared" si="16"/>
         <v>10160.5</v>
       </c>
-      <c r="O46" s="148">
+      <c r="O46" s="142">
         <f t="shared" si="17"/>
         <v>11848.5</v>
       </c>
-      <c r="P46" s="153">
+      <c r="P46" s="147">
         <f>1-(AVERAGE(AB14:AB15)/AVERAGE($AB$16:$AB$17))</f>
         <v>0.24193548387096775</v>
       </c>
-      <c r="Q46" s="153">
+      <c r="Q46" s="147">
         <f>1-(AVERAGE(AC14:AC15)/AVERAGE($AC$16:$AC$17))</f>
         <v>0.24</v>
       </c>
-      <c r="R46" s="153">
+      <c r="R46" s="147">
         <f>1-(AVERAGE(AD14:AD15)/AVERAGE($AD$16:$AD$17))</f>
         <v>0.26315789473684215</v>
       </c>
-      <c r="S46" s="148">
+      <c r="S46" s="142">
         <f>D11/SUM(D6:D13)*M46</f>
         <v>1712.9844345997824</v>
       </c>
-      <c r="T46" s="148">
+      <c r="T46" s="142">
         <f>E11/SUM(E6:E13)*N46</f>
         <v>1174.67502113039</v>
       </c>
-      <c r="U46" s="148">
+      <c r="U46" s="142">
         <f>F11/SUM(F6:F13)*O46</f>
         <v>1546.8168295747014</v>
       </c>
-      <c r="V46" s="153">
+      <c r="V46" s="147">
         <f>D11/SUM(D6:D13)*P46</f>
         <v>3.2677446721729508E-2</v>
       </c>
-      <c r="W46" s="153">
+      <c r="W46" s="147">
         <f t="shared" ref="W46:X46" si="27">E11/SUM(E6:E13)*Q46</f>
         <v>2.774686335035614E-2</v>
       </c>
-      <c r="X46" s="153">
+      <c r="X46" s="147">
         <f t="shared" si="27"/>
         <v>3.4355155539890714E-2</v>
       </c>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C47" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C47" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141">
         <v>28083</v>
       </c>
-      <c r="F47" s="147">
+      <c r="F47" s="141">
         <v>6086</v>
       </c>
-      <c r="G47" s="147">
+      <c r="G47" s="141">
         <f t="shared" si="14"/>
         <v>34169</v>
       </c>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147">
+      <c r="H47" s="141"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="141">
         <f t="shared" si="26"/>
         <v>34169</v>
       </c>
-      <c r="N47" s="147">
+      <c r="N47" s="141">
         <f t="shared" si="16"/>
         <v>37585.9</v>
       </c>
-      <c r="O47" s="147">
+      <c r="O47" s="141">
         <f t="shared" si="17"/>
         <v>30752.100000000002</v>
       </c>
-      <c r="P47" s="155">
+      <c r="P47" s="149">
         <f>1-(AVERAGE(AB5:AB7)/$AB$18)</f>
         <v>0.89113924050632909</v>
       </c>
-      <c r="Q47" s="155">
+      <c r="Q47" s="149">
         <f>1-(AVERAGE(AC5:AC7)/$AC$18)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="R47" s="155">
+      <c r="R47" s="149">
         <f>1-(AVERAGE(AD5:AD7)/$AD$18)</f>
         <v>0.89305555555555549</v>
       </c>
-      <c r="S47" s="147"/>
-      <c r="T47" s="147"/>
-      <c r="U47" s="147"/>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C48" s="146" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146">
+      <c r="S47" s="141"/>
+      <c r="T47" s="141"/>
+      <c r="U47" s="141"/>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C48" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140">
         <v>16850</v>
       </c>
-      <c r="F48" s="146">
+      <c r="F48" s="140">
         <v>5326</v>
       </c>
-      <c r="G48" s="146">
+      <c r="G48" s="140">
         <f t="shared" si="14"/>
         <v>22176</v>
       </c>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146">
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="140"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="140">
         <f t="shared" si="26"/>
         <v>22176</v>
       </c>
-      <c r="N48" s="146">
+      <c r="N48" s="140">
         <f t="shared" si="16"/>
         <v>24393.600000000002</v>
       </c>
-      <c r="O48" s="146">
+      <c r="O48" s="140">
         <f t="shared" si="17"/>
         <v>19958.400000000001</v>
       </c>
-      <c r="P48" s="154">
+      <c r="P48" s="148">
         <f>1-(AVERAGE(AB8:AB10)/$AB$18)</f>
         <v>0.75991561181434597</v>
       </c>
-      <c r="Q48" s="154">
+      <c r="Q48" s="148">
         <f>1-(AVERAGE(AC8:AC10)/$AC$18)</f>
         <v>0.75661375661375663</v>
       </c>
-      <c r="R48" s="154">
+      <c r="R48" s="148">
         <f>1-(AVERAGE(AD8:AD10)/$AD$18)</f>
         <v>0.76249999999999996</v>
       </c>
-      <c r="S48" s="146">
+      <c r="S48" s="140">
         <f>SUM(D12)/SUM(D6:D13)*M48</f>
         <v>1480.3244787616509</v>
       </c>
-      <c r="T48" s="146">
+      <c r="T48" s="140">
         <f t="shared" ref="T48:U48" si="28">SUM(E12)/SUM(E6:E13)*N48</f>
         <v>1498.1922676437027</v>
       </c>
-      <c r="U48" s="146">
+      <c r="U48" s="140">
         <f t="shared" si="28"/>
         <v>1246.8867413583491</v>
       </c>
-      <c r="V48" s="154">
+      <c r="V48" s="148">
         <f>SUM(D12)/SUM(D6:D13)*P48</f>
         <v>5.0726987822957821E-2</v>
       </c>
-      <c r="W48" s="154">
+      <c r="W48" s="148">
         <f t="shared" ref="W48:X48" si="29">SUM(E12)/SUM(E6:E13)*Q48</f>
         <v>4.6469273897726641E-2</v>
       </c>
-      <c r="X48" s="154">
+      <c r="X48" s="148">
         <f t="shared" si="29"/>
         <v>4.7636641228041378E-2</v>
       </c>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C49" s="147" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147">
+      <c r="C49" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141">
         <v>11233</v>
       </c>
-      <c r="F49" s="147">
+      <c r="F49" s="141">
         <v>4565</v>
       </c>
-      <c r="G49" s="147">
+      <c r="G49" s="141">
         <f t="shared" si="14"/>
         <v>15798</v>
       </c>
-      <c r="H49" s="147">
+      <c r="H49" s="141">
         <v>11000</v>
       </c>
-      <c r="I49" s="147"/>
-      <c r="J49" s="147">
+      <c r="I49" s="141"/>
+      <c r="J49" s="141">
         <f>J50+16375</f>
         <v>35375</v>
       </c>
-      <c r="K49" s="147"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147">
+      <c r="K49" s="141"/>
+      <c r="L49" s="141"/>
+      <c r="M49" s="141">
         <f t="shared" si="26"/>
         <v>13399</v>
       </c>
-      <c r="N49" s="147">
+      <c r="N49" s="141">
         <f t="shared" si="16"/>
         <v>26376.400000000001</v>
       </c>
-      <c r="O49" s="147">
+      <c r="O49" s="141">
         <f t="shared" si="17"/>
         <v>14218.2</v>
       </c>
-      <c r="P49" s="155">
+      <c r="P49" s="149">
         <f>1-(AVERAGE(AB11:AB13)/$AB$18)</f>
         <v>0.59493670886075956</v>
       </c>
-      <c r="Q49" s="155">
+      <c r="Q49" s="149">
         <f>1-(AVERAGE(AC11:AC13)/$AC$18)</f>
         <v>0.59259259259259256</v>
       </c>
-      <c r="R49" s="155">
+      <c r="R49" s="149">
         <f>1-(AVERAGE(AD11:AD13)/$AD$18)</f>
         <v>0.59722222222222232</v>
       </c>
-      <c r="S49" s="147"/>
-      <c r="T49" s="147"/>
-      <c r="U49" s="147"/>
+      <c r="S49" s="141"/>
+      <c r="T49" s="141"/>
+      <c r="U49" s="141"/>
     </row>
     <row r="50" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C50" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147">
+      <c r="C50" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141">
         <v>7489</v>
       </c>
-      <c r="F50" s="147">
+      <c r="F50" s="141">
         <v>3804</v>
       </c>
-      <c r="G50" s="147">
+      <c r="G50" s="141">
         <f t="shared" si="14"/>
         <v>11293</v>
       </c>
-      <c r="H50" s="147">
+      <c r="H50" s="141">
         <v>9000</v>
       </c>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147">
+      <c r="I50" s="141"/>
+      <c r="J50" s="141">
         <v>19000</v>
       </c>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147">
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141">
         <f t="shared" si="26"/>
         <v>10146.5</v>
       </c>
-      <c r="N50" s="147">
+      <c r="N50" s="141">
         <f t="shared" si="16"/>
         <v>15711.150000000001</v>
       </c>
-      <c r="O50" s="147">
+      <c r="O50" s="141">
         <f t="shared" si="17"/>
         <v>10163.700000000001</v>
       </c>
-      <c r="P50" s="155">
+      <c r="P50" s="149">
         <f>1-(AVERAGE(AB14:AB15)/$AB$18)</f>
         <v>0.40506329113924056</v>
       </c>
-      <c r="Q50" s="155">
+      <c r="Q50" s="149">
         <f>1-(AVERAGE(AC14:AC15)/$AC$18)</f>
         <v>0.39682539682539686</v>
       </c>
-      <c r="R50" s="155">
+      <c r="R50" s="149">
         <f>1-(AVERAGE(AD14:AD15)/$AD$18)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
+      <c r="S50" s="141"/>
+      <c r="T50" s="141"/>
+      <c r="U50" s="141"/>
     </row>
     <row r="51" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C51" s="148" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148">
+      <c r="C51" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142">
         <v>5617</v>
       </c>
-      <c r="F51" s="148">
+      <c r="F51" s="142">
         <v>3043</v>
       </c>
-      <c r="G51" s="148">
+      <c r="G51" s="142">
         <f t="shared" si="14"/>
         <v>8660</v>
       </c>
-      <c r="H51" s="148">
+      <c r="H51" s="142">
         <v>1000</v>
       </c>
-      <c r="I51" s="148"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148">
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="142"/>
+      <c r="M51" s="142">
         <f t="shared" si="26"/>
         <v>4830</v>
       </c>
-      <c r="N51" s="148">
+      <c r="N51" s="142">
         <f t="shared" si="16"/>
         <v>9526</v>
       </c>
-      <c r="O51" s="148">
+      <c r="O51" s="142">
         <f t="shared" si="17"/>
         <v>7794</v>
       </c>
-      <c r="P51" s="153">
+      <c r="P51" s="147">
         <f>1-(AVERAGE(AB16:AB17)/$AB$18)</f>
         <v>0.21518987341772156</v>
       </c>
-      <c r="Q51" s="153">
+      <c r="Q51" s="147">
         <f>1-(AVERAGE(AC16:AC17)/$AC$18)</f>
         <v>0.20634920634920639</v>
       </c>
-      <c r="R51" s="153">
+      <c r="R51" s="147">
         <f>1-(AVERAGE(AD16:AD17)/$AD$18)</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="S51" s="148">
+      <c r="S51" s="142">
         <f>D12/SUM(D6:D13)*M51</f>
         <v>322.41915730604137</v>
       </c>
-      <c r="T51" s="148">
+      <c r="T51" s="142">
         <f>E12/SUM(E6:E13)*N51</f>
         <v>585.0624566105007</v>
       </c>
-      <c r="U51" s="148">
+      <c r="U51" s="142">
         <f>F12/SUM(F6:F13)*O51</f>
         <v>486.9245662050551</v>
       </c>
-      <c r="V51" s="153">
+      <c r="V51" s="147">
         <f>D12/SUM(D6:D13)*P51</f>
         <v>1.4364666179738198E-2</v>
       </c>
-      <c r="W51" s="153">
+      <c r="W51" s="147">
         <f t="shared" ref="W51:X51" si="30">E12/SUM(E6:E13)*Q51</f>
         <v>1.2673438335743631E-2</v>
       </c>
-      <c r="X51" s="153">
+      <c r="X51" s="147">
         <f t="shared" si="30"/>
         <v>1.30154757453665E-2</v>
       </c>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C52" s="147" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147">
+      <c r="C52" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141">
         <v>29955</v>
       </c>
-      <c r="F52" s="147">
+      <c r="F52" s="141">
         <v>6086</v>
       </c>
-      <c r="G52" s="147">
+      <c r="G52" s="141">
         <f t="shared" si="14"/>
         <v>36041</v>
       </c>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147">
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141">
         <f t="shared" si="26"/>
         <v>36041</v>
       </c>
-      <c r="N52" s="147">
+      <c r="N52" s="141">
         <f t="shared" si="16"/>
         <v>39645.100000000006</v>
       </c>
-      <c r="O52" s="147">
+      <c r="O52" s="141">
         <f t="shared" si="17"/>
         <v>32436.9</v>
       </c>
-      <c r="P52" s="155">
+      <c r="P52" s="149">
         <f>1-(AVERAGE(AB5:AB7)/$AB$19)</f>
         <v>0.91313131313131313</v>
       </c>
-      <c r="Q52" s="155">
+      <c r="Q52" s="149">
         <f>1-(AVERAGE(AC5:AC7)/$AC$19)</f>
         <v>0.91139240506329111</v>
       </c>
-      <c r="R52" s="155">
+      <c r="R52" s="149">
         <f>1-(AVERAGE(AD5:AD7)/$AD$19)</f>
         <v>0.91444444444444439</v>
       </c>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="141"/>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C53" s="146" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146">
+      <c r="C53" s="140" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140">
         <v>16850</v>
       </c>
-      <c r="F53" s="146">
+      <c r="F53" s="140">
         <v>5326</v>
       </c>
-      <c r="G53" s="146">
+      <c r="G53" s="140">
         <f t="shared" si="14"/>
         <v>22176</v>
       </c>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="146">
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="140">
         <f t="shared" si="26"/>
         <v>22176</v>
       </c>
-      <c r="N53" s="146">
+      <c r="N53" s="140">
         <f t="shared" si="16"/>
         <v>24393.600000000002</v>
       </c>
-      <c r="O53" s="146">
+      <c r="O53" s="140">
         <f t="shared" si="17"/>
         <v>19958.400000000001</v>
       </c>
-      <c r="P53" s="154">
+      <c r="P53" s="148">
         <f>1-(AVERAGE(AB8:AB10)/$AB$19)</f>
         <v>0.80841750841750848</v>
       </c>
-      <c r="Q53" s="154">
+      <c r="Q53" s="148">
         <f>1-(AVERAGE(AC8:AC10)/$AC$19)</f>
         <v>0.80590717299578063</v>
       </c>
-      <c r="R53" s="154">
+      <c r="R53" s="148">
         <f>1-(AVERAGE(AD8:AD10)/$AD$19)</f>
         <v>0.81</v>
       </c>
-      <c r="S53" s="146">
+      <c r="S53" s="140">
         <f>SUM(D13)/SUM(D6:D13)*M48</f>
         <v>1556.6052637176085</v>
       </c>
-      <c r="T53" s="146">
+      <c r="T53" s="140">
         <f t="shared" ref="T53:U53" si="31">SUM(E13)/SUM(E6:E13)*N48</f>
         <v>2717.5942751454008</v>
       </c>
-      <c r="U53" s="146">
+      <c r="U53" s="140">
         <f t="shared" si="31"/>
         <v>1538.1025473834977</v>
       </c>
-      <c r="V53" s="154">
+      <c r="V53" s="148">
         <f>SUM(D13)/SUM(D6:D13)*P53</f>
         <v>5.6745443221688667E-2</v>
       </c>
-      <c r="W53" s="154">
+      <c r="W53" s="148">
         <f t="shared" ref="W53:X53" si="32">SUM(E13)/SUM(E6:E13)*Q53</f>
         <v>8.9782923374653489E-2</v>
       </c>
-      <c r="X53" s="154">
+      <c r="X53" s="148">
         <f t="shared" si="32"/>
         <v>6.2422992994460136E-2</v>
       </c>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C54" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147">
+      <c r="C54" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141">
         <v>11233</v>
       </c>
-      <c r="F54" s="147">
+      <c r="F54" s="141">
         <v>4565</v>
       </c>
-      <c r="G54" s="147">
+      <c r="G54" s="141">
         <f t="shared" si="14"/>
         <v>15798</v>
       </c>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147">
+      <c r="H54" s="141"/>
+      <c r="I54" s="141">
         <v>23500</v>
       </c>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147">
+      <c r="J54" s="141"/>
+      <c r="K54" s="141"/>
+      <c r="L54" s="141">
         <v>8100</v>
       </c>
-      <c r="M54" s="147">
+      <c r="M54" s="141">
         <f t="shared" si="26"/>
         <v>19649</v>
       </c>
-      <c r="N54" s="147">
+      <c r="N54" s="141">
         <f t="shared" si="16"/>
         <v>17377.800000000003</v>
       </c>
-      <c r="O54" s="147">
+      <c r="O54" s="141">
         <f t="shared" si="17"/>
         <v>11159.1</v>
       </c>
-      <c r="P54" s="155">
+      <c r="P54" s="149">
         <f>1-(AVERAGE(AB11:AB13)/$AB$19)</f>
         <v>0.67676767676767668</v>
       </c>
-      <c r="Q54" s="155">
+      <c r="Q54" s="149">
         <f>1-(AVERAGE(AC11:AC13)/$AC$19)</f>
         <v>0.67510548523206748</v>
       </c>
-      <c r="R54" s="155">
+      <c r="R54" s="149">
         <f>1-(AVERAGE(AD11:AD13)/$AD$19)</f>
         <v>0.67777777777777781</v>
       </c>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
+      <c r="S54" s="141"/>
+      <c r="T54" s="141"/>
+      <c r="U54" s="141"/>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C55" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147">
+      <c r="C55" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="141"/>
+      <c r="E55" s="141">
         <v>7489</v>
       </c>
-      <c r="F55" s="147">
+      <c r="F55" s="141">
         <v>3804</v>
       </c>
-      <c r="G55" s="147">
+      <c r="G55" s="141">
         <f t="shared" si="14"/>
         <v>11293</v>
       </c>
-      <c r="H55" s="147">
+      <c r="H55" s="141">
         <v>24000</v>
       </c>
-      <c r="I55" s="147">
+      <c r="I55" s="141">
         <v>21300</v>
       </c>
-      <c r="J55" s="147">
+      <c r="J55" s="141">
         <f>J56+5184</f>
         <v>31284</v>
       </c>
-      <c r="K55" s="147"/>
-      <c r="L55" s="147">
+      <c r="K55" s="141"/>
+      <c r="L55" s="141">
         <v>4400</v>
       </c>
-      <c r="M55" s="147">
+      <c r="M55" s="141">
         <f t="shared" si="26"/>
         <v>18864.333333333332</v>
       </c>
-      <c r="N55" s="147">
+      <c r="N55" s="141">
         <f t="shared" si="16"/>
         <v>21853.15</v>
       </c>
-      <c r="O55" s="147">
+      <c r="O55" s="141">
         <f t="shared" si="17"/>
         <v>7281.85</v>
       </c>
-      <c r="P55" s="155">
+      <c r="P55" s="149">
         <f>1-(AVERAGE(AB14:AB15)/$AB$19)</f>
         <v>0.5252525252525253</v>
       </c>
-      <c r="Q55" s="155">
+      <c r="Q55" s="149">
         <f>1-(AVERAGE(AC14:AC15)/$AC$19)</f>
         <v>0.51898734177215189</v>
       </c>
-      <c r="R55" s="155">
+      <c r="R55" s="149">
         <f>1-(AVERAGE(AD14:AD15)/$AD$19)</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="S55" s="147"/>
-      <c r="T55" s="147"/>
-      <c r="U55" s="147"/>
+      <c r="S55" s="141"/>
+      <c r="T55" s="141"/>
+      <c r="U55" s="141"/>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C56" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147">
+      <c r="C56" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141">
         <v>5617</v>
       </c>
-      <c r="F56" s="147">
+      <c r="F56" s="141">
         <v>3043</v>
       </c>
-      <c r="G56" s="147">
+      <c r="G56" s="141">
         <f t="shared" si="14"/>
         <v>8660</v>
       </c>
-      <c r="H56" s="147">
+      <c r="H56" s="141">
         <v>17000</v>
       </c>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147">
+      <c r="I56" s="141"/>
+      <c r="J56" s="141">
         <v>26100</v>
       </c>
-      <c r="K56" s="147">
+      <c r="K56" s="141">
         <v>16000</v>
       </c>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147">
+      <c r="L56" s="141"/>
+      <c r="M56" s="141">
         <f t="shared" si="26"/>
         <v>12830</v>
       </c>
-      <c r="N56" s="147">
+      <c r="N56" s="141">
         <f t="shared" si="16"/>
         <v>17208.666666666668</v>
       </c>
-      <c r="O56" s="147">
+      <c r="O56" s="141">
         <f t="shared" si="17"/>
         <v>7794</v>
       </c>
-      <c r="P56" s="155">
+      <c r="P56" s="149">
         <f>1-(AVERAGE(AB16:AB17)/$AB$19)</f>
         <v>0.3737373737373737</v>
       </c>
-      <c r="Q56" s="155">
+      <c r="Q56" s="149">
         <f>1-(AVERAGE(AC16:AC17)/$AC$19)</f>
         <v>0.36708860759493667</v>
       </c>
-      <c r="R56" s="155">
+      <c r="R56" s="149">
         <f>1-(AVERAGE(AD16:AD17)/$AD$19)</f>
         <v>0.3666666666666667</v>
       </c>
-      <c r="S56" s="147"/>
-      <c r="T56" s="147"/>
-      <c r="U56" s="147"/>
+      <c r="S56" s="141"/>
+      <c r="T56" s="141"/>
+      <c r="U56" s="141"/>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C57" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="149"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="149"/>
-      <c r="G57" s="149"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="149">
+      <c r="C57" s="143" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143">
         <v>2128</v>
       </c>
-      <c r="J57" s="149">
+      <c r="J57" s="143">
         <v>3200</v>
       </c>
-      <c r="K57" s="149"/>
-      <c r="L57" s="149">
+      <c r="K57" s="143"/>
+      <c r="L57" s="143">
         <v>2200</v>
       </c>
-      <c r="M57" s="149">
+      <c r="M57" s="143">
         <f t="shared" si="26"/>
         <v>2128</v>
       </c>
-      <c r="N57" s="149">
+      <c r="N57" s="143">
         <f t="shared" si="16"/>
         <v>1600</v>
       </c>
-      <c r="O57" s="149">
+      <c r="O57" s="143">
         <f t="shared" si="17"/>
         <v>1100</v>
       </c>
-      <c r="P57" s="153">
+      <c r="P57" s="147">
         <f>1-(AB18/$AB$19)</f>
         <v>0.20202020202020199</v>
       </c>
-      <c r="Q57" s="153">
+      <c r="Q57" s="147">
         <f>1-(AC18/$AC$19)</f>
         <v>0.20253164556962022</v>
       </c>
-      <c r="R57" s="153">
+      <c r="R57" s="147">
         <f>1-(AD18/$AD$19)</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="S57" s="148">
+      <c r="S57" s="142">
         <f>D13/SUM(D6:D13)*M57</f>
         <v>149.37121217492202</v>
       </c>
-      <c r="T57" s="148">
+      <c r="T57" s="142">
         <f>E13/SUM(E6:E13)*N57</f>
         <v>178.24965729669424</v>
       </c>
-      <c r="U57" s="148">
+      <c r="U57" s="142">
         <f>F13/SUM(F6:F13)*O57</f>
         <v>84.771965794945856</v>
       </c>
-      <c r="V57" s="153">
+      <c r="V57" s="147">
         <f>D13/SUM(D6:D13)*P57</f>
         <v>1.4180452283637315E-2</v>
       </c>
-      <c r="W57" s="153">
+      <c r="W57" s="147">
         <f t="shared" ref="W57:X57" si="33">E13/SUM(E6:E13)*Q57</f>
         <v>2.2563247759075217E-2</v>
       </c>
-      <c r="X57" s="153">
+      <c r="X57" s="147">
         <f t="shared" si="33"/>
         <v>1.5413084689990152E-2</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="S59" s="157">
+      <c r="S59" s="151">
         <f>SUM(S37,S39,S42,S46,S51,S57)</f>
         <v>9608.4735804205193</v>
       </c>
-      <c r="T59" s="157">
+      <c r="T59" s="151">
         <f t="shared" ref="T59:U59" si="34">SUM(T37,T39,T42,T46,T51,T57)</f>
         <v>14333.869646601945</v>
       </c>
-      <c r="U59" s="157">
+      <c r="U59" s="151">
         <f t="shared" si="34"/>
         <v>11196.414691601361</v>
       </c>
-      <c r="V59" s="156">
+      <c r="V59" s="150">
         <f>SUM(V37,V39,V42,V46,V51,V57)</f>
         <v>0.3499559220938272</v>
       </c>
-      <c r="W59" s="156">
+      <c r="W59" s="150">
         <f t="shared" ref="W59:X59" si="35">SUM(W37,W39,W42,W46,W51,W57)</f>
         <v>0.34759093292022342</v>
       </c>
-      <c r="X59" s="156">
+      <c r="X59" s="150">
         <f t="shared" si="35"/>
         <v>0.36920600336632792</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>209</v>
-      </c>
-      <c r="S60" s="158">
+        <v>183</v>
+      </c>
+      <c r="S60" s="152">
         <f>SUM(S38,S41,S44,S48,S53,S57)</f>
         <v>20563.0239417189</v>
       </c>
-      <c r="T60" s="158">
+      <c r="T60" s="152">
         <f t="shared" ref="T60:X60" si="36">SUM(T38,T41,T44,T48,T53,T57)</f>
         <v>22259.387557085229</v>
       </c>
-      <c r="U60" s="158">
+      <c r="U60" s="152">
         <f t="shared" si="36"/>
         <v>15982.779351113084</v>
       </c>
-      <c r="V60" s="159">
+      <c r="V60" s="153">
         <f t="shared" si="36"/>
         <v>0.56982150406598298</v>
       </c>
-      <c r="W60" s="159">
+      <c r="W60" s="153">
         <f t="shared" si="36"/>
         <v>0.57417922843609159</v>
       </c>
-      <c r="X60" s="159">
+      <c r="X60" s="153">
         <f t="shared" si="36"/>
         <v>0.51228555848472779</v>
       </c>
@@ -8688,12 +8605,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y20" r:id="rId1" display="http://www.seai.ie/Your_Building/BER/Your_Guide_to_Building_Energy_" xr:uid="{5807D69C-F428-4936-9796-3FEC8B37998C}"/>
-    <hyperlink ref="AA30" r:id="rId2" xr:uid="{994975AB-F83B-4F7E-B1E2-49D7A02B19F7}"/>
-    <hyperlink ref="H29" r:id="rId3" xr:uid="{55D40456-65AC-4DC1-BDA5-C642CA7C3A86}"/>
-    <hyperlink ref="AA33" r:id="rId4" xr:uid="{7E910491-C37D-4D30-8CD9-EB0922E7F99E}"/>
+    <hyperlink ref="H29" r:id="rId2" xr:uid="{55D40456-65AC-4DC1-BDA5-C642CA7C3A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DF814-60D2-4B99-860B-5CA78F6D8472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B52CE5-5141-42B1-BE25-4CF95BFB9EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -71,6 +71,28 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="216">
   <si>
@@ -748,14 +770,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1086,6 +1108,11 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1846,7 +1873,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1858,10 +1885,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1949,7 +1977,7 @@
     </xf>
     <xf numFmtId="15" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,7 +2080,7 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2094,7 +2122,7 @@
     <xf numFmtId="1" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,7 +2137,7 @@
     <xf numFmtId="1" fontId="7" fillId="18" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2124,7 +2152,7 @@
     <xf numFmtId="1" fontId="7" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2140,7 +2168,7 @@
     <xf numFmtId="1" fontId="7" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2155,7 +2183,7 @@
     <xf numFmtId="3" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2183,10 +2211,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="43" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,8 +2226,7 @@
     <xf numFmtId="9" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="44" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="44" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2216,7 +2243,7 @@
     <xf numFmtId="9" fontId="11" fillId="15" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2226,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2301,16 +2328,16 @@
     <xf numFmtId="0" fontId="41" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2327,7 +2354,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
@@ -2346,13 +2373,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2364,10 +2391,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2400,10 +2427,12 @@
     <xf numFmtId="0" fontId="43" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="44" fillId="20" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="20% - Colore 2" xfId="10" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
     <cellStyle name="Comma 2" xfId="11" xr:uid="{0ABA8B51-FCCD-40DB-958F-AE78849A8FFE}"/>
+    <cellStyle name="Currency" xfId="15" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="4" xr:uid="{E1BCE1F9-C32B-49FB-A63B-D516C5E840D2}"/>
@@ -3969,14 +3998,14 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -4014,13 +4043,13 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="193" t="s">
+      <c r="B20" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
@@ -4034,13 +4063,13 @@
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
@@ -4054,57 +4083,57 @@
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="195"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
+      <c r="A25" s="194"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="191"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -4291,17 +4320,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="148"/>
-      <c r="H2" s="196" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="147"/>
+      <c r="H2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="198"/>
+      <c r="I2" s="197"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -4328,7 +4357,7 @@
       <c r="E3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="149"/>
+      <c r="F3" s="148"/>
       <c r="H3" s="21"/>
       <c r="I3" s="22" t="s">
         <v>37</v>
@@ -4359,7 +4388,7 @@
       <c r="E4" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="150"/>
+      <c r="F4" s="149"/>
       <c r="H4" s="27"/>
       <c r="I4" s="28" t="s">
         <v>39</v>
@@ -4390,7 +4419,7 @@
       <c r="E5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="150"/>
+      <c r="F5" s="149"/>
       <c r="H5" s="33"/>
       <c r="I5" s="28" t="s">
         <v>40</v>
@@ -4421,7 +4450,7 @@
       <c r="E6" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="150"/>
+      <c r="F6" s="149"/>
       <c r="H6" s="34" t="s">
         <v>9</v>
       </c>
@@ -4454,7 +4483,7 @@
       <c r="E7" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="150"/>
+      <c r="F7" s="149"/>
       <c r="H7" s="36"/>
       <c r="I7" s="28" t="s">
         <v>44</v>
@@ -4485,7 +4514,7 @@
       <c r="E8" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="150"/>
+      <c r="F8" s="149"/>
       <c r="H8" s="37"/>
       <c r="I8" s="28" t="s">
         <v>86</v>
@@ -4516,7 +4545,7 @@
       <c r="E9" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="150"/>
+      <c r="F9" s="149"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
         <v>10</v>
@@ -4535,7 +4564,7 @@
       <c r="E10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="150"/>
+      <c r="F10" s="149"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
@@ -4550,7 +4579,7 @@
       <c r="E11" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="150"/>
+      <c r="F11" s="149"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
@@ -4565,7 +4594,7 @@
       <c r="E12" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="150"/>
+      <c r="F12" s="149"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
@@ -4580,7 +4609,7 @@
       <c r="E13" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="150"/>
+      <c r="F13" s="149"/>
     </row>
     <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
@@ -4595,7 +4624,7 @@
       <c r="E14" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="150"/>
+      <c r="F14" s="149"/>
     </row>
     <row r="15" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
@@ -4610,11 +4639,11 @@
       <c r="E15" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="150"/>
-      <c r="H15" s="196" t="s">
+      <c r="F15" s="149"/>
+      <c r="H15" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="198"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
@@ -4629,7 +4658,7 @@
       <c r="E16" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="150"/>
+      <c r="F16" s="149"/>
       <c r="H16" s="48" t="s">
         <v>15</v>
       </c>
@@ -4650,7 +4679,7 @@
       <c r="E17" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="150"/>
+      <c r="F17" s="149"/>
       <c r="H17" s="52" t="s">
         <v>53</v>
       </c>
@@ -4671,7 +4700,7 @@
       <c r="E18" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="150"/>
+      <c r="F18" s="149"/>
       <c r="H18" s="52" t="s">
         <v>17</v>
       </c>
@@ -4688,13 +4717,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="151"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="150"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
@@ -4717,7 +4746,7 @@
       <c r="B22" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="146" t="s">
         <v>200</v>
       </c>
       <c r="D22" s="59">
@@ -4726,7 +4755,7 @@
       <c r="E22" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="154" t="s">
+      <c r="F22" s="153" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4734,7 +4763,7 @@
       <c r="B23" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="154" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="59">
@@ -4743,24 +4772,24 @@
       <c r="E23" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="154" t="s">
+      <c r="F23" s="153" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="158" t="s">
+      <c r="C24" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="159">
+      <c r="D24" s="158">
         <v>43952</v>
       </c>
-      <c r="E24" s="160" t="s">
+      <c r="E24" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="161" t="s">
+      <c r="F24" s="160" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4777,7 +4806,7 @@
       <c r="E25" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="154" t="s">
+      <c r="F25" s="153" t="s">
         <v>202</v>
       </c>
       <c r="H25" s="58" t="s">
@@ -4797,7 +4826,7 @@
       <c r="E26" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="156" t="s">
+      <c r="F26" s="155" t="s">
         <v>202</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -4805,19 +4834,19 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="162" t="s">
+      <c r="C27" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="159">
+      <c r="D27" s="158">
         <v>43983</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="161" t="s">
+      <c r="F27" s="160" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4834,87 +4863,87 @@
       <c r="E28" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="153" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="150"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="150"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="150"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="150"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="150"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="150"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="150"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="150"/>
-      <c r="B36" s="150"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="196" t="s">
+      <c r="B38" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="148"/>
-      <c r="H38" s="202" t="s">
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="147"/>
+      <c r="H38" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="203"/>
+      <c r="I38" s="202"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="61" t="s">
@@ -4929,7 +4958,7 @@
       <c r="E39" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="149"/>
+      <c r="F39" s="148"/>
       <c r="H39" s="64" t="s">
         <v>18</v>
       </c>
@@ -4950,7 +4979,7 @@
       <c r="E40" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="153"/>
+      <c r="F40" s="152"/>
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
     </row>
@@ -4959,7 +4988,7 @@
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
       <c r="E41" s="55"/>
-      <c r="F41" s="152"/>
+      <c r="F41" s="151"/>
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
     </row>
@@ -5021,7 +5050,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5119,10 +5148,10 @@
       <c r="S5" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="T5" s="204" t="s">
+      <c r="T5" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="204"/>
+      <c r="U5" s="203"/>
     </row>
     <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
@@ -5163,7 +5192,7 @@
       <c r="N6" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="O6" s="139" t="s">
+      <c r="O6" s="138" t="s">
         <v>115</v>
       </c>
       <c r="Q6" s="84"/>
@@ -5220,7 +5249,7 @@
         <f>U7</f>
         <v>3.4901289446216035E-3</v>
       </c>
-      <c r="O7" s="140">
+      <c r="O7" s="139">
         <f>Data!U59/1000</f>
         <v>11.196414691601362</v>
       </c>
@@ -5233,7 +5262,7 @@
       <c r="S7" s="80">
         <v>1.6E-2</v>
       </c>
-      <c r="T7" s="142">
+      <c r="T7" s="141">
         <f>Data!X59</f>
         <v>0.21813305903885022</v>
       </c>
@@ -5282,11 +5311,11 @@
       </c>
       <c r="N8" s="83">
         <f t="shared" ref="N8:N12" si="4">U8</f>
-        <v>5.8180441437599775E-3</v>
-      </c>
-      <c r="O8" s="141">
+        <v>6.053757862810245E-3</v>
+      </c>
+      <c r="O8" s="140">
         <f>Data!U60/1000</f>
-        <v>15.982779351113084</v>
+        <v>17.266169771719472</v>
       </c>
       <c r="Q8" s="81" t="s">
         <v>106</v>
@@ -5297,13 +5326,13 @@
       <c r="S8" s="81">
         <v>1.6E-2</v>
       </c>
-      <c r="T8" s="143">
+      <c r="T8" s="142">
         <f>Data!X60</f>
-        <v>0.36362775898499861</v>
+        <v>0.37835986642564029</v>
       </c>
       <c r="U8" s="81">
         <f t="shared" ref="U8:U12" si="5">S8*T8</f>
-        <v>5.8180441437599775E-3</v>
+        <v>6.053757862810245E-3</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -5348,7 +5377,7 @@
         <f t="shared" si="4"/>
         <v>5.4263583940724319E-3</v>
       </c>
-      <c r="O9" s="140">
+      <c r="O9" s="139">
         <f>Data!S59/1000</f>
         <v>9.6084735804205188</v>
       </c>
@@ -5361,7 +5390,7 @@
       <c r="S9" s="80">
         <v>2.69E-2</v>
       </c>
-      <c r="T9" s="142">
+      <c r="T9" s="141">
         <f>Data!V59</f>
         <v>0.20172336037443986</v>
       </c>
@@ -5410,11 +5439,11 @@
       </c>
       <c r="N10" s="83">
         <f t="shared" si="4"/>
-        <v>1.1290389448443587E-2</v>
-      </c>
-      <c r="O10" s="141">
+        <v>1.186536422684824E-2</v>
+      </c>
+      <c r="O10" s="140">
         <f>Data!S60/1000</f>
-        <v>20.5630239417189</v>
+        <v>22.294679797673528</v>
       </c>
       <c r="Q10" s="81" t="s">
         <v>107</v>
@@ -5425,13 +5454,13 @@
       <c r="S10" s="81">
         <v>2.69E-2</v>
       </c>
-      <c r="T10" s="143">
+      <c r="T10" s="142">
         <f>Data!V60</f>
-        <v>0.41971707986779133</v>
+        <v>0.44109160694603122</v>
       </c>
       <c r="U10" s="81">
         <f t="shared" si="5"/>
-        <v>1.1290389448443587E-2</v>
+        <v>1.186536422684824E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -5476,7 +5505,7 @@
         <f t="shared" si="4"/>
         <v>9.5809185652412903E-3</v>
       </c>
-      <c r="O11" s="140">
+      <c r="O11" s="139">
         <f>Data!T59/1000</f>
         <v>14.333869646601945</v>
       </c>
@@ -5489,7 +5518,7 @@
       <c r="S11" s="80">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="T11" s="142">
+      <c r="T11" s="141">
         <f>Data!W59</f>
         <v>0.2000191767273756</v>
       </c>
@@ -5538,11 +5567,11 @@
       </c>
       <c r="N12" s="83">
         <f t="shared" si="4"/>
-        <v>2.0465578709164201E-2</v>
-      </c>
-      <c r="O12" s="141">
+        <v>2.0987111338457227E-2</v>
+      </c>
+      <c r="O12" s="140">
         <f>Data!T60/1000</f>
-        <v>22.25938755708523</v>
+        <v>24.114356797661486</v>
       </c>
       <c r="Q12" s="81" t="s">
         <v>108</v>
@@ -5553,13 +5582,13 @@
       <c r="S12" s="81">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="T12" s="143">
+      <c r="T12" s="142">
         <f>Data!W60</f>
-        <v>0.42725634048359507</v>
+        <v>0.43814428681539097</v>
       </c>
       <c r="U12" s="81">
         <f t="shared" si="5"/>
-        <v>2.0465578709164201E-2</v>
+        <v>2.0987111338457227E-2</v>
       </c>
     </row>
     <row r="19" spans="22:26" x14ac:dyDescent="0.2">
@@ -5803,8 +5832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A6DB4B-6EBE-42F5-800F-C9AB0144B3BB}">
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5834,33 +5863,33 @@
   <sheetData>
     <row r="1" spans="3:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="208" t="s">
+      <c r="L2" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="209"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="208" t="s">
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="207" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="208" t="s">
+      <c r="P2" s="208"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="209"/>
       <c r="AD2" s="118" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="3:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
       <c r="L3" s="88" t="s">
         <v>165</v>
       </c>
@@ -5916,12 +5945,12 @@
       <c r="AI3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AM3" s="181" t="s">
+      <c r="AM3" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="AN3" s="181"/>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="175"/>
     </row>
     <row r="4" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="89" t="s">
@@ -5973,11 +6002,11 @@
         <f>AVERAGE(R4:T4)</f>
         <v>54.181824878333337</v>
       </c>
-      <c r="V4" s="187">
+      <c r="V4" s="186">
         <f>AVERAGE(AN5:AP5)</f>
         <v>1.383820267553892</v>
       </c>
-      <c r="W4" s="187">
+      <c r="W4" s="186">
         <f>SUM(U4*V4)</f>
         <v>74.977907399693365</v>
       </c>
@@ -6042,52 +6071,52 @@
         <f t="shared" ref="U5:U12" si="0">AVERAGE(R5:T5)</f>
         <v>90.104603265666654</v>
       </c>
-      <c r="V5" s="187">
+      <c r="V5" s="186">
         <f>AVERAGE(AN8:AP8)</f>
         <v>1</v>
       </c>
-      <c r="W5" s="187">
+      <c r="W5" s="186">
         <f t="shared" ref="W5:W12" si="1">SUM(U5*V5)</f>
         <v>90.104603265666654</v>
       </c>
-      <c r="AA5" s="165" t="s">
+      <c r="AA5" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="AB5" s="183">
+      <c r="AB5" s="182">
         <f>AVERAGE(AH5:AI5)*AO5</f>
         <v>323.125</v>
       </c>
-      <c r="AC5" s="184">
+      <c r="AC5" s="183">
         <f>AF5*AP5</f>
         <v>539.15574963609902</v>
       </c>
-      <c r="AD5" s="184">
+      <c r="AD5" s="183">
         <f>AG5*AN5</f>
         <v>200</v>
       </c>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="166">
+      <c r="AF5" s="165">
         <v>400</v>
       </c>
-      <c r="AG5" s="166">
+      <c r="AG5" s="165">
         <v>140</v>
       </c>
-      <c r="AH5" s="167">
+      <c r="AH5" s="166">
         <v>190</v>
       </c>
-      <c r="AI5" s="166">
+      <c r="AI5" s="165">
         <v>280</v>
       </c>
       <c r="AM5" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="AN5" s="177">
+      <c r="AN5" s="176">
         <v>1.4285714285714286</v>
       </c>
-      <c r="AO5" s="177">
+      <c r="AO5" s="176">
         <v>1.375</v>
       </c>
-      <c r="AP5" s="177">
+      <c r="AP5" s="176">
         <v>1.3478893740902476</v>
       </c>
     </row>
@@ -6141,52 +6170,52 @@
         <f t="shared" si="0"/>
         <v>115.45560966933333</v>
       </c>
-      <c r="V6" s="187">
+      <c r="V6" s="186">
         <f t="shared" ref="V6:V7" si="2">AVERAGE(AN9:AP9)</f>
         <v>1</v>
       </c>
-      <c r="W6" s="187">
+      <c r="W6" s="186">
         <f t="shared" si="1"/>
         <v>115.45560966933333</v>
       </c>
-      <c r="AA6" s="168" t="s">
+      <c r="AA6" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="AB6" s="183">
+      <c r="AB6" s="182">
         <f t="shared" ref="AB6:AB19" si="3">AVERAGE(AH6:AI6)*AO6</f>
         <v>646.25</v>
       </c>
-      <c r="AC6" s="185">
+      <c r="AC6" s="184">
         <f t="shared" ref="AC6:AC19" si="4">AF6*AP6</f>
         <v>1078.311499272198</v>
       </c>
-      <c r="AD6" s="185">
+      <c r="AD6" s="184">
         <f t="shared" ref="AD6:AD19" si="5">AG6*AN6</f>
         <v>400</v>
       </c>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="169">
+      <c r="AF6" s="168">
         <v>800</v>
       </c>
-      <c r="AG6" s="169">
+      <c r="AG6" s="168">
         <v>280</v>
       </c>
-      <c r="AH6" s="170">
+      <c r="AH6" s="169">
         <v>380</v>
       </c>
-      <c r="AI6" s="169">
+      <c r="AI6" s="168">
         <v>560</v>
       </c>
       <c r="AM6" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="AN6" s="177">
+      <c r="AN6" s="176">
         <v>1.4285714285714286</v>
       </c>
-      <c r="AO6" s="177">
+      <c r="AO6" s="176">
         <v>1.375</v>
       </c>
-      <c r="AP6" s="177">
+      <c r="AP6" s="176">
         <v>1.3478893740902476</v>
       </c>
     </row>
@@ -6240,52 +6269,52 @@
         <f t="shared" si="0"/>
         <v>139.59487310199998</v>
       </c>
-      <c r="V7" s="187">
+      <c r="V7" s="186">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W7" s="187">
+      <c r="W7" s="186">
         <f t="shared" si="1"/>
         <v>139.59487310199998</v>
       </c>
-      <c r="AA7" s="168" t="s">
+      <c r="AA7" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="AB7" s="183">
+      <c r="AB7" s="182">
         <f t="shared" si="3"/>
         <v>804.375</v>
       </c>
-      <c r="AC7" s="185">
+      <c r="AC7" s="184">
         <f t="shared" si="4"/>
         <v>1213.1004366812228</v>
       </c>
-      <c r="AD7" s="185">
+      <c r="AD7" s="184">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="169">
+      <c r="AF7" s="168">
         <v>900</v>
       </c>
-      <c r="AG7" s="169">
+      <c r="AG7" s="168">
         <v>350</v>
       </c>
-      <c r="AH7" s="170">
+      <c r="AH7" s="169">
         <v>470</v>
       </c>
-      <c r="AI7" s="169">
+      <c r="AI7" s="168">
         <v>700</v>
       </c>
       <c r="AM7" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="AN7" s="177">
+      <c r="AN7" s="176">
         <v>1.4285714285714286</v>
       </c>
-      <c r="AO7" s="177">
+      <c r="AO7" s="176">
         <v>1.375</v>
       </c>
-      <c r="AP7" s="177">
+      <c r="AP7" s="176">
         <v>1.3478893740902476</v>
       </c>
     </row>
@@ -6339,52 +6368,52 @@
         <f t="shared" si="0"/>
         <v>188.85972977266667</v>
       </c>
-      <c r="V8" s="187">
+      <c r="V8" s="186">
         <f>AVERAGE(AN11:AP11)</f>
         <v>0.6377180975298572</v>
       </c>
-      <c r="W8" s="187">
+      <c r="W8" s="186">
         <f t="shared" si="1"/>
         <v>120.43926757062792</v>
       </c>
-      <c r="AA8" s="168" t="s">
+      <c r="AA8" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="AB8" s="183">
+      <c r="AB8" s="182">
         <f t="shared" si="3"/>
         <v>745</v>
       </c>
-      <c r="AC8" s="185">
+      <c r="AC8" s="184">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-      <c r="AD8" s="185">
+      <c r="AD8" s="184">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="171">
+      <c r="AF8" s="170">
         <v>1200</v>
       </c>
-      <c r="AG8" s="169">
+      <c r="AG8" s="168">
         <v>440</v>
       </c>
-      <c r="AH8" s="170">
+      <c r="AH8" s="169">
         <v>590</v>
       </c>
-      <c r="AI8" s="169">
+      <c r="AI8" s="168">
         <v>900</v>
       </c>
       <c r="AM8" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="AN8" s="178">
+      <c r="AN8" s="177">
         <v>1</v>
       </c>
-      <c r="AO8" s="178">
+      <c r="AO8" s="177">
         <v>1</v>
       </c>
-      <c r="AP8" s="178">
+      <c r="AP8" s="177">
         <v>1</v>
       </c>
     </row>
@@ -6441,52 +6470,52 @@
         <f t="shared" si="0"/>
         <v>260.5202750266667</v>
       </c>
-      <c r="V9" s="187">
+      <c r="V9" s="186">
         <f>AVERAGE(AN14:AP14)</f>
         <v>0.66169935385599443</v>
       </c>
-      <c r="W9" s="187">
+      <c r="W9" s="186">
         <f t="shared" si="1"/>
         <v>172.38609765153132</v>
       </c>
-      <c r="AA9" s="168" t="s">
+      <c r="AA9" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="183">
+      <c r="AB9" s="182">
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
-      <c r="AC9" s="185">
+      <c r="AC9" s="184">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="AD9" s="185">
+      <c r="AD9" s="184">
         <f t="shared" si="5"/>
         <v>570</v>
       </c>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="171">
+      <c r="AF9" s="170">
         <v>1500</v>
       </c>
-      <c r="AG9" s="169">
+      <c r="AG9" s="168">
         <v>570</v>
       </c>
-      <c r="AH9" s="170">
+      <c r="AH9" s="169">
         <v>800</v>
       </c>
-      <c r="AI9" s="171">
+      <c r="AI9" s="170">
         <v>1100</v>
       </c>
       <c r="AM9" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="AN9" s="179">
+      <c r="AN9" s="178">
         <v>1</v>
       </c>
-      <c r="AO9" s="179">
+      <c r="AO9" s="178">
         <v>1</v>
       </c>
-      <c r="AP9" s="179">
+      <c r="AP9" s="178">
         <v>1</v>
       </c>
     </row>
@@ -6540,52 +6569,52 @@
         <f t="shared" si="0"/>
         <v>337.60044621333333</v>
       </c>
-      <c r="V10" s="187">
+      <c r="V10" s="186">
         <f>AVERAGE(AN16:AP16)</f>
         <v>0.67657105591908995</v>
       </c>
-      <c r="W10" s="187">
+      <c r="W10" s="186">
         <f t="shared" si="1"/>
         <v>228.41069037331087</v>
       </c>
-      <c r="AA10" s="168" t="s">
+      <c r="AA10" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="AB10" s="183">
+      <c r="AB10" s="182">
         <f t="shared" si="3"/>
         <v>1150</v>
       </c>
-      <c r="AC10" s="185">
+      <c r="AC10" s="184">
         <f t="shared" si="4"/>
         <v>1900</v>
       </c>
-      <c r="AD10" s="185">
+      <c r="AD10" s="184">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="171">
+      <c r="AF10" s="170">
         <v>1900</v>
       </c>
-      <c r="AG10" s="169">
+      <c r="AG10" s="168">
         <v>700</v>
       </c>
-      <c r="AH10" s="170">
+      <c r="AH10" s="169">
         <v>900</v>
       </c>
-      <c r="AI10" s="171">
+      <c r="AI10" s="170">
         <v>1400</v>
       </c>
       <c r="AM10" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="AN10" s="178">
+      <c r="AN10" s="177">
         <v>1</v>
       </c>
-      <c r="AO10" s="178">
+      <c r="AO10" s="177">
         <v>1</v>
       </c>
-      <c r="AP10" s="178">
+      <c r="AP10" s="177">
         <v>1</v>
       </c>
     </row>
@@ -6639,52 +6668,52 @@
         <f t="shared" si="0"/>
         <v>413.55162632333332</v>
       </c>
-      <c r="V11" s="187">
+      <c r="V11" s="186">
         <f t="shared" ref="V11:V12" si="6">AVERAGE(AN17:AP17)</f>
         <v>0.67657105591908995</v>
       </c>
-      <c r="W11" s="187">
+      <c r="W11" s="186">
         <f t="shared" si="1"/>
         <v>279.79706049863455</v>
       </c>
-      <c r="AA11" s="168" t="s">
+      <c r="AA11" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="AB11" s="183">
+      <c r="AB11" s="182">
         <f t="shared" si="3"/>
         <v>862.03259827420902</v>
       </c>
-      <c r="AC11" s="185">
+      <c r="AC11" s="184">
         <f t="shared" si="4"/>
         <v>1432.4324324324325</v>
       </c>
-      <c r="AD11" s="185">
+      <c r="AD11" s="184">
         <f t="shared" si="5"/>
         <v>498.80478087649402</v>
       </c>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="171">
+      <c r="AF11" s="170">
         <v>2200</v>
       </c>
-      <c r="AG11" s="169">
+      <c r="AG11" s="168">
         <v>800</v>
       </c>
-      <c r="AH11" s="172">
+      <c r="AH11" s="171">
         <v>1100</v>
       </c>
-      <c r="AI11" s="171">
+      <c r="AI11" s="170">
         <v>1600</v>
       </c>
       <c r="AM11" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="AN11" s="179">
+      <c r="AN11" s="178">
         <v>0.62350597609561753</v>
       </c>
-      <c r="AO11" s="179">
+      <c r="AO11" s="178">
         <v>0.63854266538830295</v>
       </c>
-      <c r="AP11" s="179">
+      <c r="AP11" s="178">
         <v>0.65110565110565111</v>
       </c>
     </row>
@@ -6738,50 +6767,50 @@
         <f t="shared" si="0"/>
         <v>626.50035470099999</v>
       </c>
-      <c r="V12" s="187">
+      <c r="V12" s="186">
         <f t="shared" si="6"/>
         <v>0.69007410579573669</v>
       </c>
-      <c r="W12" s="187">
+      <c r="W12" s="186">
         <f t="shared" si="1"/>
         <v>432.33167205100443</v>
       </c>
-      <c r="AA12" s="168" t="s">
+      <c r="AA12" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="AB12" s="183">
+      <c r="AB12" s="182">
         <f t="shared" si="3"/>
         <v>1021.6682646212847</v>
       </c>
-      <c r="AC12" s="185">
+      <c r="AC12" s="184">
         <f t="shared" si="4"/>
         <v>1692.874692874693</v>
       </c>
-      <c r="AD12" s="185">
+      <c r="AD12" s="184">
         <f t="shared" si="5"/>
         <v>623.50597609561748</v>
       </c>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="171">
+      <c r="AF12" s="170">
         <v>2600</v>
       </c>
-      <c r="AG12" s="171">
+      <c r="AG12" s="170">
         <v>1000</v>
       </c>
-      <c r="AH12" s="172">
+      <c r="AH12" s="171">
         <v>1300</v>
       </c>
-      <c r="AI12" s="171">
+      <c r="AI12" s="170">
         <v>1900</v>
       </c>
       <c r="AM12" s="101"/>
-      <c r="AN12" s="179">
+      <c r="AN12" s="178">
         <v>0.62350597609561753</v>
       </c>
-      <c r="AO12" s="179">
+      <c r="AO12" s="178">
         <v>0.63854266538830295</v>
       </c>
-      <c r="AP12" s="179">
+      <c r="AP12" s="178">
         <v>0.65110565110565111</v>
       </c>
     </row>
@@ -6810,42 +6839,42 @@
       <c r="Q13" s="113">
         <v>0.71303848954914961</v>
       </c>
-      <c r="AA13" s="168" t="s">
+      <c r="AA13" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="AB13" s="183">
+      <c r="AB13" s="182">
         <f t="shared" si="3"/>
         <v>1181.3039309683604</v>
       </c>
-      <c r="AC13" s="185">
+      <c r="AC13" s="184">
         <f t="shared" si="4"/>
         <v>1888.2063882063883</v>
       </c>
-      <c r="AD13" s="185">
+      <c r="AD13" s="184">
         <f t="shared" si="5"/>
         <v>685.85657370517924</v>
       </c>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="171">
+      <c r="AF13" s="170">
         <v>2900</v>
       </c>
-      <c r="AG13" s="171">
+      <c r="AG13" s="170">
         <v>1100</v>
       </c>
-      <c r="AH13" s="172">
+      <c r="AH13" s="171">
         <v>1500</v>
       </c>
-      <c r="AI13" s="171">
+      <c r="AI13" s="170">
         <v>2200</v>
       </c>
       <c r="AM13" s="101"/>
-      <c r="AN13" s="179">
+      <c r="AN13" s="178">
         <v>0.62350597609561753</v>
       </c>
-      <c r="AO13" s="179">
+      <c r="AO13" s="178">
         <v>0.63854266538830295</v>
       </c>
-      <c r="AP13" s="179">
+      <c r="AP13" s="178">
         <v>0.65110565110565111</v>
       </c>
     </row>
@@ -6868,44 +6897,44 @@
       <c r="G14" s="115">
         <v>1697580.3349999997</v>
       </c>
-      <c r="AA14" s="168" t="s">
+      <c r="AA14" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="AB14" s="183">
+      <c r="AB14" s="182">
         <f t="shared" si="3"/>
         <v>1433.8643942200815</v>
       </c>
-      <c r="AC14" s="185">
+      <c r="AC14" s="184">
         <f t="shared" si="4"/>
         <v>2364.0040444893834</v>
       </c>
-      <c r="AD14" s="185">
+      <c r="AD14" s="184">
         <f t="shared" si="5"/>
         <v>835.58106169296991</v>
       </c>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="171">
+      <c r="AF14" s="170">
         <v>3500</v>
       </c>
-      <c r="AG14" s="171">
+      <c r="AG14" s="170">
         <v>1300</v>
       </c>
-      <c r="AH14" s="172">
+      <c r="AH14" s="171">
         <v>1700</v>
       </c>
-      <c r="AI14" s="171">
+      <c r="AI14" s="170">
         <v>2600</v>
       </c>
       <c r="AM14" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="AN14" s="178">
+      <c r="AN14" s="177">
         <v>0.64275466284074612</v>
       </c>
-      <c r="AO14" s="178">
+      <c r="AO14" s="177">
         <v>0.6669136717302705</v>
       </c>
-      <c r="AP14" s="178">
+      <c r="AP14" s="177">
         <v>0.67542972699696668</v>
       </c>
     </row>
@@ -6913,42 +6942,42 @@
       <c r="L15" t="s">
         <v>185</v>
       </c>
-      <c r="AA15" s="168" t="s">
+      <c r="AA15" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="AB15" s="183">
+      <c r="AB15" s="182">
         <f t="shared" si="3"/>
         <v>1700.6298629121898</v>
       </c>
-      <c r="AC15" s="185">
+      <c r="AC15" s="184">
         <f t="shared" si="4"/>
         <v>2769.2618806875635</v>
       </c>
-      <c r="AD15" s="185">
+      <c r="AD15" s="184">
         <f t="shared" si="5"/>
         <v>964.13199426111919</v>
       </c>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="171">
+      <c r="AF15" s="170">
         <v>4100</v>
       </c>
-      <c r="AG15" s="171">
+      <c r="AG15" s="170">
         <v>1500</v>
       </c>
-      <c r="AH15" s="172">
+      <c r="AH15" s="171">
         <v>2000</v>
       </c>
-      <c r="AI15" s="171">
+      <c r="AI15" s="170">
         <v>3100</v>
       </c>
       <c r="AM15" s="96"/>
-      <c r="AN15" s="178">
+      <c r="AN15" s="177">
         <v>0.64275466284074612</v>
       </c>
-      <c r="AO15" s="178">
+      <c r="AO15" s="177">
         <v>0.6669136717302705</v>
       </c>
-      <c r="AP15" s="178">
+      <c r="AP15" s="177">
         <v>0.67542972699696668</v>
       </c>
     </row>
@@ -6959,44 +6988,44 @@
       <c r="O16" t="s">
         <v>215</v>
       </c>
-      <c r="AA16" s="168" t="s">
+      <c r="AA16" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="AB16" s="183">
+      <c r="AB16" s="182">
         <f t="shared" si="3"/>
         <v>1978.8338900698452</v>
       </c>
-      <c r="AC16" s="185">
+      <c r="AC16" s="184">
         <f t="shared" si="4"/>
         <v>3233.030303030303</v>
       </c>
-      <c r="AD16" s="185">
+      <c r="AD16" s="184">
         <f t="shared" si="5"/>
         <v>1187.0601589103292</v>
       </c>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="171">
+      <c r="AF16" s="170">
         <v>4700</v>
       </c>
-      <c r="AG16" s="171">
+      <c r="AG16" s="170">
         <v>1800</v>
       </c>
-      <c r="AH16" s="172">
+      <c r="AH16" s="171">
         <v>2300</v>
       </c>
-      <c r="AI16" s="171">
+      <c r="AI16" s="170">
         <v>3500</v>
       </c>
       <c r="AM16" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="AN16" s="179">
+      <c r="AN16" s="178">
         <v>0.65947786606129399</v>
       </c>
-      <c r="AO16" s="179">
+      <c r="AO16" s="178">
         <v>0.68235651381718798</v>
       </c>
-      <c r="AP16" s="179">
+      <c r="AP16" s="178">
         <v>0.68787878787878787</v>
       </c>
     </row>
@@ -7040,42 +7069,42 @@
       <c r="W17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AA17" s="168" t="s">
+      <c r="AA17" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="AB17" s="183">
+      <c r="AB17" s="182">
         <f t="shared" si="3"/>
         <v>2251.7764955967205</v>
       </c>
-      <c r="AC17" s="185">
+      <c r="AC17" s="184">
         <f t="shared" si="4"/>
         <v>3645.7575757575755</v>
       </c>
-      <c r="AD17" s="185">
+      <c r="AD17" s="184">
         <f t="shared" si="5"/>
         <v>1318.955732122588</v>
       </c>
       <c r="AE17" s="5"/>
-      <c r="AF17" s="171">
+      <c r="AF17" s="170">
         <v>5300</v>
       </c>
-      <c r="AG17" s="171">
+      <c r="AG17" s="170">
         <v>2000</v>
       </c>
-      <c r="AH17" s="172">
+      <c r="AH17" s="171">
         <v>2600</v>
       </c>
-      <c r="AI17" s="171">
+      <c r="AI17" s="170">
         <v>4000</v>
       </c>
       <c r="AM17" s="101"/>
-      <c r="AN17" s="179">
+      <c r="AN17" s="178">
         <v>0.65947786606129399</v>
       </c>
-      <c r="AO17" s="179">
+      <c r="AO17" s="178">
         <v>0.68235651381718798</v>
       </c>
-      <c r="AP17" s="179">
+      <c r="AP17" s="178">
         <v>0.68787878787878787</v>
       </c>
     </row>
@@ -7104,76 +7133,76 @@
       <c r="O18" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="188">
+      <c r="P18" s="187">
         <f t="shared" ref="P18:P25" si="8">1-W4/$W$12</f>
         <v>0.82657317923529827</v>
       </c>
-      <c r="Q18" s="189">
+      <c r="Q18" s="188">
         <f t="shared" ref="Q18:Q24" si="9">1-W4/$W$11</f>
         <v>0.73202753715113</v>
       </c>
-      <c r="R18" s="189">
+      <c r="R18" s="188">
         <f t="shared" ref="R18:R23" si="10">1-W4/$W$10</f>
         <v>0.67174081354445081</v>
       </c>
-      <c r="S18" s="189">
+      <c r="S18" s="188">
         <f>1-W4/$W$9</f>
         <v>0.56505827081684434</v>
       </c>
-      <c r="T18" s="189">
+      <c r="T18" s="188">
         <f>1-W4/$W$8</f>
         <v>0.37746294118133139</v>
       </c>
-      <c r="U18" s="189">
+      <c r="U18" s="188">
         <f>1-W4/$W$7</f>
         <v>0.46288924705058421</v>
       </c>
-      <c r="V18" s="190">
+      <c r="V18" s="189">
         <f>1-W4/$W$6</f>
         <v>0.35059104001588781</v>
       </c>
-      <c r="W18" s="190">
+      <c r="W18" s="189">
         <f>1-W4/$W$5</f>
         <v>0.1678792793901257</v>
       </c>
-      <c r="AA18" s="168" t="s">
+      <c r="AA18" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="AB18" s="183">
+      <c r="AB18" s="182">
         <f t="shared" si="3"/>
         <v>2739.9647887323945</v>
       </c>
-      <c r="AC18" s="185">
+      <c r="AC18" s="184">
         <f t="shared" si="4"/>
         <v>4403.3907830648186</v>
       </c>
-      <c r="AD18" s="185">
+      <c r="AD18" s="184">
         <f t="shared" si="5"/>
         <v>1626.2626262626261</v>
       </c>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="171">
+      <c r="AF18" s="170">
         <v>6300</v>
       </c>
-      <c r="AG18" s="171">
+      <c r="AG18" s="170">
         <v>2400</v>
       </c>
-      <c r="AH18" s="172">
+      <c r="AH18" s="171">
         <v>3200</v>
       </c>
-      <c r="AI18" s="171">
+      <c r="AI18" s="170">
         <v>4700</v>
       </c>
       <c r="AM18" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="AN18" s="178">
+      <c r="AN18" s="177">
         <v>0.67760942760942755</v>
       </c>
-      <c r="AO18" s="178">
+      <c r="AO18" s="177">
         <v>0.69366197183098599</v>
       </c>
-      <c r="AP18" s="178">
+      <c r="AP18" s="177">
         <v>0.69895091794679653</v>
       </c>
     </row>
@@ -7196,73 +7225,73 @@
       <c r="O19" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="188">
+      <c r="P19" s="187">
         <f t="shared" si="8"/>
         <v>0.79158454239957576</v>
       </c>
-      <c r="Q19" s="189">
+      <c r="Q19" s="188">
         <f t="shared" si="9"/>
         <v>0.67796443927935268</v>
       </c>
-      <c r="R19" s="189">
+      <c r="R19" s="188">
         <f t="shared" si="10"/>
         <v>0.60551494714016629</v>
       </c>
-      <c r="S19" s="189">
+      <c r="S19" s="188">
         <f>1-W5/$W$9</f>
         <v>0.47730933936559095</v>
       </c>
-      <c r="T19" s="190">
+      <c r="T19" s="189">
         <f>1-W5/$W$8</f>
         <v>0.25186689455058697</v>
       </c>
-      <c r="U19" s="190">
+      <c r="U19" s="189">
         <f>1-W5/$W$7</f>
         <v>0.35452784716650365</v>
       </c>
-      <c r="V19" s="190">
+      <c r="V19" s="189">
         <f>1-W5/$W$6</f>
         <v>0.21957362207234754</v>
       </c>
-      <c r="W19" s="188"/>
-      <c r="AA19" s="173" t="s">
+      <c r="W19" s="187"/>
+      <c r="AA19" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="AB19" s="183">
+      <c r="AB19" s="182">
         <f t="shared" si="3"/>
         <v>2702.039715087416</v>
       </c>
-      <c r="AC19" s="186">
+      <c r="AC19" s="185">
         <f t="shared" si="4"/>
         <v>4397.9254406488853</v>
       </c>
-      <c r="AD19" s="186">
+      <c r="AD19" s="185">
         <f t="shared" si="5"/>
         <v>1686.5833785985876</v>
       </c>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="174">
+      <c r="AF19" s="173">
         <v>7900</v>
       </c>
-      <c r="AG19" s="174">
+      <c r="AG19" s="173">
         <v>3000</v>
       </c>
-      <c r="AH19" s="175">
+      <c r="AH19" s="174">
         <v>4000</v>
       </c>
-      <c r="AI19" s="174">
+      <c r="AI19" s="173">
         <v>5900</v>
       </c>
       <c r="AM19" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="AN19" s="180">
+      <c r="AN19" s="179">
         <v>0.56219445953286251</v>
       </c>
-      <c r="AO19" s="180">
+      <c r="AO19" s="179">
         <v>0.54586660910856888</v>
       </c>
-      <c r="AP19" s="180">
+      <c r="AP19" s="179">
         <v>0.55669942286694751</v>
       </c>
     </row>
@@ -7285,33 +7314,33 @@
       <c r="O20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="189">
+      <c r="P20" s="188">
         <f t="shared" si="8"/>
         <v>0.73294667697694738</v>
       </c>
-      <c r="Q20" s="189">
+      <c r="Q20" s="188">
         <f t="shared" si="9"/>
         <v>0.58735946166276198</v>
       </c>
-      <c r="R20" s="189">
+      <c r="R20" s="188">
         <f t="shared" si="10"/>
         <v>0.49452624358065522</v>
       </c>
-      <c r="S20" s="190">
+      <c r="S20" s="189">
         <f>1-W6/$W$9</f>
         <v>0.33024987953077123</v>
       </c>
-      <c r="T20" s="190">
+      <c r="T20" s="189">
         <f>1-W6/$W$8</f>
         <v>4.1379012026721895E-2</v>
       </c>
-      <c r="U20" s="190">
+      <c r="U20" s="189">
         <f>1-W6/$W$7</f>
         <v>0.17292371056513256</v>
       </c>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="AA20" s="163" t="s">
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="AA20" s="162" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7324,30 +7353,30 @@
       <c r="O21" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="189">
+      <c r="P21" s="188">
         <f t="shared" si="8"/>
         <v>0.67711162025267657</v>
       </c>
-      <c r="Q21" s="189">
+      <c r="Q21" s="188">
         <f t="shared" si="9"/>
         <v>0.50108527640274758</v>
       </c>
-      <c r="R21" s="189">
+      <c r="R21" s="188">
         <f t="shared" si="10"/>
         <v>0.38884264622707332</v>
       </c>
-      <c r="S21" s="190">
+      <c r="S21" s="189">
         <f>1-W7/$W$9</f>
         <v>0.19021965805976382</v>
       </c>
-      <c r="T21" s="190">
+      <c r="T21" s="189">
         <f>IF(1-W7/$W$8&lt;0,0)</f>
         <v>0</v>
       </c>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
-      <c r="AA21" s="164" t="s">
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="AA21" s="163" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7364,128 +7393,128 @@
       <c r="O22" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="189">
+      <c r="P22" s="188">
         <f t="shared" si="8"/>
         <v>0.72141928210057427</v>
       </c>
-      <c r="Q22" s="189">
+      <c r="Q22" s="188">
         <f t="shared" si="9"/>
         <v>0.56954777381867572</v>
       </c>
-      <c r="R22" s="189">
+      <c r="R22" s="188">
         <f t="shared" si="10"/>
         <v>0.47270739660309302</v>
       </c>
-      <c r="S22" s="190">
+      <c r="S22" s="189">
         <f>1-W8/$W$9</f>
         <v>0.30134001980780933</v>
       </c>
-      <c r="T22" s="188"/>
-      <c r="U22" s="188"/>
-      <c r="V22" s="188"/>
-      <c r="W22" s="188"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
     </row>
     <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="144">
+      <c r="F23" s="143">
         <f>F18/$D$14</f>
         <v>0.12047183066805627</v>
       </c>
-      <c r="G23" s="144">
+      <c r="G23" s="143">
         <f>G18/$E$14</f>
         <v>0.14269122682268837</v>
       </c>
-      <c r="H23" s="144">
+      <c r="H23" s="143">
         <f>H18/$F$14</f>
         <v>0.24586456547937455</v>
       </c>
       <c r="O23" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="189">
+      <c r="P23" s="188">
         <f t="shared" si="8"/>
         <v>0.60126424040662463</v>
       </c>
-      <c r="Q23" s="189">
+      <c r="Q23" s="188">
         <f t="shared" si="9"/>
         <v>0.38388881804434616</v>
       </c>
-      <c r="R23" s="190">
+      <c r="R23" s="189">
         <f t="shared" si="10"/>
         <v>0.24528008137541124</v>
       </c>
-      <c r="S23" s="188"/>
-      <c r="T23" s="188"/>
-      <c r="U23" s="188"/>
-      <c r="V23" s="188"/>
-      <c r="W23" s="188"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
     </row>
     <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="144">
+      <c r="F24" s="143">
         <f t="shared" ref="F24:F25" si="13">F19/$D$14</f>
         <v>0.36817497729041837</v>
       </c>
-      <c r="G24" s="144">
+      <c r="G24" s="143">
         <f t="shared" ref="G24:G25" si="14">G19/$E$14</f>
         <v>0.34691968530979972</v>
       </c>
-      <c r="H24" s="144">
+      <c r="H24" s="143">
         <f t="shared" ref="H24:H25" si="15">H19/$F$14</f>
         <v>0.28484101080348528</v>
       </c>
       <c r="O24" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="189">
+      <c r="P24" s="188">
         <f t="shared" si="8"/>
         <v>0.47167717486503269</v>
       </c>
-      <c r="Q24" s="190">
+      <c r="Q24" s="189">
         <f t="shared" si="9"/>
         <v>0.18365586126511313</v>
       </c>
-      <c r="R24" s="188"/>
-      <c r="S24" s="188"/>
-      <c r="T24" s="188"/>
-      <c r="U24" s="188"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="188"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
     </row>
     <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="144">
+      <c r="F25" s="143">
         <f t="shared" si="13"/>
         <v>0.51135319204152541</v>
       </c>
-      <c r="G25" s="144">
+      <c r="G25" s="143">
         <f t="shared" si="14"/>
         <v>0.5103890878675118</v>
       </c>
-      <c r="H25" s="144">
+      <c r="H25" s="143">
         <f t="shared" si="15"/>
         <v>0.46929442371714014</v>
       </c>
       <c r="O25" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="190">
+      <c r="P25" s="189">
         <f t="shared" si="8"/>
         <v>0.3528184988824381</v>
       </c>
-      <c r="Q25" s="190"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
-      <c r="T25" s="188"/>
-      <c r="U25" s="188"/>
-      <c r="V25" s="188"/>
-      <c r="W25" s="188"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
     </row>
     <row r="26" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
@@ -7501,40 +7530,40 @@
       <c r="A29" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="211" t="s">
+      <c r="C29" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="212"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="211" t="s">
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="210" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="212"/>
-      <c r="J29" s="212"/>
-      <c r="K29" s="212"/>
-      <c r="L29" s="213"/>
-      <c r="M29" s="205" t="s">
+      <c r="I29" s="211"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="211"/>
+      <c r="L29" s="212"/>
+      <c r="M29" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="N29" s="206"/>
-      <c r="O29" s="206"/>
-      <c r="P29" s="205" t="s">
+      <c r="N29" s="205"/>
+      <c r="O29" s="205"/>
+      <c r="P29" s="204" t="s">
         <v>191</v>
       </c>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="205" t="s">
+      <c r="Q29" s="205"/>
+      <c r="R29" s="205"/>
+      <c r="S29" s="204" t="s">
         <v>192</v>
       </c>
-      <c r="T29" s="206"/>
-      <c r="U29" s="206"/>
-      <c r="V29" s="205" t="s">
+      <c r="T29" s="205"/>
+      <c r="U29" s="205"/>
+      <c r="V29" s="204" t="s">
         <v>192</v>
       </c>
-      <c r="W29" s="206"/>
-      <c r="X29" s="206"/>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
     </row>
     <row r="30" spans="1:42" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
@@ -7602,7 +7631,7 @@
       <c r="X30" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="AA30" s="182" t="s">
+      <c r="AA30" s="181" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7722,7 +7751,7 @@
       <c r="S33" s="126"/>
       <c r="T33" s="126"/>
       <c r="U33" s="126"/>
-      <c r="AA33" s="182" t="s">
+      <c r="AA33" s="181" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9352,29 +9381,29 @@
       <c r="C60" t="s">
         <v>183</v>
       </c>
-      <c r="S60" s="137">
-        <f>SUM(S38,S41,S44,S48,S53,S57)</f>
-        <v>20563.0239417189</v>
-      </c>
-      <c r="T60" s="137">
-        <f t="shared" ref="T60:W60" si="58">SUM(T38,T41,T44,T48,T53,T57)</f>
-        <v>22259.387557085229</v>
-      </c>
-      <c r="U60" s="137">
-        <f t="shared" si="58"/>
-        <v>15982.779351113084</v>
-      </c>
-      <c r="V60" s="138">
-        <f t="shared" si="58"/>
-        <v>0.41971707986779133</v>
-      </c>
-      <c r="W60" s="138">
-        <f t="shared" si="58"/>
-        <v>0.42725634048359507</v>
-      </c>
-      <c r="X60" s="138">
-        <f>SUM(X38,X41,X44,X48,X53,X57)</f>
-        <v>0.36362775898499861</v>
+      <c r="S60" s="213" cm="1">
+        <f t="array" ref="S60">S38+AVERAGE(S40:S41)+AVERAGE(S43:S45)+AVERAGE(S47:S50+AVERAGE(S53:S56))</f>
+        <v>22294.679797673529</v>
+      </c>
+      <c r="T60" s="213" cm="1">
+        <f t="array" ref="T60">T38+AVERAGE(T40:T41)+AVERAGE(T43:T45)+AVERAGE(T47:T50+AVERAGE(T53:T56))</f>
+        <v>24114.356797661487</v>
+      </c>
+      <c r="U60" s="213" cm="1">
+        <f t="array" ref="U60">U38+AVERAGE(U40:U41)+AVERAGE(U43:U45)+AVERAGE(U47:U50+AVERAGE(U53:U56))</f>
+        <v>17266.169771719473</v>
+      </c>
+      <c r="V60" s="137" cm="1">
+        <f t="array" ref="V60">V38+AVERAGE(V40:V41)+AVERAGE(V43:V45)+AVERAGE(V47:V50+AVERAGE(V53:V56))</f>
+        <v>0.44109160694603122</v>
+      </c>
+      <c r="W60" s="137" cm="1">
+        <f t="array" ref="W60">W38+AVERAGE(W40:W41)+AVERAGE(W43:W45)+AVERAGE(W47:W50+AVERAGE(W53:W56))</f>
+        <v>0.43814428681539097</v>
+      </c>
+      <c r="X60" s="137" cm="1">
+        <f t="array" ref="X60">X38+AVERAGE(X40:X41)+AVERAGE(X43:X45)+AVERAGE(X47:X50+AVERAGE(X53:X56))</f>
+        <v>0.37835986642564029</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B52CE5-5141-42B1-BE25-4CF95BFB9EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D795C4F-A041-4569-A64D-44DA8DA22072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -2358,6 +2358,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="44" fillId="20" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2427,7 +2428,6 @@
     <xf numFmtId="0" fontId="43" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="44" fillId="20" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - Colore 2" xfId="10" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
@@ -3998,14 +3998,14 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -4043,13 +4043,13 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
@@ -4063,13 +4063,13 @@
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
@@ -4083,13 +4083,13 @@
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -4118,22 +4118,22 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="194"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
+      <c r="A25" s="195"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="190"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -4320,17 +4320,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="147"/>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="197"/>
+      <c r="I2" s="198"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -4640,10 +4640,10 @@
         <v>80</v>
       </c>
       <c r="F15" s="149"/>
-      <c r="H15" s="195" t="s">
+      <c r="H15" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
@@ -4717,12 +4717,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="200"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="201"/>
       <c r="F20" s="150"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4933,17 +4933,17 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="195" t="s">
+      <c r="B38" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="196"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="197"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="198"/>
       <c r="F38" s="147"/>
-      <c r="H38" s="201" t="s">
+      <c r="H38" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="202"/>
+      <c r="I38" s="203"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="61" t="s">
@@ -5049,8 +5049,8 @@
   </sheetPr>
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5065,7 +5065,9 @@
     <col min="13" max="14" width="9.140625" style="80"/>
     <col min="15" max="15" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="80"/>
-    <col min="17" max="21" width="11.140625" style="80" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" style="80" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="80" customWidth="1"/>
+    <col min="20" max="21" width="11.140625" style="80" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
@@ -5148,10 +5150,10 @@
       <c r="S5" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="T5" s="203" t="s">
+      <c r="T5" s="204" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="203"/>
+      <c r="U5" s="204"/>
     </row>
     <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
@@ -5247,7 +5249,7 @@
       </c>
       <c r="N7" s="75">
         <f>U7</f>
-        <v>3.4901289446216035E-3</v>
+        <v>3.0320495206400178E-3</v>
       </c>
       <c r="O7" s="139">
         <f>Data!U59/1000</f>
@@ -5260,7 +5262,7 @@
         <v>109</v>
       </c>
       <c r="S7" s="80">
-        <v>1.6E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="T7" s="141">
         <f>Data!X59</f>
@@ -5268,7 +5270,7 @@
       </c>
       <c r="U7" s="80">
         <f>S7*T7</f>
-        <v>3.4901289446216035E-3</v>
+        <v>3.0320495206400178E-3</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -5311,7 +5313,7 @@
       </c>
       <c r="N8" s="83">
         <f t="shared" ref="N8:N12" si="4">U8</f>
-        <v>6.053757862810245E-3</v>
+        <v>5.2592021433163997E-3</v>
       </c>
       <c r="O8" s="140">
         <f>Data!U60/1000</f>
@@ -5324,7 +5326,7 @@
         <v>110</v>
       </c>
       <c r="S8" s="81">
-        <v>1.6E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="T8" s="142">
         <f>Data!X60</f>
@@ -5332,7 +5334,7 @@
       </c>
       <c r="U8" s="81">
         <f t="shared" ref="U8:U12" si="5">S8*T8</f>
-        <v>6.053757862810245E-3</v>
+        <v>5.2592021433163997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -5375,7 +5377,7 @@
       </c>
       <c r="N9" s="75">
         <f t="shared" si="4"/>
-        <v>5.4263583940724319E-3</v>
+        <v>5.7087710985966478E-3</v>
       </c>
       <c r="O9" s="139">
         <f>Data!S59/1000</f>
@@ -5388,7 +5390,7 @@
         <v>109</v>
       </c>
       <c r="S9" s="80">
-        <v>2.69E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="T9" s="141">
         <f>Data!V59</f>
@@ -5396,7 +5398,7 @@
       </c>
       <c r="U9" s="80">
         <f t="shared" si="5"/>
-        <v>5.4263583940724319E-3</v>
+        <v>5.7087710985966478E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -5439,7 +5441,7 @@
       </c>
       <c r="N10" s="83">
         <f t="shared" si="4"/>
-        <v>1.186536422684824E-2</v>
+        <v>1.2482892476572683E-2</v>
       </c>
       <c r="O10" s="140">
         <f>Data!S60/1000</f>
@@ -5452,7 +5454,7 @@
         <v>110</v>
       </c>
       <c r="S10" s="81">
-        <v>2.69E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="T10" s="142">
         <f>Data!V60</f>
@@ -5460,7 +5462,7 @@
       </c>
       <c r="U10" s="81">
         <f t="shared" si="5"/>
-        <v>1.186536422684824E-2</v>
+        <v>1.2482892476572683E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -5503,7 +5505,7 @@
       </c>
       <c r="N11" s="75">
         <f t="shared" si="4"/>
-        <v>9.5809185652412903E-3</v>
+        <v>1.0380995272150794E-2</v>
       </c>
       <c r="O11" s="139">
         <f>Data!T59/1000</f>
@@ -5516,7 +5518,7 @@
         <v>109</v>
       </c>
       <c r="S11" s="80">
-        <v>4.7899999999999998E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="T11" s="141">
         <f>Data!W59</f>
@@ -5524,7 +5526,7 @@
       </c>
       <c r="U11" s="80">
         <f t="shared" si="5"/>
-        <v>9.5809185652412903E-3</v>
+        <v>1.0380995272150794E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -5567,7 +5569,7 @@
       </c>
       <c r="N12" s="83">
         <f t="shared" si="4"/>
-        <v>2.0987111338457227E-2</v>
+        <v>2.2739688485718793E-2</v>
       </c>
       <c r="O12" s="140">
         <f>Data!T60/1000</f>
@@ -5580,7 +5582,7 @@
         <v>110</v>
       </c>
       <c r="S12" s="81">
-        <v>4.7899999999999998E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="T12" s="142">
         <f>Data!W60</f>
@@ -5588,7 +5590,7 @@
       </c>
       <c r="U12" s="81">
         <f t="shared" si="5"/>
-        <v>2.0987111338457227E-2</v>
+        <v>2.2739688485718793E-2</v>
       </c>
     </row>
     <row r="19" spans="22:26" x14ac:dyDescent="0.2">
@@ -5832,7 +5834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A6DB4B-6EBE-42F5-800F-C9AB0144B3BB}">
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
@@ -5863,33 +5865,33 @@
   <sheetData>
     <row r="1" spans="3:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="208" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="207" t="s">
+      <c r="M2" s="209"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="207" t="s">
+      <c r="P2" s="209"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="208" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
       <c r="AD2" s="118" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="3:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="206" t="s">
+      <c r="C3" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
       <c r="L3" s="88" t="s">
         <v>165</v>
       </c>
@@ -7530,40 +7532,40 @@
       <c r="A29" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="210" t="s">
+      <c r="C29" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="211"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="210" t="s">
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="211" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="212"/>
-      <c r="M29" s="204" t="s">
+      <c r="I29" s="212"/>
+      <c r="J29" s="212"/>
+      <c r="K29" s="212"/>
+      <c r="L29" s="213"/>
+      <c r="M29" s="205" t="s">
         <v>190</v>
       </c>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205"/>
-      <c r="P29" s="204" t="s">
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="205" t="s">
         <v>191</v>
       </c>
-      <c r="Q29" s="205"/>
-      <c r="R29" s="205"/>
-      <c r="S29" s="204" t="s">
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="T29" s="205"/>
-      <c r="U29" s="205"/>
-      <c r="V29" s="204" t="s">
+      <c r="T29" s="206"/>
+      <c r="U29" s="206"/>
+      <c r="V29" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="W29" s="205"/>
-      <c r="X29" s="205"/>
+      <c r="W29" s="206"/>
+      <c r="X29" s="206"/>
     </row>
     <row r="30" spans="1:42" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
@@ -9381,15 +9383,15 @@
       <c r="C60" t="s">
         <v>183</v>
       </c>
-      <c r="S60" s="213" cm="1">
+      <c r="S60" s="190" cm="1">
         <f t="array" ref="S60">S38+AVERAGE(S40:S41)+AVERAGE(S43:S45)+AVERAGE(S47:S50+AVERAGE(S53:S56))</f>
         <v>22294.679797673529</v>
       </c>
-      <c r="T60" s="213" cm="1">
+      <c r="T60" s="190" cm="1">
         <f t="array" ref="T60">T38+AVERAGE(T40:T41)+AVERAGE(T43:T45)+AVERAGE(T47:T50+AVERAGE(T53:T56))</f>
         <v>24114.356797661487</v>
       </c>
-      <c r="U60" s="213" cm="1">
+      <c r="U60" s="190" cm="1">
         <f t="array" ref="U60">U38+AVERAGE(U40:U41)+AVERAGE(U43:U45)+AVERAGE(U47:U50+AVERAGE(U53:U56))</f>
         <v>17266.169771719473</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D795C4F-A041-4569-A64D-44DA8DA22072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF43923A-3A80-40CC-A503-4F99928272C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="2010" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -1891,7 +1891,7 @@
     <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2427,6 +2427,9 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5049,8 +5052,8 @@
   </sheetPr>
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5071,18 +5074,18 @@
     <col min="22" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="72" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>21</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -5155,7 +5158,7 @@
       </c>
       <c r="U5" s="204"/>
     </row>
-    <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
         <v>63</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="s">
         <v>30</v>
       </c>
@@ -5249,7 +5252,7 @@
       </c>
       <c r="N7" s="75">
         <f>U7</f>
-        <v>3.0320495206400178E-3</v>
+        <v>4.8649999999999995E-3</v>
       </c>
       <c r="O7" s="139">
         <f>Data!U59/1000</f>
@@ -5265,15 +5268,18 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="T7" s="141">
+        <v>0.35</v>
+      </c>
+      <c r="U7" s="80">
+        <f>S7*T7</f>
+        <v>4.8649999999999995E-3</v>
+      </c>
+      <c r="W7" s="214">
         <f>Data!X59</f>
         <v>0.21813305903885022</v>
       </c>
-      <c r="U7" s="80">
-        <f>S7*T7</f>
-        <v>3.0320495206400178E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="83" t="s">
         <v>30</v>
       </c>
@@ -5312,8 +5318,8 @@
         <v>50</v>
       </c>
       <c r="N8" s="83">
-        <f t="shared" ref="N8:N12" si="4">U8</f>
-        <v>5.2592021433163997E-3</v>
+        <f>U8</f>
+        <v>9.0349999999999996E-3</v>
       </c>
       <c r="O8" s="140">
         <f>Data!U60/1000</f>
@@ -5329,15 +5335,18 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="T8" s="142">
+        <v>0.65</v>
+      </c>
+      <c r="U8" s="81">
+        <f t="shared" ref="U8:U12" si="4">S8*T8</f>
+        <v>9.0349999999999996E-3</v>
+      </c>
+      <c r="W8" s="214">
         <f>Data!X60</f>
         <v>0.37835986642564029</v>
       </c>
-      <c r="U8" s="81">
-        <f t="shared" ref="U8:U12" si="5">S8*T8</f>
-        <v>5.2592021433163997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="s">
         <v>30</v>
       </c>
@@ -5376,8 +5385,8 @@
         <v>50</v>
       </c>
       <c r="N9" s="75">
-        <f t="shared" si="4"/>
-        <v>5.7087710985966478E-3</v>
+        <f t="shared" ref="N8:N12" si="5">U9</f>
+        <v>9.9049999999999989E-3</v>
       </c>
       <c r="O9" s="139">
         <f>Data!S59/1000</f>
@@ -5393,15 +5402,18 @@
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="T9" s="141">
+        <v>0.35</v>
+      </c>
+      <c r="U9" s="80">
+        <f t="shared" si="4"/>
+        <v>9.9049999999999989E-3</v>
+      </c>
+      <c r="W9" s="214">
         <f>Data!V59</f>
         <v>0.20172336037443986</v>
       </c>
-      <c r="U9" s="80">
-        <f t="shared" si="5"/>
-        <v>5.7087710985966478E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="83" t="s">
         <v>30</v>
       </c>
@@ -5440,8 +5452,8 @@
         <v>50</v>
       </c>
       <c r="N10" s="83">
-        <f t="shared" si="4"/>
-        <v>1.2482892476572683E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.9809999999999998E-2</v>
       </c>
       <c r="O10" s="140">
         <f>Data!S60/1000</f>
@@ -5457,15 +5469,18 @@
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="T10" s="142">
+        <v>0.7</v>
+      </c>
+      <c r="U10" s="81">
+        <f t="shared" si="4"/>
+        <v>1.9809999999999998E-2</v>
+      </c>
+      <c r="W10" s="214">
         <f>Data!V60</f>
         <v>0.44109160694603122</v>
       </c>
-      <c r="U10" s="81">
-        <f t="shared" si="5"/>
-        <v>1.2482892476572683E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="s">
         <v>30</v>
       </c>
@@ -5504,8 +5519,8 @@
         <v>50</v>
       </c>
       <c r="N11" s="75">
-        <f t="shared" si="4"/>
-        <v>1.0380995272150794E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.8165000000000001E-2</v>
       </c>
       <c r="O11" s="139">
         <f>Data!T59/1000</f>
@@ -5521,15 +5536,18 @@
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="T11" s="141">
+        <v>0.35</v>
+      </c>
+      <c r="U11" s="80">
+        <f>S11*T11</f>
+        <v>1.8165000000000001E-2</v>
+      </c>
+      <c r="W11" s="214">
         <f>Data!W59</f>
         <v>0.2000191767273756</v>
       </c>
-      <c r="U11" s="80">
-        <f t="shared" si="5"/>
-        <v>1.0380995272150794E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="83" t="s">
         <v>30</v>
       </c>
@@ -5568,8 +5586,8 @@
         <v>50</v>
       </c>
       <c r="N12" s="83">
-        <f t="shared" si="4"/>
-        <v>2.2739688485718793E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.6330000000000001E-2</v>
       </c>
       <c r="O12" s="140">
         <f>Data!T60/1000</f>
@@ -5585,12 +5603,15 @@
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="T12" s="142">
+        <v>0.7</v>
+      </c>
+      <c r="U12" s="81">
+        <f t="shared" si="4"/>
+        <v>3.6330000000000001E-2</v>
+      </c>
+      <c r="W12" s="214">
         <f>Data!W60</f>
         <v>0.43814428681539097</v>
-      </c>
-      <c r="U12" s="81">
-        <f t="shared" si="5"/>
-        <v>2.2739688485718793E-2</v>
       </c>
     </row>
     <row r="19" spans="22:26" x14ac:dyDescent="0.2">

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF43923A-3A80-40CC-A503-4F99928272C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ECDE56-B4DA-4CB6-BC17-B7D2FBF65901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -1891,7 +1891,7 @@
     <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2427,9 +2427,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5053,7 +5050,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5074,18 +5071,18 @@
     <col min="22" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="72" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>21</v>
       </c>
@@ -5100,7 +5097,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -5158,7 +5155,7 @@
       </c>
       <c r="U5" s="204"/>
     </row>
-    <row r="6" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
         <v>63</v>
       </c>
@@ -5212,7 +5209,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="s">
         <v>30</v>
       </c>
@@ -5252,7 +5249,7 @@
       </c>
       <c r="N7" s="75">
         <f>U7</f>
-        <v>4.8649999999999995E-3</v>
+        <v>3.0320495206400178E-3</v>
       </c>
       <c r="O7" s="139">
         <f>Data!U59/1000</f>
@@ -5268,18 +5265,15 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="T7" s="141">
-        <v>0.35</v>
+        <f>Data!X59</f>
+        <v>0.21813305903885022</v>
       </c>
       <c r="U7" s="80">
         <f>S7*T7</f>
-        <v>4.8649999999999995E-3</v>
-      </c>
-      <c r="W7" s="214">
-        <f>Data!X59</f>
-        <v>0.21813305903885022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+        <v>3.0320495206400178E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="83" t="s">
         <v>30</v>
       </c>
@@ -5319,7 +5313,7 @@
       </c>
       <c r="N8" s="83">
         <f>U8</f>
-        <v>9.0349999999999996E-3</v>
+        <v>5.2592021433163997E-3</v>
       </c>
       <c r="O8" s="140">
         <f>Data!U60/1000</f>
@@ -5334,19 +5328,16 @@
       <c r="S8" s="81">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="T8" s="142">
-        <v>0.65</v>
+      <c r="T8" s="141">
+        <f>Data!X60</f>
+        <v>0.37835986642564029</v>
       </c>
       <c r="U8" s="81">
         <f t="shared" ref="U8:U12" si="4">S8*T8</f>
-        <v>9.0349999999999996E-3</v>
-      </c>
-      <c r="W8" s="214">
-        <f>Data!X60</f>
-        <v>0.37835986642564029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+        <v>5.2592021433163997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="s">
         <v>30</v>
       </c>
@@ -5385,8 +5376,8 @@
         <v>50</v>
       </c>
       <c r="N9" s="75">
-        <f t="shared" ref="N8:N12" si="5">U9</f>
-        <v>9.9049999999999989E-3</v>
+        <f t="shared" ref="N9:N12" si="5">U9</f>
+        <v>5.7087710985966478E-3</v>
       </c>
       <c r="O9" s="139">
         <f>Data!S59/1000</f>
@@ -5402,18 +5393,15 @@
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="T9" s="141">
-        <v>0.35</v>
+        <f>Data!V59</f>
+        <v>0.20172336037443986</v>
       </c>
       <c r="U9" s="80">
         <f t="shared" si="4"/>
-        <v>9.9049999999999989E-3</v>
-      </c>
-      <c r="W9" s="214">
-        <f>Data!V59</f>
-        <v>0.20172336037443986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+        <v>5.7087710985966478E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="83" t="s">
         <v>30</v>
       </c>
@@ -5453,7 +5441,7 @@
       </c>
       <c r="N10" s="83">
         <f t="shared" si="5"/>
-        <v>1.9809999999999998E-2</v>
+        <v>1.2482892476572683E-2</v>
       </c>
       <c r="O10" s="140">
         <f>Data!S60/1000</f>
@@ -5469,18 +5457,15 @@
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="T10" s="142">
-        <v>0.7</v>
+        <f>Data!V60</f>
+        <v>0.44109160694603122</v>
       </c>
       <c r="U10" s="81">
         <f t="shared" si="4"/>
-        <v>1.9809999999999998E-2</v>
-      </c>
-      <c r="W10" s="214">
-        <f>Data!V60</f>
-        <v>0.44109160694603122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+        <v>1.2482892476572683E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="s">
         <v>30</v>
       </c>
@@ -5520,7 +5505,7 @@
       </c>
       <c r="N11" s="75">
         <f t="shared" si="5"/>
-        <v>1.8165000000000001E-2</v>
+        <v>1.0380995272150794E-2</v>
       </c>
       <c r="O11" s="139">
         <f>Data!T59/1000</f>
@@ -5536,18 +5521,15 @@
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="T11" s="141">
-        <v>0.35</v>
+        <f>Data!W59</f>
+        <v>0.2000191767273756</v>
       </c>
       <c r="U11" s="80">
         <f>S11*T11</f>
-        <v>1.8165000000000001E-2</v>
-      </c>
-      <c r="W11" s="214">
-        <f>Data!W59</f>
-        <v>0.2000191767273756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+        <v>1.0380995272150794E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="83" t="s">
         <v>30</v>
       </c>
@@ -5587,7 +5569,7 @@
       </c>
       <c r="N12" s="83">
         <f t="shared" si="5"/>
-        <v>3.6330000000000001E-2</v>
+        <v>2.2739688485718793E-2</v>
       </c>
       <c r="O12" s="140">
         <f>Data!T60/1000</f>
@@ -5602,16 +5584,13 @@
       <c r="S12" s="81">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="T12" s="142">
-        <v>0.7</v>
+      <c r="T12" s="141">
+        <f>Data!W60</f>
+        <v>0.43814428681539097</v>
       </c>
       <c r="U12" s="81">
         <f t="shared" si="4"/>
-        <v>3.6330000000000001E-2</v>
-      </c>
-      <c r="W12" s="214">
-        <f>Data!W60</f>
-        <v>0.43814428681539097</v>
+        <v>2.2739688485718793E-2</v>
       </c>
     </row>
     <row r="19" spans="22:26" x14ac:dyDescent="0.2">

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E8587-D8D2-479E-B68F-8B5B57673F64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B52CE5-5141-42B1-BE25-4CF95BFB9EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -71,8 +71,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="216">
   <si>
     <t>Document type:</t>
   </si>
@@ -128,27 +150,9 @@
     <t>Currency (year)</t>
   </si>
   <si>
-    <t>ArDEM</t>
-  </si>
-  <si>
-    <t>LEAP</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>JRC_EU_TIMES</t>
-  </si>
-  <si>
-    <t>European TIMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nov-19</t>
-  </si>
-  <si>
-    <t>PET_IE</t>
-  </si>
-  <si>
     <t>2.0.7</t>
   </si>
   <si>
@@ -200,9 +204,6 @@
     <t>Version:</t>
   </si>
   <si>
-    <t>Residential 2.0.7</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
@@ -263,27 +264,15 @@
     <t>Data Sources</t>
   </si>
   <si>
-    <t xml:space="preserve">ArDEM SQL </t>
-  </si>
-  <si>
     <t>Assumptions</t>
   </si>
   <si>
-    <t xml:space="preserve">Irish LEAP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irish TIMES 1.0 </t>
-  </si>
-  <si>
     <t>BER Database</t>
   </si>
   <si>
     <t>https://ndber.seai.ie/pass/ber/search.aspx</t>
   </si>
   <si>
-    <t>https://www.seai.ie/data-and-insights/seai-statistics/key-publications/national-energy-balance/</t>
-  </si>
-  <si>
     <t>Verision Control</t>
   </si>
   <si>
@@ -330,9 +319,6 @@
   </si>
   <si>
     <t xml:space="preserve">TIMES-Ireland Residential </t>
-  </si>
-  <si>
-    <t>11th December 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Sub RES Template </t>
@@ -422,54 +408,12 @@
     <t>2018M€</t>
   </si>
   <si>
-    <t>Energy Balance 2018</t>
-  </si>
-  <si>
     <t>CSO 2016</t>
   </si>
   <si>
     <t>https://www.cso.ie/en/csolatestnews/presspages/2017/census2016profile1-housinginireland/</t>
   </si>
   <si>
-    <t>TopTen</t>
-  </si>
-  <si>
-    <t>EU Appliances Data https://storage.topten.eu/source/files/WhiteGoods_in_Europe_June15.pdf</t>
-  </si>
-  <si>
-    <t>SEAI Residential</t>
-  </si>
-  <si>
-    <t>https://www.seai.ie/publications/Energy-Emissions-Report-2020.pdf</t>
-  </si>
-  <si>
-    <t>SEAI Emissions</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>https://www.epa.ie/pubs/reports/air/airemissions/ghg/nir2019/Ireland%20NIR%202019_Final.pdf (Table 3.1.1))</t>
-  </si>
-  <si>
-    <t>SEAI Data</t>
-  </si>
-  <si>
-    <t>https://www.seai.ie/data-and-insights/seai-statistics/conversion-factors/</t>
-  </si>
-  <si>
-    <t>Central Bank</t>
-  </si>
-  <si>
-    <t>vol-2019-no-14-population-change-and-housing-demand-in-ireland-(conefrey-and-staunton)</t>
-  </si>
-  <si>
-    <t>HDD Projection</t>
-  </si>
-  <si>
-    <t>http://www.epa.ie/pubs/reports/research/climate/researchreport339/Research_Report_339_Part3.pdf</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -752,19 +696,73 @@
     <t>Weighted Average Assumed Saving (%)</t>
   </si>
   <si>
+    <t>No Retrofit Required for Heat Pump</t>
+  </si>
+  <si>
+    <t>Shallow Retrofit Required for Heat Pump</t>
+  </si>
+  <si>
+    <t>Deep Retrofit Required for Heat Pump</t>
+  </si>
+  <si>
+    <t>DayNite</t>
+  </si>
+  <si>
+    <t>Residential 1.0</t>
+  </si>
+  <si>
+    <t>19th July 2021</t>
+  </si>
+  <si>
+    <t>SEAI</t>
+  </si>
+  <si>
+    <t>http://www.seai.ie/Your_Building/BER/Your_Guide_to_Building_Energy_ Rating.pdf.</t>
+  </si>
+  <si>
+    <t>Open Source</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TABULA</t>
+  </si>
+  <si>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>Usman Ali, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A data-driven approach to optimize urban scale energy retrofit decisions for residential buildings</t>
+  </si>
+  <si>
+    <t>Attribution 4.0 International (CC BY 4.0</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1080/00036846.2017.1302068</t>
+  </si>
+  <si>
+    <t>ESRI Paper</t>
+  </si>
+  <si>
+    <t>Reproduction of the contents is permissible provided the source is acknowledged.</t>
+  </si>
+  <si>
+    <t>RECAST Section 1 - April 2020</t>
+  </si>
+  <si>
     <t>http://www.esru.strath.ac.uk/EandE/Web_sites/16-17/Retrofit/uploads/1/0/5/7/105723345/phpp_sap_and_sbem_comparison_study.pdf</t>
   </si>
   <si>
-    <t>No Retrofit Required for Heat Pump</t>
-  </si>
-  <si>
-    <t>Shallow Retrofit Required for Heat Pump</t>
-  </si>
-  <si>
-    <t>Deep Retrofit Required for Heat Pump</t>
-  </si>
-  <si>
-    <t>DayNite</t>
+    <t>Post-Retrofit Rating</t>
+  </si>
+  <si>
+    <t>Pre-Retrofit Rating</t>
   </si>
 </sst>
 </file>
@@ -772,17 +770,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1076,11 +1088,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="5.5"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1090,8 +1097,24 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,6 +1252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="50">
     <border>
@@ -1844,507 +1873,566 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="18" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="43" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="44" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="15" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="29" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="18" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="42" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="42" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="15" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="15" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="15" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="44" fillId="20" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="20% - Colore 2" xfId="10" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
     <cellStyle name="Comma 2" xfId="11" xr:uid="{0ABA8B51-FCCD-40DB-958F-AE78849A8FFE}"/>
+    <cellStyle name="Currency" xfId="15" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="4" xr:uid="{E1BCE1F9-C32B-49FB-A63B-D516C5E840D2}"/>
@@ -3318,23 +3406,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>45242</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>50006</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109571" name="Text Box 3">
+        <xdr:cNvPr id="4" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538D1452-9F67-463D-8469-C41551889809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83CAA86-A9C6-4967-BF8D-5B3023197EE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,8 +3432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18595180" y="4050506"/>
-          <a:ext cx="7789069" cy="828675"/>
+          <a:off x="20297775" y="4400550"/>
+          <a:ext cx="8524875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3759,7 +3847,9 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3908,14 +3998,14 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
+      <c r="A17" s="191" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -3953,13 +4043,13 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="168" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
+      <c r="B20" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
@@ -3971,15 +4061,15 @@
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
@@ -3993,57 +4083,57 @@
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
+      <c r="B22" s="193" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="B23" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
+      <c r="A25" s="194"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="166"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -4209,218 +4299,226 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B1:T45"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="93.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="16"/>
-    <col min="7" max="7" width="18.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="96.5703125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="18.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="96.5703125" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="G2" s="171" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="147"/>
+      <c r="H2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="173"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="I2" s="197"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="148"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="25">
+        <v>44136</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="149"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="31">
+        <v>44169</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="149"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="31">
+        <v>44166</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="149"/>
+      <c r="H6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="35">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="149"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="26">
-        <v>44136</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="32">
-        <v>44169</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="35">
         <v>44166</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="36">
-        <v>43862</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="36">
-        <v>44166</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="E8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="149"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4432,509 +4530,515 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="35">
+        <v>44044</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="149"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="35">
+        <v>44136</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="149"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="35">
+        <v>44013</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="149"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="35">
+        <v>44136</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="149"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="35">
+        <v>44136</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="149"/>
+    </row>
+    <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="35">
+        <v>44105</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="149"/>
+    </row>
+    <row r="15" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="35">
+        <v>44105</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="149"/>
+      <c r="H15" s="195" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="197"/>
+    </row>
+    <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="35">
+        <v>44166</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="149"/>
+      <c r="H16" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="35">
+        <v>44166</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="149"/>
+      <c r="H17" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="42">
+        <v>44166</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="149"/>
+      <c r="H18" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="57">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="198" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="150"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="146" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="59">
+        <v>43952</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="154" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="59">
+        <v>43952</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="157" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="158">
+        <v>43952</v>
+      </c>
+      <c r="E24" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="59">
+        <v>43466</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="153" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="59">
+        <v>43952</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="155" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="156" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="161" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="158">
+        <v>43983</v>
+      </c>
+      <c r="E27" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="59">
+        <v>43983</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="149"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="149"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="149"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="149"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="149"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="149"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="149"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="149"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="195" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="147"/>
+      <c r="H38" s="201" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="202"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="148"/>
+      <c r="H39" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="31" t="s">
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="36">
-        <v>44044</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="36">
-        <v>44136</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="36">
-        <v>44013</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="36">
-        <v>44136</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="36">
-        <v>44136</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="36">
-        <v>44105</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="36">
-        <v>44105</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="36">
+      <c r="D40" s="65">
         <v>44166</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="36">
-        <v>44166</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="43">
-        <v>44166</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="G20" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="173"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="G22" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53"/>
-      <c r="G23" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="59">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="61">
-        <v>43466</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="61">
-        <v>43952</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="61">
-        <v>43952</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="61">
-        <v>43983</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="61">
-        <v>44044</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="61">
-        <v>44044</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="65">
-        <v>44044</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="171" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="G38" s="177" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="178"/>
-    </row>
-    <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="70">
-        <v>44166</v>
-      </c>
-      <c r="E40" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-    </row>
-    <row r="41" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="69"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-    </row>
-    <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-    </row>
-    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="72"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-    </row>
-    <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="72"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="E40" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="152"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="64"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="151"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="67"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="67"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{0675D694-3662-48D4-A15C-74FF2A242E2E}"/>
-    <hyperlink ref="C26" r:id="rId2" xr:uid="{60161292-23D6-4BE6-8844-1ED64BFDC499}"/>
-    <hyperlink ref="C29" r:id="rId3" display="https://storage.topten.eu/source/files/WhiteGoods_in_Europe_June15.pdf" xr:uid="{F262E45C-C6EF-45C8-B96A-E3768E7F3D74}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{E672637D-1E23-491A-BFE4-80F834BC4B95}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{0440E293-B3E8-4D45-85CC-421540DB00AD}"/>
-    <hyperlink ref="C32" r:id="rId6" xr:uid="{9B0727B9-96A2-4590-A456-8678D215F088}"/>
-    <hyperlink ref="C34" r:id="rId7" xr:uid="{F60D63AD-5F87-4B12-83DC-2BE3D1F3B981}"/>
-    <hyperlink ref="C36" r:id="rId8" xr:uid="{1F6E5E4D-581E-4F2F-AA32-77F6DA5D2B25}"/>
-    <hyperlink ref="C33" r:id="rId9" xr:uid="{9A8E48D4-E870-45E1-81C3-470DB5464BAF}"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{9D97BC3C-B4D2-4506-8CFC-A3E5927AAC5F}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{FBAC4B9D-D0CB-4BD4-BC18-200BE6892338}"/>
+    <hyperlink ref="C28" r:id="rId3" xr:uid="{E672637D-1E23-491A-BFE4-80F834BC4B95}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{60161292-23D6-4BE6-8844-1ED64BFDC499}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{46B64FEE-7460-437F-8951-0FFFF029BDE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4945,546 +5049,546 @@
   </sheetPr>
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="85" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="85" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="85" customWidth="1"/>
-    <col min="9" max="9" width="2" style="85" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.85546875" style="85" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="85"/>
-    <col min="15" max="15" width="9.5703125" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="85"/>
-    <col min="17" max="21" width="11.140625" style="85" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="14" style="80" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="80" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" style="80" customWidth="1"/>
+    <col min="9" max="9" width="2" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.85546875" style="80" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="80"/>
+    <col min="15" max="15" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="80"/>
+    <col min="17" max="21" width="11.140625" style="80" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="78"/>
+      <c r="A1" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
-        <v>83</v>
+      <c r="A2" s="74" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="K4" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="90" t="s">
-        <v>143</v>
+      <c r="A4" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="K4" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="85" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="203" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="203"/>
+    </row>
+    <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="U6" s="84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="S5" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="T5" s="179" t="s">
-        <v>140</v>
-      </c>
-      <c r="U5" s="179"/>
-    </row>
-    <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="80" t="str">
+      <c r="B7" s="75" t="str">
         <f t="shared" ref="B7:B12" si="0">"R-RTFT-"&amp;Q7&amp;"_"&amp;R7</f>
         <v>R-RTFT-Apt_Shallow</v>
       </c>
-      <c r="C7" s="80" t="str">
+      <c r="C7" s="75" t="str">
         <f t="shared" ref="C7:C12" si="1">"Residential "&amp;Q7&amp;" - "&amp;R7&amp;" retrofit"</f>
         <v>Residential Apt - Shallow retrofit</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80" t="str">
+      <c r="E7" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75" t="str">
         <f t="shared" ref="J7:J12" si="2">B7</f>
         <v>R-RTFT-Apt_Shallow</v>
       </c>
-      <c r="K7" s="80" t="str">
+      <c r="K7" s="75" t="str">
         <f>"RSDSH_"&amp;Q7</f>
         <v>RSDSH_Apt</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="75">
         <v>2020</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="75">
         <v>50</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="75">
         <f>U7</f>
-        <v>5.9072960538612464E-3</v>
-      </c>
-      <c r="O7" s="161">
+        <v>3.4901289446216035E-3</v>
+      </c>
+      <c r="O7" s="139">
         <f>Data!U59/1000</f>
         <v>11.196414691601362</v>
       </c>
-      <c r="Q7" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="85">
+      <c r="Q7" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="80">
         <v>1.6E-2</v>
       </c>
-      <c r="T7" s="163">
+      <c r="T7" s="141">
         <f>Data!X59</f>
-        <v>0.36920600336632792</v>
-      </c>
-      <c r="U7" s="85">
+        <v>0.21813305903885022</v>
+      </c>
+      <c r="U7" s="80">
         <f>S7*T7</f>
-        <v>5.9072960538612464E-3</v>
+        <v>3.4901289446216035E-3</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="88" t="str">
+      <c r="A8" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="83" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Apt_Deep</v>
       </c>
-      <c r="C8" s="88" t="str">
+      <c r="C8" s="83" t="str">
         <f t="shared" si="1"/>
         <v>Residential Apt - Deep retrofit</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="88" t="str">
+      <c r="E8" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="83" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Apt_Deep</v>
       </c>
-      <c r="K8" s="88" t="str">
+      <c r="K8" s="83" t="str">
         <f t="shared" ref="K8:K12" si="3">"RSDSH_"&amp;Q8</f>
         <v>RSDSH_Apt</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="83">
         <v>2020</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="83">
         <v>50</v>
       </c>
-      <c r="N8" s="88">
+      <c r="N8" s="83">
         <f t="shared" ref="N8:N12" si="4">U8</f>
-        <v>8.1965689357556444E-3</v>
-      </c>
-      <c r="O8" s="162">
+        <v>6.053757862810245E-3</v>
+      </c>
+      <c r="O8" s="140">
         <f>Data!U60/1000</f>
-        <v>15.982779351113084</v>
-      </c>
-      <c r="Q8" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="R8" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="S8" s="86">
+        <v>17.266169771719472</v>
+      </c>
+      <c r="Q8" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="81">
         <v>1.6E-2</v>
       </c>
-      <c r="T8" s="164">
+      <c r="T8" s="142">
         <f>Data!X60</f>
-        <v>0.51228555848472779</v>
-      </c>
-      <c r="U8" s="86">
+        <v>0.37835986642564029</v>
+      </c>
+      <c r="U8" s="81">
         <f t="shared" ref="U8:U12" si="5">S8*T8</f>
-        <v>8.1965689357556444E-3</v>
+        <v>6.053757862810245E-3</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="80" t="str">
+      <c r="A9" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Att_Shallow</v>
       </c>
-      <c r="C9" s="80" t="str">
+      <c r="C9" s="75" t="str">
         <f t="shared" si="1"/>
         <v>Residential Att - Shallow retrofit</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80" t="str">
+      <c r="E9" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Att_Shallow</v>
       </c>
-      <c r="K9" s="80" t="str">
+      <c r="K9" s="75" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Att</v>
       </c>
-      <c r="L9" s="80">
+      <c r="L9" s="75">
         <v>2020</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="75">
         <v>50</v>
       </c>
-      <c r="N9" s="80">
+      <c r="N9" s="75">
         <f t="shared" si="4"/>
-        <v>9.413814304323951E-3</v>
-      </c>
-      <c r="O9" s="161">
+        <v>5.4263583940724319E-3</v>
+      </c>
+      <c r="O9" s="139">
         <f>Data!S59/1000</f>
         <v>9.6084735804205188</v>
       </c>
-      <c r="Q9" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="R9" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="S9" s="85">
+      <c r="Q9" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" s="80">
         <v>2.69E-2</v>
       </c>
-      <c r="T9" s="163">
+      <c r="T9" s="141">
         <f>Data!V59</f>
-        <v>0.3499559220938272</v>
-      </c>
-      <c r="U9" s="85">
+        <v>0.20172336037443986</v>
+      </c>
+      <c r="U9" s="80">
         <f t="shared" si="5"/>
-        <v>9.413814304323951E-3</v>
+        <v>5.4263583940724319E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="88" t="str">
+      <c r="A10" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="83" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Att_Deep</v>
       </c>
-      <c r="C10" s="88" t="str">
+      <c r="C10" s="83" t="str">
         <f t="shared" si="1"/>
         <v>Residential Att - Deep retrofit</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="88" t="str">
+      <c r="E10" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="83" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Att_Deep</v>
       </c>
-      <c r="K10" s="88" t="str">
+      <c r="K10" s="83" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Att</v>
       </c>
-      <c r="L10" s="88">
+      <c r="L10" s="83">
         <v>2020</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="83">
         <v>50</v>
       </c>
-      <c r="N10" s="88">
+      <c r="N10" s="83">
         <f t="shared" si="4"/>
-        <v>1.5328198459374942E-2</v>
-      </c>
-      <c r="O10" s="162">
+        <v>1.186536422684824E-2</v>
+      </c>
+      <c r="O10" s="140">
         <f>Data!S60/1000</f>
-        <v>20.5630239417189</v>
-      </c>
-      <c r="Q10" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="R10" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="S10" s="86">
+        <v>22.294679797673528</v>
+      </c>
+      <c r="Q10" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="81">
         <v>2.69E-2</v>
       </c>
-      <c r="T10" s="164">
+      <c r="T10" s="142">
         <f>Data!V60</f>
-        <v>0.56982150406598298</v>
-      </c>
-      <c r="U10" s="86">
+        <v>0.44109160694603122</v>
+      </c>
+      <c r="U10" s="81">
         <f t="shared" si="5"/>
-        <v>1.5328198459374942E-2</v>
+        <v>1.186536422684824E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="80" t="str">
+      <c r="A11" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="75" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Det_Shallow</v>
       </c>
-      <c r="C11" s="80" t="str">
+      <c r="C11" s="75" t="str">
         <f t="shared" si="1"/>
         <v>Residential Det - Shallow retrofit</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80" t="str">
+      <c r="E11" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Det_Shallow</v>
       </c>
-      <c r="K11" s="80" t="str">
+      <c r="K11" s="75" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Det</v>
       </c>
-      <c r="L11" s="80">
+      <c r="L11" s="75">
         <v>2020</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="75">
         <v>50</v>
       </c>
-      <c r="N11" s="80">
+      <c r="N11" s="75">
         <f t="shared" si="4"/>
-        <v>1.6649605686878701E-2</v>
-      </c>
-      <c r="O11" s="161">
+        <v>9.5809185652412903E-3</v>
+      </c>
+      <c r="O11" s="139">
         <f>Data!T59/1000</f>
         <v>14.333869646601945</v>
       </c>
-      <c r="Q11" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" s="85">
+      <c r="Q11" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" s="80">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="T11" s="163">
+      <c r="T11" s="141">
         <f>Data!W59</f>
-        <v>0.34759093292022342</v>
-      </c>
-      <c r="U11" s="85">
+        <v>0.2000191767273756</v>
+      </c>
+      <c r="U11" s="80">
         <f t="shared" si="5"/>
-        <v>1.6649605686878701E-2</v>
+        <v>9.5809185652412903E-3</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="88" t="str">
+      <c r="A12" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="83" t="str">
         <f t="shared" si="0"/>
         <v>R-RTFT-Det_Deep</v>
       </c>
-      <c r="C12" s="88" t="str">
+      <c r="C12" s="83" t="str">
         <f t="shared" si="1"/>
         <v>Residential Det - Deep retrofit</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="88" t="str">
+      <c r="E12" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="83" t="str">
         <f t="shared" si="2"/>
         <v>R-RTFT-Det_Deep</v>
       </c>
-      <c r="K12" s="88" t="str">
+      <c r="K12" s="83" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Det</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="83">
         <v>2020</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="83">
         <v>50</v>
       </c>
-      <c r="N12" s="88">
+      <c r="N12" s="83">
         <f t="shared" si="4"/>
-        <v>2.7503185042088787E-2</v>
-      </c>
-      <c r="O12" s="162">
+        <v>2.0987111338457227E-2</v>
+      </c>
+      <c r="O12" s="140">
         <f>Data!T60/1000</f>
-        <v>22.25938755708523</v>
-      </c>
-      <c r="Q12" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="S12" s="86">
+        <v>24.114356797661486</v>
+      </c>
+      <c r="Q12" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="81">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="T12" s="164">
+      <c r="T12" s="142">
         <f>Data!W60</f>
-        <v>0.57417922843609159</v>
-      </c>
-      <c r="U12" s="86">
+        <v>0.43814428681539097</v>
+      </c>
+      <c r="U12" s="81">
         <f t="shared" si="5"/>
-        <v>2.7503185042088787E-2</v>
+        <v>2.0987111338457227E-2</v>
       </c>
     </row>
     <row r="19" spans="22:26" x14ac:dyDescent="0.2">
@@ -5726,10 +5830,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A6DB4B-6EBE-42F5-800F-C9AB0144B3BB}">
-  <dimension ref="A1:AI60"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5752,2925 +5856,3554 @@
     <col min="19" max="19" width="12.42578125" customWidth="1"/>
     <col min="20" max="21" width="12.28515625" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="183" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="184"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="183" t="s">
-        <v>202</v>
-      </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
-        <v>212</v>
-      </c>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="Y2" s="125" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="3:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="L3" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="M3" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q3" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="S3" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="T3" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="U3" s="94" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y3" s="126"/>
+    <row r="1" spans="3:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="207" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="208"/>
+      <c r="T2" s="209"/>
+      <c r="AD2" s="118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="3:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="206" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="L3" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="S3" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="U3" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y3" s="119"/>
       <c r="AB3" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="AE3" t="s">
-        <v>215</v>
+        <v>189</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="95" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="98">
+        <v>107</v>
+      </c>
+      <c r="AM3" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="175"/>
+    </row>
+    <row r="4" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="92">
         <v>1.4285714285714286</v>
       </c>
-      <c r="M4" s="98">
+      <c r="M4" s="92">
         <v>1.375</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="92">
         <v>1.3478893740902476</v>
       </c>
-      <c r="O4" s="99">
+      <c r="O4" s="93">
         <v>13455.569795438192</v>
       </c>
-      <c r="P4" s="99">
+      <c r="P4" s="93">
         <v>21274.101374868016</v>
       </c>
-      <c r="Q4" s="100">
+      <c r="Q4" s="94">
         <v>27468.241730097478</v>
       </c>
-      <c r="R4" s="99">
+      <c r="R4" s="93">
         <v>52.179898737999999</v>
       </c>
-      <c r="S4" s="99">
+      <c r="S4" s="93">
         <v>54.365575896999999</v>
       </c>
-      <c r="T4" s="100">
+      <c r="T4" s="94">
         <v>56</v>
       </c>
-      <c r="U4" s="145">
+      <c r="U4" s="124">
         <f>AVERAGE(R4:T4)</f>
         <v>54.181824878333337</v>
       </c>
-      <c r="Y4" s="127"/>
-    </row>
-    <row r="5" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C5" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="99">
+      <c r="V4" s="186">
+        <f>AVERAGE(AN5:AP5)</f>
+        <v>1.383820267553892</v>
+      </c>
+      <c r="W4" s="186">
+        <f>SUM(U4*V4)</f>
+        <v>74.977907399693365</v>
+      </c>
+      <c r="Y4" s="120"/>
+      <c r="AN4" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO4" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP4" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="93">
         <v>15472.073727176739</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="93">
         <v>20378.706337556119</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="93">
         <v>9418.8988568067343</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="95">
         <v>45269.678921539591</v>
       </c>
-      <c r="K5" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="103">
+      <c r="K5" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="97">
         <v>1</v>
       </c>
-      <c r="M5" s="103">
+      <c r="M5" s="97">
         <v>1</v>
       </c>
-      <c r="N5" s="103">
+      <c r="N5" s="97">
         <v>1</v>
       </c>
-      <c r="O5" s="104">
+      <c r="O5" s="98">
         <v>7459.2913438514906</v>
       </c>
-      <c r="P5" s="104">
+      <c r="P5" s="98">
         <v>9537.7783975583752</v>
       </c>
-      <c r="Q5" s="105">
+      <c r="Q5" s="99">
         <v>9433.9012004747347</v>
       </c>
-      <c r="R5" s="104">
+      <c r="R5" s="98">
         <v>90.810760361000007</v>
       </c>
-      <c r="S5" s="104">
+      <c r="S5" s="98">
         <v>89.503049435999998</v>
       </c>
-      <c r="T5" s="105">
+      <c r="T5" s="99">
         <v>90</v>
       </c>
-      <c r="U5" s="145">
+      <c r="U5" s="124">
         <f t="shared" ref="U5:U12" si="0">AVERAGE(R5:T5)</f>
         <v>90.104603265666654</v>
       </c>
-      <c r="AA5" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB5">
-        <f>AVERAGE(AH5:AI5)</f>
-        <v>235</v>
-      </c>
-      <c r="AC5" s="129">
+      <c r="V5" s="186">
+        <f>AVERAGE(AN8:AP8)</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="186">
+        <f t="shared" ref="W5:W12" si="1">SUM(U5*V5)</f>
+        <v>90.104603265666654</v>
+      </c>
+      <c r="AA5" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB5" s="182">
+        <f>AVERAGE(AH5:AI5)*AO5</f>
+        <v>323.125</v>
+      </c>
+      <c r="AC5" s="183">
+        <f>AF5*AP5</f>
+        <v>539.15574963609902</v>
+      </c>
+      <c r="AD5" s="183">
+        <f>AG5*AN5</f>
+        <v>200</v>
+      </c>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="165">
         <v>400</v>
       </c>
-      <c r="AD5" s="129">
+      <c r="AG5" s="165">
         <v>140</v>
       </c>
-      <c r="AH5" s="130">
+      <c r="AH5" s="166">
         <v>190</v>
       </c>
-      <c r="AI5" s="129">
+      <c r="AI5" s="165">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C6" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="104">
+      <c r="AM5" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN5" s="176">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AO5" s="176">
+        <v>1.375</v>
+      </c>
+      <c r="AP5" s="176">
+        <v>1.3478893740902476</v>
+      </c>
+    </row>
+    <row r="6" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="98">
         <v>9537.7783975583752</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="98">
         <v>9433.9012004747347</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="98">
         <v>7459.2913438514906</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="100">
         <v>26430.9709418846</v>
       </c>
-      <c r="K6" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="108">
+      <c r="K6" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="102">
         <v>1</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="102">
         <v>1</v>
       </c>
-      <c r="N6" s="108">
+      <c r="N6" s="102">
         <v>1</v>
       </c>
-      <c r="O6" s="109">
+      <c r="O6" s="103">
         <v>14041.847426430093</v>
       </c>
-      <c r="P6" s="109">
+      <c r="P6" s="103">
         <v>17545.09295382088</v>
       </c>
-      <c r="Q6" s="110">
+      <c r="Q6" s="104">
         <v>20090.949195825138</v>
       </c>
-      <c r="R6" s="109">
+      <c r="R6" s="103">
         <v>114.211320254</v>
       </c>
-      <c r="S6" s="109">
+      <c r="S6" s="103">
         <v>116.155508754</v>
       </c>
-      <c r="T6" s="110">
+      <c r="T6" s="104">
         <v>116</v>
       </c>
-      <c r="U6" s="145">
+      <c r="U6" s="124">
         <f t="shared" si="0"/>
         <v>115.45560966933333</v>
       </c>
-      <c r="AA6" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6:AB19" si="1">AVERAGE(AH6:AI6)</f>
-        <v>470</v>
-      </c>
-      <c r="AC6" s="132">
+      <c r="V6" s="186">
+        <f t="shared" ref="V6:V7" si="2">AVERAGE(AN9:AP9)</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="186">
+        <f t="shared" si="1"/>
+        <v>115.45560966933333</v>
+      </c>
+      <c r="AA6" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB6" s="182">
+        <f t="shared" ref="AB6:AB19" si="3">AVERAGE(AH6:AI6)*AO6</f>
+        <v>646.25</v>
+      </c>
+      <c r="AC6" s="184">
+        <f t="shared" ref="AC6:AC19" si="4">AF6*AP6</f>
+        <v>1078.311499272198</v>
+      </c>
+      <c r="AD6" s="184">
+        <f t="shared" ref="AD6:AD19" si="5">AG6*AN6</f>
+        <v>400</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="168">
         <v>800</v>
       </c>
-      <c r="AD6" s="132">
+      <c r="AG6" s="168">
         <v>280</v>
       </c>
-      <c r="AH6" s="133">
+      <c r="AH6" s="169">
         <v>380</v>
       </c>
-      <c r="AI6" s="132">
+      <c r="AI6" s="168">
         <v>560</v>
       </c>
-    </row>
-    <row r="7" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C7" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="109">
+      <c r="AM6" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN6" s="176">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AO6" s="176">
+        <v>1.375</v>
+      </c>
+      <c r="AP6" s="176">
+        <v>1.3478893740902476</v>
+      </c>
+    </row>
+    <row r="7" spans="3:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="C7" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="103">
         <v>17545.09295382088</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="103">
         <v>20090.949195825138</v>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="103">
         <v>14041.847426430093</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="105">
         <v>51677.889576076108</v>
       </c>
-      <c r="K7" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="103">
+      <c r="K7" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="97">
         <v>1</v>
       </c>
-      <c r="M7" s="103">
+      <c r="M7" s="97">
         <v>1</v>
       </c>
-      <c r="N7" s="103">
+      <c r="N7" s="97">
         <v>1</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="98">
         <v>19924.480375055824</v>
       </c>
-      <c r="P7" s="104">
+      <c r="P7" s="98">
         <v>49768.849685929476</v>
       </c>
-      <c r="Q7" s="105">
+      <c r="Q7" s="99">
         <v>53466.210043981671</v>
       </c>
-      <c r="R7" s="104">
+      <c r="R7" s="98">
         <v>138.494823139</v>
       </c>
-      <c r="S7" s="104">
+      <c r="S7" s="98">
         <v>140.28979616699999</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="99">
         <v>140</v>
       </c>
-      <c r="U7" s="145">
+      <c r="U7" s="124">
         <f t="shared" si="0"/>
         <v>139.59487310199998</v>
       </c>
-      <c r="AA7" s="131" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB7">
+      <c r="V7" s="186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="186">
         <f t="shared" si="1"/>
-        <v>585</v>
-      </c>
-      <c r="AC7" s="132">
+        <v>139.59487310199998</v>
+      </c>
+      <c r="AA7" s="167" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="182">
+        <f t="shared" si="3"/>
+        <v>804.375</v>
+      </c>
+      <c r="AC7" s="184">
+        <f t="shared" si="4"/>
+        <v>1213.1004366812228</v>
+      </c>
+      <c r="AD7" s="184">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="168">
         <v>900</v>
       </c>
-      <c r="AD7" s="132">
+      <c r="AG7" s="168">
         <v>350</v>
       </c>
-      <c r="AH7" s="133">
+      <c r="AH7" s="169">
         <v>470</v>
       </c>
-      <c r="AI7" s="132">
+      <c r="AI7" s="168">
         <v>700</v>
       </c>
-    </row>
-    <row r="8" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C8" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="104">
+      <c r="AM7" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN7" s="176">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AO7" s="176">
+        <v>1.375</v>
+      </c>
+      <c r="AP7" s="176">
+        <v>1.3478893740902476</v>
+      </c>
+    </row>
+    <row r="8" spans="3:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="C8" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="98">
         <v>49768.849685929476</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="98">
         <v>53466.210043981671</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="98">
         <v>19924.480375055824</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="100">
         <v>123159.54010496697</v>
       </c>
-      <c r="K8" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="108">
+      <c r="K8" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="102">
         <v>0.62350597609561753</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="102">
         <v>0.63854266538830295</v>
       </c>
-      <c r="N8" s="108">
+      <c r="N8" s="102">
         <v>0.65110565110565111</v>
       </c>
-      <c r="O8" s="109">
+      <c r="O8" s="103">
         <v>36727.496963354082</v>
       </c>
-      <c r="P8" s="109">
+      <c r="P8" s="103">
         <v>180165.78839768126</v>
       </c>
-      <c r="Q8" s="110">
+      <c r="Q8" s="104">
         <v>163635.17790575436</v>
       </c>
-      <c r="R8" s="109">
+      <c r="R8" s="103">
         <v>187.42567462599999</v>
       </c>
-      <c r="S8" s="109">
+      <c r="S8" s="103">
         <v>189.15351469199999</v>
       </c>
-      <c r="T8" s="110">
+      <c r="T8" s="104">
         <v>190</v>
       </c>
-      <c r="U8" s="145">
+      <c r="U8" s="124">
         <f t="shared" si="0"/>
         <v>188.85972977266667</v>
       </c>
-      <c r="AA8" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB8">
+      <c r="V8" s="186">
+        <f>AVERAGE(AN11:AP11)</f>
+        <v>0.6377180975298572</v>
+      </c>
+      <c r="W8" s="186">
         <f t="shared" si="1"/>
+        <v>120.43926757062792</v>
+      </c>
+      <c r="AA8" s="167" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB8" s="182">
+        <f t="shared" si="3"/>
         <v>745</v>
       </c>
-      <c r="AC8" s="134">
+      <c r="AC8" s="184">
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-      <c r="AD8" s="132">
+      <c r="AD8" s="184">
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="AH8" s="133">
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="170">
+        <v>1200</v>
+      </c>
+      <c r="AG8" s="168">
+        <v>440</v>
+      </c>
+      <c r="AH8" s="169">
         <v>590</v>
       </c>
-      <c r="AI8" s="132">
+      <c r="AI8" s="168">
         <v>900</v>
       </c>
-    </row>
-    <row r="9" spans="3:35" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="109">
+      <c r="AM8" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN8" s="177">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="177">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="103">
         <v>282151.52747564798</v>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="103">
         <v>251318.93361374349</v>
       </c>
-      <c r="F9" s="109">
+      <c r="F9" s="103">
         <v>58904.8034364337</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="105">
         <v>592375.26452582516</v>
       </c>
-      <c r="I9" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="K9" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="103">
+      <c r="I9" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="97">
         <v>0.64275466284074612</v>
       </c>
-      <c r="M9" s="103">
+      <c r="M9" s="97">
         <v>0.6669136717302705</v>
       </c>
-      <c r="N9" s="103">
+      <c r="N9" s="97">
         <v>0.67542972699696668</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="98">
         <v>28113.665794547433</v>
       </c>
-      <c r="P9" s="104">
+      <c r="P9" s="98">
         <v>125131.02640900291</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="99">
         <v>112572.38085312897</v>
       </c>
-      <c r="R9" s="104">
+      <c r="R9" s="98">
         <v>260.96259530600003</v>
       </c>
-      <c r="S9" s="104">
+      <c r="S9" s="98">
         <v>259.598229774</v>
       </c>
-      <c r="T9" s="105">
+      <c r="T9" s="99">
         <v>261</v>
       </c>
-      <c r="U9" s="145">
+      <c r="U9" s="124">
         <f t="shared" si="0"/>
         <v>260.5202750266667</v>
       </c>
-      <c r="AA9" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB9">
+      <c r="V9" s="186">
+        <f>AVERAGE(AN14:AP14)</f>
+        <v>0.66169935385599443</v>
+      </c>
+      <c r="W9" s="186">
         <f t="shared" si="1"/>
+        <v>172.38609765153132</v>
+      </c>
+      <c r="AA9" s="167" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB9" s="182">
+        <f t="shared" si="3"/>
         <v>950</v>
       </c>
-      <c r="AC9" s="134">
+      <c r="AC9" s="184">
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="AD9" s="132">
+      <c r="AD9" s="184">
+        <f t="shared" si="5"/>
         <v>570</v>
       </c>
-      <c r="AH9" s="133">
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="170">
+        <v>1500</v>
+      </c>
+      <c r="AG9" s="168">
+        <v>570</v>
+      </c>
+      <c r="AH9" s="169">
         <v>800</v>
       </c>
-      <c r="AI9" s="134">
+      <c r="AI9" s="170">
         <v>1100</v>
       </c>
-    </row>
-    <row r="10" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C10" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="104">
+      <c r="AM9" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN9" s="178">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="178">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="C10" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="98">
         <v>187627.02237661046</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="98">
         <v>166667.79141279124</v>
       </c>
-      <c r="F10" s="104">
+      <c r="F10" s="98">
         <v>43739.341649106158</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="100">
         <v>398034.15543850785</v>
       </c>
-      <c r="K10" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="108">
+      <c r="K10" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="102">
         <v>0.65947786606129399</v>
       </c>
-      <c r="M10" s="108">
+      <c r="M10" s="102">
         <v>0.68235651381718798</v>
       </c>
-      <c r="N10" s="108">
+      <c r="N10" s="102">
         <v>0.68787878787878787</v>
       </c>
-      <c r="O10" s="109">
+      <c r="O10" s="103">
         <v>16993.344189187668</v>
       </c>
-      <c r="P10" s="109">
+      <c r="P10" s="103">
         <v>69203.844283713814</v>
       </c>
-      <c r="Q10" s="110">
+      <c r="Q10" s="104">
         <v>55991.061950391217</v>
       </c>
-      <c r="R10" s="109">
+      <c r="R10" s="103">
         <v>336.50531067600002</v>
       </c>
-      <c r="S10" s="109">
+      <c r="S10" s="103">
         <v>338.29602796400002</v>
       </c>
-      <c r="T10" s="110">
+      <c r="T10" s="104">
         <v>338</v>
       </c>
-      <c r="U10" s="145">
+      <c r="U10" s="124">
         <f t="shared" si="0"/>
         <v>337.60044621333333</v>
       </c>
-      <c r="AA10" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB10">
+      <c r="V10" s="186">
+        <f>AVERAGE(AN16:AP16)</f>
+        <v>0.67657105591908995</v>
+      </c>
+      <c r="W10" s="186">
         <f t="shared" si="1"/>
+        <v>228.41069037331087</v>
+      </c>
+      <c r="AA10" s="167" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="182">
+        <f t="shared" si="3"/>
         <v>1150</v>
       </c>
-      <c r="AC10" s="134">
+      <c r="AC10" s="184">
+        <f t="shared" si="4"/>
         <v>1900</v>
       </c>
-      <c r="AD10" s="132">
+      <c r="AD10" s="184">
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
-      <c r="AH10" s="133">
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="170">
+        <v>1900</v>
+      </c>
+      <c r="AG10" s="168">
+        <v>700</v>
+      </c>
+      <c r="AH10" s="169">
         <v>900</v>
       </c>
-      <c r="AI10" s="134">
+      <c r="AI10" s="170">
         <v>1400</v>
       </c>
-    </row>
-    <row r="11" spans="3:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C11" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="109">
+      <c r="AM10" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN10" s="177">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="177">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="C11" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="103">
         <v>101418.89596184672</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="103">
         <v>81396.697989555512</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="103">
         <v>25767.876472761334</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="105">
         <v>208583.47042416356</v>
       </c>
-      <c r="K11" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="103">
+      <c r="K11" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="97">
         <v>0.67760942760942755</v>
       </c>
-      <c r="M11" s="103">
+      <c r="M11" s="97">
         <v>0.69366197183098599</v>
       </c>
-      <c r="N11" s="103">
+      <c r="N11" s="97">
         <v>0.69895091794679653</v>
       </c>
-      <c r="O11" s="104">
+      <c r="O11" s="98">
         <v>8355.7192320215872</v>
       </c>
-      <c r="P11" s="104">
+      <c r="P11" s="98">
         <v>34768.978124585461</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="99">
         <v>30223.340670968584</v>
       </c>
-      <c r="R11" s="104">
+      <c r="R11" s="98">
         <v>412.60313041799998</v>
       </c>
-      <c r="S11" s="104">
+      <c r="S11" s="98">
         <v>413.05174855199999</v>
       </c>
-      <c r="T11" s="105">
+      <c r="T11" s="99">
         <v>415</v>
       </c>
-      <c r="U11" s="145">
+      <c r="U11" s="124">
         <f t="shared" si="0"/>
         <v>413.55162632333332</v>
       </c>
-      <c r="AA11" s="131" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB11">
+      <c r="V11" s="186">
+        <f t="shared" ref="V11:V12" si="6">AVERAGE(AN17:AP17)</f>
+        <v>0.67657105591908995</v>
+      </c>
+      <c r="W11" s="186">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="AC11" s="134">
+        <v>279.79706049863455</v>
+      </c>
+      <c r="AA11" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB11" s="182">
+        <f t="shared" si="3"/>
+        <v>862.03259827420902</v>
+      </c>
+      <c r="AC11" s="184">
+        <f t="shared" si="4"/>
+        <v>1432.4324324324325</v>
+      </c>
+      <c r="AD11" s="184">
+        <f t="shared" si="5"/>
+        <v>498.80478087649402</v>
+      </c>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="170">
         <v>2200</v>
       </c>
-      <c r="AD11" s="132">
+      <c r="AG11" s="168">
         <v>800</v>
       </c>
-      <c r="AH11" s="135">
+      <c r="AH11" s="171">
         <v>1100</v>
       </c>
-      <c r="AI11" s="134">
+      <c r="AI11" s="170">
         <v>1600</v>
       </c>
-    </row>
-    <row r="12" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="104">
+      <c r="AM11" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN11" s="178">
+        <v>0.62350597609561753</v>
+      </c>
+      <c r="AO11" s="178">
+        <v>0.63854266538830295</v>
+      </c>
+      <c r="AP11" s="178">
+        <v>0.65110565110565111</v>
+      </c>
+    </row>
+    <row r="12" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="98">
         <v>50123.806027321167</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="98">
         <v>43241.005762967114</v>
       </c>
-      <c r="F12" s="104">
+      <c r="F12" s="98">
         <v>12331.173226884033</v>
       </c>
-      <c r="G12" s="106">
+      <c r="G12" s="100">
         <v>105695.98501717232</v>
       </c>
-      <c r="K12" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="L12" s="114">
+      <c r="K12" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="108">
         <v>0.56219445953286251</v>
       </c>
-      <c r="M12" s="114">
+      <c r="M12" s="108">
         <v>0.54586660910856888</v>
       </c>
-      <c r="N12" s="114">
+      <c r="N12" s="108">
         <v>0.55669942286694751</v>
       </c>
-      <c r="O12" s="115">
+      <c r="O12" s="109">
         <v>8551.6367409636478</v>
       </c>
-      <c r="P12" s="115">
+      <c r="P12" s="109">
         <v>28770.813628890308</v>
       </c>
-      <c r="Q12" s="116">
+      <c r="Q12" s="110">
         <v>43665.016200037615</v>
       </c>
-      <c r="R12" s="115">
+      <c r="R12" s="109">
         <v>602.18691236799998</v>
       </c>
-      <c r="S12" s="115">
+      <c r="S12" s="109">
         <v>604.314151735</v>
       </c>
-      <c r="T12" s="116">
+      <c r="T12" s="110">
         <v>673</v>
       </c>
-      <c r="U12" s="145">
+      <c r="U12" s="124">
         <f t="shared" si="0"/>
         <v>626.50035470099999</v>
       </c>
-      <c r="AA12" s="131" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB12">
+      <c r="V12" s="186">
+        <f t="shared" si="6"/>
+        <v>0.69007410579573669</v>
+      </c>
+      <c r="W12" s="186">
         <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="AC12" s="134">
+        <v>432.33167205100443</v>
+      </c>
+      <c r="AA12" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB12" s="182">
+        <f t="shared" si="3"/>
+        <v>1021.6682646212847</v>
+      </c>
+      <c r="AC12" s="184">
+        <f t="shared" si="4"/>
+        <v>1692.874692874693</v>
+      </c>
+      <c r="AD12" s="184">
+        <f t="shared" si="5"/>
+        <v>623.50597609561748</v>
+      </c>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="170">
         <v>2600</v>
       </c>
-      <c r="AD12" s="134">
+      <c r="AG12" s="170">
         <v>1000</v>
       </c>
-      <c r="AH12" s="135">
+      <c r="AH12" s="171">
         <v>1300</v>
       </c>
-      <c r="AI12" s="134">
+      <c r="AI12" s="170">
         <v>1900</v>
       </c>
-    </row>
-    <row r="13" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="118">
+      <c r="AM12" s="101"/>
+      <c r="AN12" s="178">
+        <v>0.62350597609561753</v>
+      </c>
+      <c r="AO12" s="178">
+        <v>0.63854266538830295</v>
+      </c>
+      <c r="AP12" s="178">
+        <v>0.65110565110565111</v>
+      </c>
+    </row>
+    <row r="13" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="112">
         <v>52706.674394088106</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="112">
         <v>78435.533443104825</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="112">
         <v>15211.172212670604</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="105">
         <v>146353.38004986354</v>
       </c>
-      <c r="O13" s="119">
+      <c r="O13" s="113">
         <v>0.74286208971025169</v>
       </c>
-      <c r="P13" s="119">
+      <c r="P13" s="113">
         <v>0.69963472197389465</v>
       </c>
-      <c r="Q13" s="119">
+      <c r="Q13" s="113">
         <v>0.71303848954914961</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="1"/>
-        <v>1850</v>
-      </c>
-      <c r="AC13" s="134">
+      <c r="AA13" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB13" s="182">
+        <f t="shared" si="3"/>
+        <v>1181.3039309683604</v>
+      </c>
+      <c r="AC13" s="184">
+        <f t="shared" si="4"/>
+        <v>1888.2063882063883</v>
+      </c>
+      <c r="AD13" s="184">
+        <f t="shared" si="5"/>
+        <v>685.85657370517924</v>
+      </c>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="170">
         <v>2900</v>
       </c>
-      <c r="AD13" s="134">
+      <c r="AG13" s="170">
         <v>1100</v>
       </c>
-      <c r="AH13" s="135">
+      <c r="AH13" s="171">
         <v>1500</v>
       </c>
-      <c r="AI13" s="134">
+      <c r="AI13" s="170">
         <v>2200</v>
       </c>
-    </row>
-    <row r="14" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="120" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="145">
+      <c r="AM13" s="101"/>
+      <c r="AN13" s="178">
+        <v>0.62350597609561753</v>
+      </c>
+      <c r="AO13" s="178">
+        <v>0.63854266538830295</v>
+      </c>
+      <c r="AP13" s="178">
+        <v>0.65110565110565111</v>
+      </c>
+    </row>
+    <row r="14" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="124">
         <f>SUM(D5:D13)</f>
         <v>766351.72099999979</v>
       </c>
-      <c r="E14" s="145">
-        <f t="shared" ref="E14:F14" si="2">SUM(E5:E13)</f>
+      <c r="E14" s="124">
+        <f t="shared" ref="E14:F14" si="7">SUM(E5:E13)</f>
         <v>724429.72899999993</v>
       </c>
-      <c r="F14" s="145">
-        <f t="shared" si="2"/>
+      <c r="F14" s="124">
+        <f t="shared" si="7"/>
         <v>206798.88499999998</v>
       </c>
-      <c r="G14" s="121">
+      <c r="G14" s="115">
         <v>1697580.3349999997</v>
       </c>
-      <c r="AA14" s="131" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="1"/>
-        <v>2150</v>
-      </c>
-      <c r="AC14" s="134">
+      <c r="AA14" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB14" s="182">
+        <f t="shared" si="3"/>
+        <v>1433.8643942200815</v>
+      </c>
+      <c r="AC14" s="184">
+        <f t="shared" si="4"/>
+        <v>2364.0040444893834</v>
+      </c>
+      <c r="AD14" s="184">
+        <f t="shared" si="5"/>
+        <v>835.58106169296991</v>
+      </c>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="170">
         <v>3500</v>
       </c>
-      <c r="AD14" s="134">
+      <c r="AG14" s="170">
         <v>1300</v>
       </c>
-      <c r="AH14" s="135">
+      <c r="AH14" s="171">
         <v>1700</v>
       </c>
-      <c r="AI14" s="134">
+      <c r="AI14" s="170">
         <v>2600</v>
       </c>
-    </row>
-    <row r="15" spans="3:35" x14ac:dyDescent="0.2">
+      <c r="AM14" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN14" s="177">
+        <v>0.64275466284074612</v>
+      </c>
+      <c r="AO14" s="177">
+        <v>0.6669136717302705</v>
+      </c>
+      <c r="AP14" s="177">
+        <v>0.67542972699696668</v>
+      </c>
+    </row>
+    <row r="15" spans="3:42" ht="15" x14ac:dyDescent="0.2">
       <c r="L15" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA15" s="131" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="1"/>
-        <v>2550</v>
-      </c>
-      <c r="AC15" s="134">
+        <v>185</v>
+      </c>
+      <c r="AA15" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB15" s="182">
+        <f t="shared" si="3"/>
+        <v>1700.6298629121898</v>
+      </c>
+      <c r="AC15" s="184">
+        <f t="shared" si="4"/>
+        <v>2769.2618806875635</v>
+      </c>
+      <c r="AD15" s="184">
+        <f t="shared" si="5"/>
+        <v>964.13199426111919</v>
+      </c>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="170">
         <v>4100</v>
       </c>
-      <c r="AD15" s="134">
+      <c r="AG15" s="170">
         <v>1500</v>
       </c>
-      <c r="AH15" s="135">
+      <c r="AH15" s="171">
         <v>2000</v>
       </c>
-      <c r="AI15" s="134">
+      <c r="AI15" s="170">
         <v>3100</v>
       </c>
-    </row>
-    <row r="16" spans="3:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="177">
+        <v>0.64275466284074612</v>
+      </c>
+      <c r="AO15" s="177">
+        <v>0.6669136717302705</v>
+      </c>
+      <c r="AP15" s="177">
+        <v>0.67542972699696668</v>
+      </c>
+    </row>
+    <row r="16" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L16" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA16" s="131" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="1"/>
-        <v>2900</v>
-      </c>
-      <c r="AC16" s="134">
+        <v>188</v>
+      </c>
+      <c r="O16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA16" s="167" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB16" s="182">
+        <f t="shared" si="3"/>
+        <v>1978.8338900698452</v>
+      </c>
+      <c r="AC16" s="184">
+        <f t="shared" si="4"/>
+        <v>3233.030303030303</v>
+      </c>
+      <c r="AD16" s="184">
+        <f t="shared" si="5"/>
+        <v>1187.0601589103292</v>
+      </c>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="170">
         <v>4700</v>
       </c>
-      <c r="AD16" s="134">
+      <c r="AG16" s="170">
         <v>1800</v>
       </c>
-      <c r="AH16" s="135">
+      <c r="AH16" s="171">
         <v>2300</v>
       </c>
-      <c r="AI16" s="134">
+      <c r="AI16" s="170">
         <v>3500</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="94" t="s">
+      <c r="AM16" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN16" s="178">
+        <v>0.65947786606129399</v>
+      </c>
+      <c r="AO16" s="178">
+        <v>0.68235651381718798</v>
+      </c>
+      <c r="AP16" s="178">
+        <v>0.68787878787878787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17" s="167" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB17" s="182">
+        <f t="shared" si="3"/>
+        <v>2251.7764955967205</v>
+      </c>
+      <c r="AC17" s="184">
+        <f t="shared" si="4"/>
+        <v>3645.7575757575755</v>
+      </c>
+      <c r="AD17" s="184">
+        <f t="shared" si="5"/>
+        <v>1318.955732122588</v>
+      </c>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="170">
+        <v>5300</v>
+      </c>
+      <c r="AG17" s="170">
+        <v>2000</v>
+      </c>
+      <c r="AH17" s="171">
+        <v>2600</v>
+      </c>
+      <c r="AI17" s="170">
+        <v>4000</v>
+      </c>
+      <c r="AM17" s="101"/>
+      <c r="AN17" s="178">
+        <v>0.65947786606129399</v>
+      </c>
+      <c r="AO17" s="178">
+        <v>0.68235651381718798</v>
+      </c>
+      <c r="AP17" s="178">
+        <v>0.68787878787878787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA17" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-      <c r="AC17" s="134">
-        <v>5300</v>
-      </c>
-      <c r="AD17" s="134">
-        <v>2000</v>
-      </c>
-      <c r="AH17" s="135">
-        <v>2600</v>
-      </c>
-      <c r="AI17" s="134">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18" s="145">
+      <c r="F18" s="124">
         <f>SUM(D5:D8)</f>
         <v>92323.794764485472</v>
       </c>
-      <c r="G18" s="145">
+      <c r="G18" s="124">
         <f>SUM(E5:E8)</f>
         <v>103369.76677783766</v>
       </c>
-      <c r="H18" s="145">
+      <c r="H18" s="124">
         <f>SUM(F5:F8)</f>
         <v>50844.518002144141</v>
       </c>
-      <c r="L18" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="O18" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18">
-        <f>1-U4/$U$12</f>
-        <v>0.9135166892216815</v>
-      </c>
-      <c r="Q18">
-        <f>1-U4/$U$11</f>
-        <v>0.86898413298471344</v>
-      </c>
-      <c r="R18" s="124">
-        <f>1-U4/$U$10</f>
-        <v>0.83950902468862476</v>
-      </c>
-      <c r="S18" s="124">
-        <f>1-U4/$U$9</f>
-        <v>0.79202453677439377</v>
-      </c>
-      <c r="T18" s="124">
-        <f>1-U4/$U$8</f>
-        <v>0.71311075715530881</v>
-      </c>
-      <c r="U18" s="124">
-        <f>1-U4/$U$7</f>
-        <v>0.61186379073718955</v>
-      </c>
-      <c r="V18" s="124">
-        <f>1-U4/$U$6</f>
-        <v>0.53071292912045642</v>
-      </c>
-      <c r="W18" s="124">
-        <f>1-U4/$U$5</f>
-        <v>0.39867861447009212</v>
-      </c>
-      <c r="AA18" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="1"/>
-        <v>3950</v>
-      </c>
-      <c r="AC18" s="134">
+      <c r="L18" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="187">
+        <f t="shared" ref="P18:P25" si="8">1-W4/$W$12</f>
+        <v>0.82657317923529827</v>
+      </c>
+      <c r="Q18" s="188">
+        <f t="shared" ref="Q18:Q24" si="9">1-W4/$W$11</f>
+        <v>0.73202753715113</v>
+      </c>
+      <c r="R18" s="188">
+        <f t="shared" ref="R18:R23" si="10">1-W4/$W$10</f>
+        <v>0.67174081354445081</v>
+      </c>
+      <c r="S18" s="188">
+        <f>1-W4/$W$9</f>
+        <v>0.56505827081684434</v>
+      </c>
+      <c r="T18" s="188">
+        <f>1-W4/$W$8</f>
+        <v>0.37746294118133139</v>
+      </c>
+      <c r="U18" s="188">
+        <f>1-W4/$W$7</f>
+        <v>0.46288924705058421</v>
+      </c>
+      <c r="V18" s="189">
+        <f>1-W4/$W$6</f>
+        <v>0.35059104001588781</v>
+      </c>
+      <c r="W18" s="189">
+        <f>1-W4/$W$5</f>
+        <v>0.1678792793901257</v>
+      </c>
+      <c r="AA18" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB18" s="182">
+        <f t="shared" si="3"/>
+        <v>2739.9647887323945</v>
+      </c>
+      <c r="AC18" s="184">
+        <f t="shared" si="4"/>
+        <v>4403.3907830648186</v>
+      </c>
+      <c r="AD18" s="184">
+        <f t="shared" si="5"/>
+        <v>1626.2626262626261</v>
+      </c>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="170">
         <v>6300</v>
       </c>
-      <c r="AD18" s="134">
+      <c r="AG18" s="170">
         <v>2400</v>
       </c>
-      <c r="AH18" s="135">
+      <c r="AH18" s="171">
         <v>3200</v>
       </c>
-      <c r="AI18" s="134">
+      <c r="AI18" s="170">
         <v>4700</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM18" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN18" s="177">
+        <v>0.67760942760942755</v>
+      </c>
+      <c r="AO18" s="177">
+        <v>0.69366197183098599</v>
+      </c>
+      <c r="AP18" s="177">
+        <v>0.69895091794679653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="145">
+        <v>194</v>
+      </c>
+      <c r="F19" s="124">
         <f>D9</f>
         <v>282151.52747564798</v>
       </c>
-      <c r="G19" s="145">
-        <f t="shared" ref="G19:H19" si="3">E9</f>
+      <c r="G19" s="124">
+        <f t="shared" ref="G19:H19" si="11">E9</f>
         <v>251318.93361374349</v>
       </c>
-      <c r="H19" s="145">
+      <c r="H19" s="124">
+        <f t="shared" si="11"/>
+        <v>58904.8034364337</v>
+      </c>
+      <c r="O19" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="187">
+        <f t="shared" si="8"/>
+        <v>0.79158454239957576</v>
+      </c>
+      <c r="Q19" s="188">
+        <f t="shared" si="9"/>
+        <v>0.67796443927935268</v>
+      </c>
+      <c r="R19" s="188">
+        <f t="shared" si="10"/>
+        <v>0.60551494714016629</v>
+      </c>
+      <c r="S19" s="188">
+        <f>1-W5/$W$9</f>
+        <v>0.47730933936559095</v>
+      </c>
+      <c r="T19" s="189">
+        <f>1-W5/$W$8</f>
+        <v>0.25186689455058697</v>
+      </c>
+      <c r="U19" s="189">
+        <f>1-W5/$W$7</f>
+        <v>0.35452784716650365</v>
+      </c>
+      <c r="V19" s="189">
+        <f>1-W5/$W$6</f>
+        <v>0.21957362207234754</v>
+      </c>
+      <c r="W19" s="187"/>
+      <c r="AA19" s="172" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB19" s="182">
         <f t="shared" si="3"/>
-        <v>58904.8034364337</v>
-      </c>
-      <c r="O19" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ref="P19:P25" si="4">1-U5/$U$12</f>
-        <v>0.85617788946237794</v>
-      </c>
-      <c r="Q19" s="124">
-        <f t="shared" ref="Q19:Q24" si="5">1-U5/$U$11</f>
-        <v>0.78212006063973538</v>
-      </c>
-      <c r="R19" s="124">
-        <f t="shared" ref="R19:R23" si="6">1-U5/$U$10</f>
-        <v>0.73310283124232423</v>
-      </c>
-      <c r="S19" s="124">
-        <f t="shared" ref="S19:S22" si="7">1-U5/$U$9</f>
-        <v>0.65413592759164874</v>
-      </c>
-      <c r="T19" s="124">
-        <f t="shared" ref="T19:T21" si="8">1-U5/$U$8</f>
-        <v>0.5229019792936962</v>
-      </c>
-      <c r="U19" s="124">
-        <f t="shared" ref="U19:U20" si="9">1-U5/$U$7</f>
-        <v>0.35452784716650365</v>
-      </c>
-      <c r="V19" s="93">
-        <f>1-U5/$U$6</f>
-        <v>0.21957362207234754</v>
-      </c>
-      <c r="AA19" s="136" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="1"/>
-        <v>4950</v>
-      </c>
-      <c r="AC19" s="137">
+        <v>2702.039715087416</v>
+      </c>
+      <c r="AC19" s="185">
+        <f t="shared" si="4"/>
+        <v>4397.9254406488853</v>
+      </c>
+      <c r="AD19" s="185">
+        <f t="shared" si="5"/>
+        <v>1686.5833785985876</v>
+      </c>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="173">
         <v>7900</v>
       </c>
-      <c r="AD19" s="137">
+      <c r="AG19" s="173">
         <v>3000</v>
       </c>
-      <c r="AH19" s="138">
+      <c r="AH19" s="174">
         <v>4000</v>
       </c>
-      <c r="AI19" s="137">
+      <c r="AI19" s="173">
         <v>5900</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+      <c r="AM19" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN19" s="179">
+        <v>0.56219445953286251</v>
+      </c>
+      <c r="AO19" s="179">
+        <v>0.54586660910856888</v>
+      </c>
+      <c r="AP19" s="179">
+        <v>0.55669942286694751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="145">
+        <v>195</v>
+      </c>
+      <c r="F20" s="124">
         <f>SUM(D10:D13)</f>
         <v>391876.39875986642</v>
       </c>
-      <c r="G20" s="145">
-        <f t="shared" ref="G20:H20" si="10">SUM(E10:E13)</f>
+      <c r="G20" s="124">
+        <f t="shared" ref="G20:H20" si="12">SUM(E10:E13)</f>
         <v>369741.02860841871</v>
       </c>
-      <c r="H20" s="145">
+      <c r="H20" s="124">
+        <f t="shared" si="12"/>
+        <v>97049.563561422125</v>
+      </c>
+      <c r="O20" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="188">
+        <f t="shared" si="8"/>
+        <v>0.73294667697694738</v>
+      </c>
+      <c r="Q20" s="188">
+        <f t="shared" si="9"/>
+        <v>0.58735946166276198</v>
+      </c>
+      <c r="R20" s="188">
         <f t="shared" si="10"/>
-        <v>97049.563561422125</v>
-      </c>
-      <c r="O20" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" s="124">
-        <f t="shared" si="4"/>
-        <v>0.81571341691508692</v>
-      </c>
-      <c r="Q20" s="124">
-        <f t="shared" si="5"/>
-        <v>0.72081935526215313</v>
-      </c>
-      <c r="R20" s="124">
-        <f t="shared" si="6"/>
-        <v>0.658011086879975</v>
-      </c>
-      <c r="S20" s="124">
-        <f t="shared" si="7"/>
-        <v>0.55682677804053693</v>
-      </c>
-      <c r="T20" s="124">
-        <f t="shared" si="8"/>
-        <v>0.388670047297489</v>
-      </c>
-      <c r="U20" s="93">
-        <f t="shared" si="9"/>
+        <v>0.49452624358065522</v>
+      </c>
+      <c r="S20" s="189">
+        <f>1-W6/$W$9</f>
+        <v>0.33024987953077123</v>
+      </c>
+      <c r="T20" s="189">
+        <f>1-W6/$W$8</f>
+        <v>4.1379012026721895E-2</v>
+      </c>
+      <c r="U20" s="189">
+        <f>1-W6/$W$7</f>
         <v>0.17292371056513256</v>
       </c>
-      <c r="Y20" s="139" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="145">
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="AA20" s="162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="124">
         <f>SUM(F18:F20)</f>
         <v>766351.7209999999</v>
       </c>
-      <c r="G21" s="85"/>
-      <c r="O21" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="124">
-        <f t="shared" si="4"/>
-        <v>0.77718309007403152</v>
-      </c>
-      <c r="Q21" s="124">
-        <f t="shared" si="5"/>
-        <v>0.66244873864222598</v>
-      </c>
-      <c r="R21" s="124">
-        <f t="shared" si="6"/>
-        <v>0.58650862382513413</v>
-      </c>
-      <c r="S21" s="124">
-        <f t="shared" si="7"/>
-        <v>0.46416887097285942</v>
-      </c>
-      <c r="T21" s="93">
+      <c r="G21" s="80"/>
+      <c r="O21" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="188">
         <f t="shared" si="8"/>
-        <v>0.26085421561265365</v>
-      </c>
-      <c r="Y21" s="140" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="F22" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="94" t="s">
+        <v>0.67711162025267657</v>
+      </c>
+      <c r="Q21" s="188">
+        <f t="shared" si="9"/>
+        <v>0.50108527640274758</v>
+      </c>
+      <c r="R21" s="188">
+        <f t="shared" si="10"/>
+        <v>0.38884264622707332</v>
+      </c>
+      <c r="S21" s="189">
+        <f>1-W7/$W$9</f>
+        <v>0.19021965805976382</v>
+      </c>
+      <c r="T21" s="189">
+        <f>IF(1-W7/$W$8&lt;0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="AA21" s="163" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="188">
+        <f t="shared" si="8"/>
+        <v>0.72141928210057427</v>
+      </c>
+      <c r="Q22" s="188">
+        <f t="shared" si="9"/>
+        <v>0.56954777381867572</v>
+      </c>
+      <c r="R22" s="188">
+        <f t="shared" si="10"/>
+        <v>0.47270739660309302</v>
+      </c>
+      <c r="S22" s="189">
+        <f>1-W8/$W$9</f>
+        <v>0.30134001980780933</v>
+      </c>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+    </row>
+    <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="O22" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" s="124">
-        <f t="shared" si="4"/>
-        <v>0.69854808803292578</v>
-      </c>
-      <c r="Q22" s="124">
-        <f t="shared" si="5"/>
-        <v>0.54332248321275467</v>
-      </c>
-      <c r="R22" s="124">
-        <f t="shared" si="6"/>
-        <v>0.44058210855170443</v>
-      </c>
-      <c r="S22" s="93">
-        <f t="shared" si="7"/>
-        <v>0.27506705666829534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="165">
+      <c r="F23" s="143">
         <f>F18/$D$14</f>
         <v>0.12047183066805627</v>
       </c>
-      <c r="G23" s="165">
+      <c r="G23" s="143">
         <f>G18/$E$14</f>
         <v>0.14269122682268837</v>
       </c>
-      <c r="H23" s="165">
+      <c r="H23" s="143">
         <f>H18/$F$14</f>
         <v>0.24586456547937455</v>
       </c>
-      <c r="O23" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" s="124">
-        <f t="shared" si="4"/>
-        <v>0.58416579803693625</v>
-      </c>
-      <c r="Q23" s="124">
-        <f t="shared" si="5"/>
-        <v>0.37004171077063985</v>
-      </c>
-      <c r="R23" s="93">
-        <f t="shared" si="6"/>
-        <v>0.22831774084196221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+      <c r="O23" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="188">
+        <f t="shared" si="8"/>
+        <v>0.60126424040662463</v>
+      </c>
+      <c r="Q23" s="188">
+        <f t="shared" si="9"/>
+        <v>0.38388881804434616</v>
+      </c>
+      <c r="R23" s="189">
+        <f t="shared" si="10"/>
+        <v>0.24528008137541124</v>
+      </c>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+    </row>
+    <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="165">
-        <f t="shared" ref="F24:F25" si="11">F19/$D$14</f>
+        <v>194</v>
+      </c>
+      <c r="F24" s="143">
+        <f t="shared" ref="F24:F25" si="13">F19/$D$14</f>
         <v>0.36817497729041837</v>
       </c>
-      <c r="G24" s="165">
-        <f t="shared" ref="G24:G25" si="12">G19/$E$14</f>
+      <c r="G24" s="143">
+        <f t="shared" ref="G24:G25" si="14">G19/$E$14</f>
         <v>0.34691968530979972</v>
       </c>
-      <c r="H24" s="165">
-        <f t="shared" ref="H24:H25" si="13">H19/$F$14</f>
+      <c r="H24" s="143">
+        <f t="shared" ref="H24:H25" si="15">H19/$F$14</f>
         <v>0.28484101080348528</v>
       </c>
-      <c r="O24" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="P24" s="124">
-        <f t="shared" si="4"/>
-        <v>0.46113287298224337</v>
-      </c>
-      <c r="Q24" s="93">
-        <f t="shared" si="5"/>
+      <c r="O24" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="188">
+        <f t="shared" si="8"/>
+        <v>0.47167717486503269</v>
+      </c>
+      <c r="Q24" s="189">
+        <f t="shared" si="9"/>
         <v>0.18365586126511313</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+    </row>
+    <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="165">
-        <f t="shared" si="11"/>
+        <v>195</v>
+      </c>
+      <c r="F25" s="143">
+        <f t="shared" si="13"/>
         <v>0.51135319204152541</v>
       </c>
-      <c r="G25" s="165">
-        <f t="shared" si="12"/>
+      <c r="G25" s="143">
+        <f t="shared" si="14"/>
         <v>0.5103890878675118</v>
       </c>
-      <c r="H25" s="165">
-        <f t="shared" si="13"/>
+      <c r="H25" s="143">
+        <f t="shared" si="15"/>
         <v>0.46929442371714014</v>
       </c>
-      <c r="O25" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="P25" s="93">
-        <f t="shared" si="4"/>
-        <v>0.33990200768409362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C27" s="92"/>
-    </row>
-    <row r="28" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="91"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-    </row>
-    <row r="29" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="186" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="186" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="180" t="s">
-        <v>216</v>
-      </c>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="181"/>
-      <c r="S29" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="T29" s="181"/>
-      <c r="U29" s="181"/>
-      <c r="V29" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="W29" s="181"/>
-      <c r="X29" s="181"/>
-    </row>
-    <row r="30" spans="1:35" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="142" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="M30" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="N30" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="O30" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="P30" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q30" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="R30" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="S30" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="T30" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="U30" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="V30" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="W30" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="X30" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA30" s="143" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C31" s="146" t="s">
+      <c r="O25" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="189">
+        <f t="shared" si="8"/>
+        <v>0.3528184988824381</v>
+      </c>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+    </row>
+    <row r="26" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="C27" s="87"/>
+    </row>
+    <row r="28" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="86"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+    </row>
+    <row r="29" spans="1:42" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146">
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="210" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="211"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="211"/>
+      <c r="L29" s="212"/>
+      <c r="M29" s="204" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" s="205"/>
+      <c r="O29" s="205"/>
+      <c r="P29" s="204" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="205"/>
+      <c r="R29" s="205"/>
+      <c r="S29" s="204" t="s">
+        <v>192</v>
+      </c>
+      <c r="T29" s="205"/>
+      <c r="U29" s="205"/>
+      <c r="V29" s="204" t="s">
+        <v>192</v>
+      </c>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
+    </row>
+    <row r="30" spans="1:42" ht="21" x14ac:dyDescent="0.2">
+      <c r="A30" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q30" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="T30" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="U30" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="V30" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="W30" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="X30" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA30" s="181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="C31" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125">
         <v>14978</v>
       </c>
-      <c r="F31" s="146">
+      <c r="F31" s="125">
         <v>6086</v>
       </c>
-      <c r="G31" s="146">
-        <f t="shared" ref="G31:G56" si="14">SUM(E31:F31)</f>
+      <c r="G31" s="125">
+        <f t="shared" ref="G31:G56" si="16">SUM(E31:F31)</f>
         <v>21064</v>
       </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146">
-        <f t="shared" ref="M31:M44" si="15">AVERAGE(G31:I31)</f>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125">
+        <f t="shared" ref="M31:M44" si="17">AVERAGE(G31:I31)</f>
         <v>21064</v>
       </c>
-      <c r="N31" s="146">
+      <c r="N31" s="125">
         <f>AVERAGE(G31*1.1,J31:K31)</f>
         <v>23170.400000000001</v>
       </c>
-      <c r="O31" s="146">
+      <c r="O31" s="125">
         <f>AVERAGE(G31*0.9,L31)</f>
         <v>18957.600000000002</v>
       </c>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C32" s="147" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147">
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="C32" s="126" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126">
         <v>24338</v>
       </c>
-      <c r="F32" s="147">
+      <c r="F32" s="126">
         <v>6086</v>
       </c>
-      <c r="G32" s="147">
-        <f t="shared" si="14"/>
+      <c r="G32" s="126">
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147">
-        <f t="shared" si="15"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126">
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
-      <c r="N32" s="147">
-        <f t="shared" ref="N32:N57" si="16">AVERAGE(G32*1.1,J32:K32)</f>
+      <c r="N32" s="126">
+        <f t="shared" ref="N32:N57" si="18">AVERAGE(G32*1.1,J32:K32)</f>
         <v>33466.400000000001</v>
       </c>
-      <c r="O32" s="147">
-        <f t="shared" ref="O32:O57" si="17">AVERAGE(G32*0.9,L32)</f>
+      <c r="O32" s="126">
+        <f t="shared" ref="O32:O57" si="19">AVERAGE(G32*0.9,L32)</f>
         <v>27381.600000000002</v>
       </c>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="152"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="126"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C33" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147">
+      <c r="C33" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126">
         <v>24338</v>
       </c>
-      <c r="F33" s="147">
+      <c r="F33" s="126">
         <v>6086</v>
       </c>
-      <c r="G33" s="147">
-        <f t="shared" si="14"/>
+      <c r="G33" s="126">
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147">
-        <f t="shared" si="15"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126">
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
-      <c r="N33" s="147">
+      <c r="N33" s="126">
+        <f t="shared" si="18"/>
+        <v>33466.400000000001</v>
+      </c>
+      <c r="O33" s="126">
+        <f t="shared" si="19"/>
+        <v>27381.600000000002</v>
+      </c>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="AA33" s="181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C34" s="126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126">
+        <v>26211</v>
+      </c>
+      <c r="F34" s="126">
+        <v>6086</v>
+      </c>
+      <c r="G34" s="126">
         <f t="shared" si="16"/>
-        <v>33466.400000000001</v>
-      </c>
-      <c r="O33" s="147">
+        <v>32297</v>
+      </c>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126">
         <f t="shared" si="17"/>
-        <v>27381.600000000002</v>
-      </c>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="AA33" s="143" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C34" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147">
-        <v>26211</v>
-      </c>
-      <c r="F34" s="147">
+        <v>32297</v>
+      </c>
+      <c r="N34" s="126">
+        <f t="shared" si="18"/>
+        <v>35526.700000000004</v>
+      </c>
+      <c r="O34" s="126">
+        <f t="shared" si="19"/>
+        <v>29067.3</v>
+      </c>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C35" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126">
+        <v>28083</v>
+      </c>
+      <c r="F35" s="126">
         <v>6086</v>
       </c>
-      <c r="G34" s="147">
-        <f t="shared" si="14"/>
-        <v>32297</v>
-      </c>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147">
-        <f t="shared" si="15"/>
-        <v>32297</v>
-      </c>
-      <c r="N34" s="147">
+      <c r="G35" s="126">
         <f t="shared" si="16"/>
-        <v>35526.700000000004</v>
-      </c>
-      <c r="O34" s="147">
+        <v>34169</v>
+      </c>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126">
         <f t="shared" si="17"/>
-        <v>29067.3</v>
-      </c>
-      <c r="P34" s="152"/>
-      <c r="Q34" s="152"/>
-      <c r="R34" s="152"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-    </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C35" s="147" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147">
-        <v>28083</v>
-      </c>
-      <c r="F35" s="147">
+        <v>34169</v>
+      </c>
+      <c r="N35" s="126">
+        <f t="shared" si="18"/>
+        <v>37585.9</v>
+      </c>
+      <c r="O35" s="126">
+        <f t="shared" si="19"/>
+        <v>30752.100000000002</v>
+      </c>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="126"/>
+      <c r="T35" s="126"/>
+      <c r="U35" s="126"/>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C36" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126">
+        <v>29955</v>
+      </c>
+      <c r="F36" s="126">
         <v>6086</v>
       </c>
-      <c r="G35" s="147">
-        <f t="shared" si="14"/>
-        <v>34169</v>
-      </c>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147">
-        <f t="shared" si="15"/>
-        <v>34169</v>
-      </c>
-      <c r="N35" s="147">
+      <c r="G36" s="126">
         <f t="shared" si="16"/>
-        <v>37585.9</v>
-      </c>
-      <c r="O35" s="147">
+        <v>36041</v>
+      </c>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126">
         <f t="shared" si="17"/>
-        <v>30752.100000000002</v>
-      </c>
-      <c r="P35" s="152"/>
-      <c r="Q35" s="152"/>
-      <c r="R35" s="152"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-    </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C36" s="147" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147">
-        <v>29955</v>
-      </c>
-      <c r="F36" s="147">
+        <v>36041</v>
+      </c>
+      <c r="N36" s="126">
+        <f t="shared" si="18"/>
+        <v>39645.100000000006</v>
+      </c>
+      <c r="O36" s="126">
+        <f t="shared" si="19"/>
+        <v>32436.9</v>
+      </c>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="126"/>
+      <c r="T36" s="126"/>
+      <c r="U36" s="126"/>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C37" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127">
+        <v>14978</v>
+      </c>
+      <c r="F37" s="127">
         <v>6086</v>
       </c>
-      <c r="G36" s="147">
-        <f t="shared" si="14"/>
-        <v>36041</v>
-      </c>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147">
-        <f t="shared" si="15"/>
-        <v>36041</v>
-      </c>
-      <c r="N36" s="147">
+      <c r="G37" s="127">
         <f t="shared" si="16"/>
-        <v>39645.100000000006</v>
-      </c>
-      <c r="O36" s="147">
+        <v>21064</v>
+      </c>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127">
         <f t="shared" si="17"/>
-        <v>32436.9</v>
-      </c>
-      <c r="P36" s="152"/>
-      <c r="Q36" s="152"/>
-      <c r="R36" s="152"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C37" s="148" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148">
-        <v>14978</v>
-      </c>
-      <c r="F37" s="148">
-        <v>6086</v>
-      </c>
-      <c r="G37" s="148">
-        <f t="shared" si="14"/>
         <v>21064</v>
       </c>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148">
-        <f t="shared" si="15"/>
-        <v>21064</v>
-      </c>
-      <c r="N37" s="148">
-        <f t="shared" si="16"/>
+      <c r="N37" s="127">
+        <f t="shared" si="18"/>
         <v>23170.400000000001</v>
       </c>
-      <c r="O37" s="148">
+      <c r="O37" s="127">
         <f>AVERAGE(G37*0.9,L37)</f>
         <v>18957.600000000002</v>
       </c>
-      <c r="P37" s="153">
+      <c r="P37" s="132">
         <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$8:$AB$10))</f>
-        <v>0.5465729349736379</v>
-      </c>
-      <c r="Q37" s="153">
+        <v>0.37653778558875217</v>
+      </c>
+      <c r="Q37" s="132">
         <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$8:$AC$10))</f>
-        <v>0.54347826086956519</v>
-      </c>
-      <c r="R37" s="153">
+        <v>0.38465919878488697</v>
+      </c>
+      <c r="R37" s="132">
         <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$8:$AD$10))</f>
-        <v>0.54970760233918126</v>
-      </c>
-      <c r="S37" s="148">
+        <v>0.35672514619883033</v>
+      </c>
+      <c r="S37" s="127">
         <f>SUM(D6:D8)/SUM(D6:D13)*M37</f>
         <v>2155.8776533753853</v>
       </c>
-      <c r="T37" s="148">
+      <c r="T37" s="127">
         <f>SUM(E6:E8)/SUM(E6:E13)*N37</f>
         <v>2731.2453287173885</v>
       </c>
-      <c r="U37" s="148">
+      <c r="U37" s="127">
         <f>SUM(F6:F8)/SUM(F6:F13)*O37</f>
         <v>3978.7737999936576</v>
       </c>
-      <c r="V37" s="153">
+      <c r="V37" s="132">
         <f>SUM(D6:D8)/SUM(D6:D13)*P37</f>
-        <v>5.5941149660532832E-2</v>
-      </c>
-      <c r="W37" s="153">
+        <v>3.8538235738807589E-2</v>
+      </c>
+      <c r="W37" s="132">
         <f>SUM(E6:E8)/SUM(E6:E13)*Q37</f>
-        <v>6.4063307550126458E-2</v>
-      </c>
-      <c r="X37" s="153">
+        <v>4.5342274618884251E-2</v>
+      </c>
+      <c r="X37" s="132">
         <f>SUM(F6:F8)/SUM(F6:F13)*R37</f>
-        <v>0.11537126038340646</v>
+        <v>7.4868583865827593E-2</v>
       </c>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C38" s="146" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146">
+      <c r="C38" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125">
         <v>24338</v>
       </c>
-      <c r="F38" s="146">
+      <c r="F38" s="125">
         <v>6086</v>
       </c>
-      <c r="G38" s="146">
-        <f t="shared" si="14"/>
+      <c r="G38" s="125">
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146">
-        <f t="shared" si="15"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="125">
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
-      <c r="N38" s="146">
-        <f t="shared" si="16"/>
+      <c r="N38" s="125">
+        <f t="shared" si="18"/>
         <v>33466.400000000001</v>
       </c>
-      <c r="O38" s="146">
-        <f t="shared" si="17"/>
+      <c r="O38" s="125">
+        <f t="shared" si="19"/>
         <v>27381.600000000002</v>
       </c>
-      <c r="P38" s="154">
+      <c r="P38" s="133">
         <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$11:$AB$13))</f>
-        <v>0.73124999999999996</v>
-      </c>
-      <c r="Q38" s="154">
+        <v>0.42128964902402399</v>
+      </c>
+      <c r="Q38" s="133">
         <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$11:$AC$13))</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="R38" s="154">
+        <v>0.43541237538106614</v>
+      </c>
+      <c r="R38" s="133">
         <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$11:$AD$13))</f>
-        <v>0.73448275862068968</v>
-      </c>
-      <c r="S38" s="146">
+        <v>0.39164922331166674</v>
+      </c>
+      <c r="S38" s="125">
         <f>SUM(D9)/SUM(D6:D13)*M38</f>
         <v>11432.162401919726</v>
       </c>
-      <c r="T38" s="146">
-        <f t="shared" ref="T38:U38" si="18">SUM(E9)/SUM(E6:E13)*N38</f>
+      <c r="T38" s="125">
+        <f t="shared" ref="T38:U38" si="20">SUM(E9)/SUM(E6:E13)*N38</f>
         <v>11946.208000785055</v>
       </c>
-      <c r="U38" s="146">
-        <f t="shared" si="18"/>
+      <c r="U38" s="125">
+        <f t="shared" si="20"/>
         <v>8171.5871871879508</v>
       </c>
-      <c r="V38" s="154">
-        <f>SUM(D9)/SUM(D6:D13)*P37</f>
-        <v>0.20538096756220545</v>
-      </c>
-      <c r="W38" s="154">
-        <f t="shared" ref="W38:X38" si="19">SUM(E9)/SUM(E6:E13)*Q37</f>
-        <v>0.19400067973408391</v>
-      </c>
-      <c r="X38" s="154">
-        <f t="shared" si="19"/>
-        <v>0.16405117304959033</v>
+      <c r="V38" s="133">
+        <f>SUM(D9)/SUM(D6:D13)*P38</f>
+        <v>0.15830435465061807</v>
+      </c>
+      <c r="W38" s="133">
+        <f>SUM(E9)/SUM(E6:E13)*Q38</f>
+        <v>0.15542534609094846</v>
+      </c>
+      <c r="X38" s="133">
+        <f>SUM(F9)/SUM(F6:F13)*R38</f>
+        <v>0.11688125511605342</v>
       </c>
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C39" s="148" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148">
+      <c r="C39" s="127" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127">
         <v>7489</v>
       </c>
-      <c r="F39" s="148">
+      <c r="F39" s="127">
         <v>5326</v>
       </c>
-      <c r="G39" s="148">
-        <f t="shared" si="14"/>
+      <c r="G39" s="127">
+        <f t="shared" si="16"/>
         <v>12815</v>
       </c>
-      <c r="H39" s="148">
+      <c r="H39" s="127">
         <v>5200</v>
       </c>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148">
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127">
         <f>AVERAGE(G39:I39)</f>
         <v>9007.5</v>
       </c>
-      <c r="N39" s="148">
-        <f t="shared" si="16"/>
+      <c r="N39" s="127">
+        <f t="shared" si="18"/>
         <v>14096.500000000002</v>
       </c>
-      <c r="O39" s="148">
+      <c r="O39" s="127">
         <f>AVERAGE(G39*0.9,L39)</f>
         <v>11533.5</v>
       </c>
-      <c r="P39" s="153">
+      <c r="P39" s="132">
         <f>1-(AVERAGE(AB8:AB10)/AVERAGE($AB$11:$AB$13))</f>
-        <v>0.40729166666666661</v>
-      </c>
-      <c r="Q39" s="153">
+        <v>7.1779592092092059E-2</v>
+      </c>
+      <c r="Q39" s="132">
         <f>1-(AVERAGE(AC8:AC10)/AVERAGE($AC$11:$AC$13))</f>
-        <v>0.40259740259740262</v>
-      </c>
-      <c r="R39" s="153">
+        <v>8.2479784366576991E-2</v>
+      </c>
+      <c r="R39" s="132">
         <f>1-(AVERAGE(AD8:AD10)/AVERAGE($AD$11:$AD$13))</f>
-        <v>0.41034482758620683</v>
-      </c>
-      <c r="S39" s="148">
+        <v>5.4291065329954646E-2</v>
+      </c>
+      <c r="S39" s="127">
         <f>D9/SUM(D6:D13)*M39</f>
         <v>3384.6700905631055</v>
       </c>
-      <c r="T39" s="148">
+      <c r="T39" s="127">
         <f>E9/SUM(E6:E13)*N39</f>
         <v>5031.9042706435866</v>
       </c>
-      <c r="U39" s="148">
+      <c r="U39" s="127">
         <f>F9/SUM(F6:F13)*O39</f>
         <v>3441.9829675195106</v>
       </c>
-      <c r="V39" s="153">
+      <c r="V39" s="132">
         <f>D9/SUM(D6:D13)*P39</f>
-        <v>0.15304445432165026</v>
-      </c>
-      <c r="W39" s="153">
-        <f t="shared" ref="W39:X39" si="20">E9/SUM(E6:E13)*Q39</f>
-        <v>0.14371167236405388</v>
-      </c>
-      <c r="X39" s="153">
-        <f t="shared" si="20"/>
-        <v>0.12246065005084789</v>
+        <v>2.6971994278870277E-2</v>
+      </c>
+      <c r="W39" s="132">
+        <f t="shared" ref="W39:X39" si="21">E9/SUM(E6:E13)*Q39</f>
+        <v>2.9442086985843354E-2</v>
+      </c>
+      <c r="X39" s="132">
+        <f t="shared" si="21"/>
+        <v>1.6202273564329378E-2</v>
       </c>
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C40" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147">
+      <c r="C40" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126">
         <v>24338</v>
       </c>
-      <c r="F40" s="147">
+      <c r="F40" s="126">
         <v>6086</v>
       </c>
-      <c r="G40" s="147">
-        <f t="shared" si="14"/>
+      <c r="G40" s="126">
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147">
-        <f t="shared" si="15"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126">
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
-      <c r="N40" s="147">
+      <c r="N40" s="126">
+        <f t="shared" si="18"/>
+        <v>33466.400000000001</v>
+      </c>
+      <c r="O40" s="126">
+        <f t="shared" si="19"/>
+        <v>27381.600000000002</v>
+      </c>
+      <c r="P40" s="134">
+        <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$14:$AB$15))</f>
+        <v>0.62274615839243497</v>
+      </c>
+      <c r="Q40" s="134">
+        <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$14:$AC$15))</f>
+        <v>0.63238897979724307</v>
+      </c>
+      <c r="R40" s="134">
+        <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$14:$AD$15))</f>
+        <v>0.59252763605442182</v>
+      </c>
+      <c r="S40" s="125">
+        <f>SUM(D10)/SUM(D6:D13)*M40</f>
+        <v>7602.2363231160143</v>
+      </c>
+      <c r="T40" s="125">
+        <f>SUM(E10)/SUM(E6:E13)*N40</f>
+        <v>7922.3959556852897</v>
+      </c>
+      <c r="U40" s="125">
+        <f>SUM(F10)/SUM(F6:F13)*O40</f>
+        <v>6067.7537814310308</v>
+      </c>
+      <c r="V40" s="133">
+        <f>SUM(D10)/SUM(D6:D13)*P40</f>
+        <v>0.15560950122968473</v>
+      </c>
+      <c r="W40" s="133">
+        <f>SUM(E10)/SUM(E6:E13)*Q40</f>
+        <v>0.14970346066399806</v>
+      </c>
+      <c r="X40" s="133">
+        <f>SUM(F10)/SUM(F6:F13)*R40</f>
+        <v>0.13130393418469363</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C41" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125">
+        <v>7489</v>
+      </c>
+      <c r="F41" s="125">
+        <v>5326</v>
+      </c>
+      <c r="G41" s="125">
         <f t="shared" si="16"/>
-        <v>33466.400000000001</v>
-      </c>
-      <c r="O40" s="147">
+        <v>12815</v>
+      </c>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125">
         <f t="shared" si="17"/>
-        <v>27381.600000000002</v>
-      </c>
-      <c r="P40" s="155">
-        <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$14:$AB$15))</f>
-        <v>0.81702127659574475</v>
-      </c>
-      <c r="Q40" s="155">
-        <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$14:$AC$15))</f>
-        <v>0.81578947368421051</v>
-      </c>
-      <c r="R40" s="155">
-        <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$14:$AD$15))</f>
-        <v>0.81666666666666665</v>
-      </c>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="147"/>
-    </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C41" s="146" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146">
-        <v>7489</v>
-      </c>
-      <c r="F41" s="146">
-        <v>5326</v>
-      </c>
-      <c r="G41" s="146">
-        <f t="shared" si="14"/>
         <v>12815</v>
       </c>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146">
-        <f t="shared" si="15"/>
-        <v>12815</v>
-      </c>
-      <c r="N41" s="146">
-        <f t="shared" si="16"/>
+      <c r="N41" s="125">
+        <f t="shared" si="18"/>
         <v>14096.500000000002</v>
       </c>
-      <c r="O41" s="146">
-        <f t="shared" si="17"/>
+      <c r="O41" s="125">
+        <f t="shared" si="19"/>
         <v>11533.5</v>
       </c>
-      <c r="P41" s="154">
+      <c r="P41" s="133">
         <f>1-(AVERAGE(AB8:AB10)/AVERAGE($AB$14:$AB$15))</f>
-        <v>0.59645390070921978</v>
-      </c>
-      <c r="Q41" s="154">
+        <v>0.39490504334121357</v>
+      </c>
+      <c r="Q41" s="133">
         <f>1-(AVERAGE(AC8:AC10)/AVERAGE($AC$14:$AC$15))</f>
-        <v>0.59649122807017552</v>
-      </c>
-      <c r="R41" s="154">
+        <v>0.40258955772665206</v>
+      </c>
+      <c r="R41" s="133">
         <f>1-(AVERAGE(AD8:AD10)/AVERAGE($AD$14:$AD$15))</f>
-        <v>0.59285714285714286</v>
-      </c>
-      <c r="S41" s="146">
+        <v>0.36656568877551032</v>
+      </c>
+      <c r="S41" s="125">
         <f>SUM(D10)/SUM(D6:D13)*M41</f>
         <v>3202.1646884279426</v>
       </c>
-      <c r="T41" s="146">
-        <f t="shared" ref="T41:U41" si="21">SUM(E10)/SUM(E6:E13)*N41</f>
+      <c r="T41" s="125">
+        <f t="shared" ref="T41:U41" si="22">SUM(E10)/SUM(E6:E13)*N41</f>
         <v>3337.0202528302325</v>
       </c>
-      <c r="U41" s="146">
-        <f t="shared" si="21"/>
+      <c r="U41" s="125">
+        <f t="shared" si="22"/>
         <v>2555.819902348102</v>
       </c>
-      <c r="V41" s="154">
+      <c r="V41" s="133">
         <f>SUM(D10)/SUM(D6:D13)*P41</f>
-        <v>0.14903968935826528</v>
-      </c>
-      <c r="W41" s="154">
-        <f t="shared" ref="W41:X41" si="22">SUM(E10)/SUM(E6:E13)*Q41</f>
-        <v>0.14120549843619004</v>
-      </c>
-      <c r="X41" s="154">
-        <f t="shared" si="22"/>
-        <v>0.13137695278653641</v>
+        <v>9.8677408120900534E-2</v>
+      </c>
+      <c r="W41" s="133">
+        <f t="shared" ref="W41:X41" si="23">SUM(E10)/SUM(E6:E13)*Q41</f>
+        <v>9.5303763892583535E-2</v>
+      </c>
+      <c r="X41" s="133">
+        <f t="shared" si="23"/>
+        <v>8.1230839111318301E-2</v>
       </c>
     </row>
     <row r="42" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C42" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148">
+      <c r="C42" s="127" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127">
         <v>3744</v>
       </c>
-      <c r="F42" s="148">
+      <c r="F42" s="127">
         <v>4565</v>
       </c>
-      <c r="G42" s="148">
-        <f t="shared" si="14"/>
+      <c r="G42" s="127">
+        <f t="shared" si="16"/>
         <v>8309</v>
       </c>
-      <c r="H42" s="148">
+      <c r="H42" s="127">
         <v>5000</v>
       </c>
-      <c r="I42" s="148">
+      <c r="I42" s="127">
         <v>9300</v>
       </c>
-      <c r="J42" s="148">
+      <c r="J42" s="127">
         <v>30000</v>
       </c>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148">
-        <f t="shared" si="15"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127">
+        <f t="shared" si="17"/>
         <v>7536.333333333333</v>
       </c>
-      <c r="N42" s="148">
-        <f t="shared" si="16"/>
+      <c r="N42" s="127">
+        <f t="shared" si="18"/>
         <v>19569.95</v>
       </c>
-      <c r="O42" s="148">
-        <f t="shared" si="17"/>
+      <c r="O42" s="127">
+        <f t="shared" si="19"/>
         <v>7478.1</v>
       </c>
-      <c r="P42" s="153">
+      <c r="P42" s="132">
         <f>1-(AVERAGE(AB11:AB13)/AVERAGE($AB$14:$AB$15))</f>
-        <v>0.31914893617021278</v>
-      </c>
-      <c r="Q42" s="153">
+        <v>0.34811284959507149</v>
+      </c>
+      <c r="Q42" s="132">
         <f>1-(AVERAGE(AC11:AC13)/AVERAGE($AC$14:$AC$15))</f>
-        <v>0.32456140350877194</v>
-      </c>
-      <c r="R42" s="153">
+        <v>0.34888579881488802</v>
+      </c>
+      <c r="R42" s="132">
         <f>1-(AVERAGE(AD11:AD13)/AVERAGE($AD$14:$AD$15))</f>
-        <v>0.30952380952380953</v>
-      </c>
-      <c r="S42" s="148">
+        <v>0.33020162123614405</v>
+      </c>
+      <c r="S42" s="127">
         <f>D10/SUM(D6:D13)*M42</f>
         <v>1883.1510324012836</v>
       </c>
-      <c r="T42" s="148">
+      <c r="T42" s="127">
         <f>E10/SUM(E6:E13)*N42</f>
         <v>4632.7329122033843</v>
       </c>
-      <c r="U42" s="148">
+      <c r="U42" s="127">
         <f>F10/SUM(F6:F13)*O42</f>
         <v>1657.1445625134904</v>
       </c>
-      <c r="V42" s="153">
+      <c r="V42" s="132">
         <f>D10/SUM(D6:D13)*P42</f>
-        <v>7.9747752926539114E-2</v>
-      </c>
-      <c r="W42" s="153">
-        <f t="shared" ref="W42:X42" si="23">E10/SUM(E6:E13)*Q42</f>
-        <v>7.6832403560868096E-2</v>
-      </c>
-      <c r="X42" s="153">
-        <f t="shared" si="23"/>
-        <v>6.8590376956826238E-2</v>
+        <v>8.6985148229525189E-2</v>
+      </c>
+      <c r="W42" s="132">
+        <f t="shared" ref="W42:X42" si="24">E10/SUM(E6:E13)*Q42</f>
+        <v>8.2590641405322962E-2</v>
+      </c>
+      <c r="X42" s="132">
+        <f t="shared" si="24"/>
+        <v>7.3172573402951982E-2</v>
       </c>
     </row>
     <row r="43" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C43" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147">
+      <c r="C43" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126">
         <v>26211</v>
       </c>
-      <c r="F43" s="147">
+      <c r="F43" s="126">
         <v>6086</v>
       </c>
-      <c r="G43" s="147">
-        <f t="shared" si="14"/>
+      <c r="G43" s="126">
+        <f t="shared" si="16"/>
         <v>32297</v>
       </c>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147">
-        <f t="shared" si="15"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126">
+        <f t="shared" si="17"/>
         <v>32297</v>
       </c>
-      <c r="N43" s="147">
+      <c r="N43" s="126">
+        <f t="shared" si="18"/>
+        <v>35526.700000000004</v>
+      </c>
+      <c r="O43" s="126">
+        <f t="shared" si="19"/>
+        <v>29067.3</v>
+      </c>
+      <c r="P43" s="134">
+        <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$16:$AB$17))</f>
+        <v>0.72048950572088954</v>
+      </c>
+      <c r="Q43" s="134">
+        <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$16:$AC$17))</f>
+        <v>0.72567185426004643</v>
+      </c>
+      <c r="R43" s="134">
+        <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$16:$AD$17))</f>
+        <v>0.70737083673038015</v>
+      </c>
+      <c r="S43" s="125">
+        <f>SUM(D$11)/SUM(D$6:D$13)*M43</f>
+        <v>4362.2517866563512</v>
+      </c>
+      <c r="T43" s="125">
+        <f t="shared" ref="T43" si="25">SUM(E$11)/SUM(E$6:E$13)*N43</f>
+        <v>4107.3103757879071</v>
+      </c>
+      <c r="U43" s="125">
+        <f t="shared" ref="U43" si="26">SUM(F$11)/SUM(F$6:F$13)*O43</f>
+        <v>3794.7241279737277</v>
+      </c>
+      <c r="V43" s="133">
+        <f>SUM(D$11)/SUM(D$6:D$13)*P43</f>
+        <v>9.7314197405272987E-2</v>
+      </c>
+      <c r="W43" s="133">
+        <f t="shared" ref="W43" si="27">SUM(E$11)/SUM(E$6:E$13)*Q43</f>
+        <v>8.3896324072304435E-2</v>
+      </c>
+      <c r="X43" s="133">
+        <f t="shared" ref="X43" si="28">SUM(F$11)/SUM(F$6:F$13)*R43</f>
+        <v>9.234697345696842E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C44" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125">
+        <v>14978</v>
+      </c>
+      <c r="F44" s="125">
+        <v>5326</v>
+      </c>
+      <c r="G44" s="125">
         <f t="shared" si="16"/>
-        <v>35526.700000000004</v>
-      </c>
-      <c r="O43" s="147">
+        <v>20304</v>
+      </c>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125">
         <f t="shared" si="17"/>
-        <v>29067.3</v>
-      </c>
-      <c r="P43" s="155">
-        <f>1-(AVERAGE(AB5:AB7)/AVERAGE($AB$16:$AB$17))</f>
-        <v>0.8612903225806452</v>
-      </c>
-      <c r="Q43" s="155">
-        <f>1-(AVERAGE(AC5:AC7)/AVERAGE($AC$16:$AC$17))</f>
-        <v>0.86</v>
-      </c>
-      <c r="R43" s="155">
-        <f>1-(AVERAGE(AD5:AD7)/AVERAGE($AD$16:$AD$17))</f>
-        <v>0.86491228070175441</v>
-      </c>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-    </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C44" s="146" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146">
-        <v>14978</v>
-      </c>
-      <c r="F44" s="146">
-        <v>5326</v>
-      </c>
-      <c r="G44" s="146">
-        <f t="shared" si="14"/>
         <v>20304</v>
       </c>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146">
-        <f t="shared" si="15"/>
-        <v>20304</v>
-      </c>
-      <c r="N44" s="146">
+      <c r="N44" s="125">
+        <f t="shared" si="18"/>
+        <v>22334.400000000001</v>
+      </c>
+      <c r="O44" s="125">
+        <f t="shared" si="19"/>
+        <v>18273.600000000002</v>
+      </c>
+      <c r="P44" s="133">
+        <f>1-(AVERAGE(AB8:AB10)/AVERAGE($AB$16:$AB$17))</f>
+        <v>0.55168013743533795</v>
+      </c>
+      <c r="Q44" s="133">
+        <f>1-(AVERAGE(AC8:AC10)/AVERAGE($AC$16:$AC$17))</f>
+        <v>0.55418502202643172</v>
+      </c>
+      <c r="R44" s="133">
+        <f>1-(AVERAGE(AD8:AD10)/AVERAGE($AD$16:$AD$17))</f>
+        <v>0.5450946643717729</v>
+      </c>
+      <c r="S44" s="125">
+        <f>SUM(D$11)/SUM(D$6:D$13)*M44</f>
+        <v>2742.3958967170497</v>
+      </c>
+      <c r="T44" s="125">
+        <f t="shared" ref="T44:U44" si="29">SUM(E$11)/SUM(E$6:E$13)*N44</f>
+        <v>2582.1231033841427</v>
+      </c>
+      <c r="U44" s="125">
+        <f t="shared" si="29"/>
+        <v>2385.6110070402383</v>
+      </c>
+      <c r="V44" s="133">
+        <f>SUM(D$11)/SUM(D$6:D$13)*P44</f>
+        <v>7.4513659633715965E-2</v>
+      </c>
+      <c r="W44" s="133">
+        <f t="shared" ref="W44:X44" si="30">SUM(E$11)/SUM(E$6:E$13)*Q44</f>
+        <v>6.4070400320756282E-2</v>
+      </c>
+      <c r="X44" s="133">
+        <f t="shared" si="30"/>
+        <v>7.1161885518135765E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C45" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126">
+        <v>9361</v>
+      </c>
+      <c r="F45" s="126">
+        <v>4565</v>
+      </c>
+      <c r="G45" s="126">
         <f t="shared" si="16"/>
-        <v>22334.400000000001</v>
-      </c>
-      <c r="O44" s="146">
-        <f t="shared" si="17"/>
-        <v>18273.600000000002</v>
-      </c>
-      <c r="P44" s="154">
-        <f>1-(AVERAGE(AB8:AB10)/AVERAGE($AB$16:$AB$17))</f>
-        <v>0.69408602150537635</v>
-      </c>
-      <c r="Q44" s="154">
-        <f>1-(AVERAGE(AC8:AC10)/AVERAGE($AC$16:$AC$17))</f>
-        <v>0.69333333333333336</v>
-      </c>
-      <c r="R44" s="154">
-        <f>1-(AVERAGE(AD8:AD10)/AVERAGE($AD$16:$AD$17))</f>
-        <v>0.7</v>
-      </c>
-      <c r="S44" s="146">
-        <f>SUM(D11)/SUM(D6:D13)*M44</f>
-        <v>2742.3958967170497</v>
-      </c>
-      <c r="T44" s="146">
-        <f t="shared" ref="T44:U44" si="24">SUM(E11)/SUM(E6:E13)*N44</f>
-        <v>2582.1231033841427</v>
-      </c>
-      <c r="U44" s="146">
-        <f t="shared" si="24"/>
-        <v>2385.6110070402383</v>
-      </c>
-      <c r="V44" s="154">
-        <f>SUM(D11)/SUM(D6:D13)*P44</f>
-        <v>9.3747963817228427E-2</v>
-      </c>
-      <c r="W44" s="154">
-        <f t="shared" ref="W44:X44" si="25">SUM(E11)/SUM(E6:E13)*Q44</f>
-        <v>8.0157605234362189E-2</v>
-      </c>
-      <c r="X44" s="154">
-        <f t="shared" si="25"/>
-        <v>9.1384713736109291E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C45" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147">
-        <v>9361</v>
-      </c>
-      <c r="F45" s="147">
-        <v>4565</v>
-      </c>
-      <c r="G45" s="147">
-        <f t="shared" si="14"/>
         <v>13926</v>
       </c>
-      <c r="H45" s="147">
+      <c r="H45" s="126">
         <f>H46+12600</f>
         <v>24800</v>
       </c>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147">
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126">
         <v>15500</v>
       </c>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147">
-        <f t="shared" ref="M45:M57" si="26">AVERAGE(G45:I45)</f>
+      <c r="L45" s="126"/>
+      <c r="M45" s="126">
+        <f t="shared" ref="M45:M57" si="31">AVERAGE(G45:I45)</f>
         <v>19363</v>
       </c>
-      <c r="N45" s="147">
+      <c r="N45" s="126">
+        <f t="shared" si="18"/>
+        <v>15409.3</v>
+      </c>
+      <c r="O45" s="126">
+        <f t="shared" si="19"/>
+        <v>12533.4</v>
+      </c>
+      <c r="P45" s="134">
+        <f>1-(AVERAGE(AB11:AB13)/AVERAGE($AB$16:$AB$17))</f>
+        <v>0.51701141372756654</v>
+      </c>
+      <c r="Q45" s="134">
+        <f>1-(AVERAGE(AC11:AC13)/AVERAGE($AC$16:$AC$17))</f>
+        <v>0.51410882247886636</v>
+      </c>
+      <c r="R45" s="134">
+        <f>1-(AVERAGE(AD11:AD13)/AVERAGE($AD$16:$AD$17))</f>
+        <v>0.51897955179312949</v>
+      </c>
+      <c r="S45" s="125">
+        <f>SUM(D$11)/SUM(D$6:D$13)*M45</f>
+        <v>2615.298056941107</v>
+      </c>
+      <c r="T45" s="125">
+        <f t="shared" ref="T45" si="32">SUM(E$11)/SUM(E$6:E$13)*N45</f>
+        <v>1781.4989226026787</v>
+      </c>
+      <c r="U45" s="125">
+        <f t="shared" ref="U45" si="33">SUM(F$11)/SUM(F$6:F$13)*O45</f>
+        <v>1636.2302444859317</v>
+      </c>
+      <c r="V45" s="133">
+        <f>SUM(D$11)/SUM(D$6:D$13)*P45</f>
+        <v>6.9831066763315575E-2</v>
+      </c>
+      <c r="W45" s="133">
+        <f t="shared" ref="W45" si="34">SUM(E$11)/SUM(E$6:E$13)*Q45</f>
+        <v>5.9437113518890035E-2</v>
+      </c>
+      <c r="X45" s="133">
+        <f t="shared" ref="X45" si="35">SUM(F$11)/SUM(F$6:F$13)*R45</f>
+        <v>6.7752568250727771E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C46" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127">
+        <v>9361</v>
+      </c>
+      <c r="F46" s="127">
+        <v>3804</v>
+      </c>
+      <c r="G46" s="127">
         <f t="shared" si="16"/>
-        <v>15409.3</v>
-      </c>
-      <c r="O45" s="147">
-        <f t="shared" si="17"/>
-        <v>12533.4</v>
-      </c>
-      <c r="P45" s="155">
-        <f>1-(AVERAGE(AB11:AB13)/AVERAGE($AB$16:$AB$17))</f>
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="Q45" s="155">
-        <f>1-(AVERAGE(AC11:AC13)/AVERAGE($AC$16:$AC$17))</f>
-        <v>0.48666666666666669</v>
-      </c>
-      <c r="R45" s="155">
-        <f>1-(AVERAGE(AD11:AD13)/AVERAGE($AD$16:$AD$17))</f>
-        <v>0.49122807017543857</v>
-      </c>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-    </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C46" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148">
-        <v>9361</v>
-      </c>
-      <c r="F46" s="148">
-        <v>3804</v>
-      </c>
-      <c r="G46" s="148">
-        <f t="shared" si="14"/>
         <v>13165</v>
       </c>
-      <c r="H46" s="148">
+      <c r="H46" s="127">
         <v>12200</v>
       </c>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148">
+      <c r="I46" s="127"/>
+      <c r="J46" s="127">
         <v>14000</v>
       </c>
-      <c r="K46" s="148">
+      <c r="K46" s="127">
         <v>2000</v>
       </c>
-      <c r="L46" s="148"/>
-      <c r="M46" s="148">
-        <f t="shared" si="26"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127">
+        <f t="shared" si="31"/>
         <v>12682.5</v>
       </c>
-      <c r="N46" s="148">
-        <f t="shared" si="16"/>
+      <c r="N46" s="127">
+        <f t="shared" si="18"/>
         <v>10160.5</v>
       </c>
-      <c r="O46" s="148">
-        <f t="shared" si="17"/>
+      <c r="O46" s="127">
+        <f t="shared" si="19"/>
         <v>11848.5</v>
       </c>
-      <c r="P46" s="153">
+      <c r="P46" s="132">
         <f>1-(AVERAGE(AB14:AB15)/AVERAGE($AB$16:$AB$17))</f>
-        <v>0.24193548387096775</v>
-      </c>
-      <c r="Q46" s="153">
+        <v>0.25909172166928174</v>
+      </c>
+      <c r="Q46" s="132">
         <f>1-(AVERAGE(AC14:AC15)/AVERAGE($AC$16:$AC$17))</f>
-        <v>0.24</v>
-      </c>
-      <c r="R46" s="153">
+        <v>0.25375429281568596</v>
+      </c>
+      <c r="R46" s="132">
         <f>1-(AVERAGE(AD14:AD15)/AVERAGE($AD$16:$AD$17))</f>
-        <v>0.26315789473684215</v>
-      </c>
-      <c r="S46" s="148">
+        <v>0.28184291951465146</v>
+      </c>
+      <c r="S46" s="127">
         <f>D11/SUM(D6:D13)*M46</f>
         <v>1712.9844345997824</v>
       </c>
-      <c r="T46" s="148">
+      <c r="T46" s="127">
         <f>E11/SUM(E6:E13)*N46</f>
         <v>1174.67502113039</v>
       </c>
-      <c r="U46" s="148">
+      <c r="U46" s="127">
         <f>F11/SUM(F6:F13)*O46</f>
         <v>1546.8168295747014</v>
       </c>
-      <c r="V46" s="153">
+      <c r="V46" s="132">
         <f>D11/SUM(D6:D13)*P46</f>
-        <v>3.2677446721729508E-2</v>
-      </c>
-      <c r="W46" s="153">
-        <f t="shared" ref="W46:X46" si="27">E11/SUM(E6:E13)*Q46</f>
-        <v>2.774686335035614E-2</v>
-      </c>
-      <c r="X46" s="153">
-        <f t="shared" si="27"/>
-        <v>3.4355155539890714E-2</v>
+        <v>3.4994684514341713E-2</v>
+      </c>
+      <c r="W46" s="132">
+        <f t="shared" ref="W46:X46" si="36">E11/SUM(E6:E13)*Q46</f>
+        <v>2.9337023697179571E-2</v>
+      </c>
+      <c r="X46" s="132">
+        <f t="shared" si="36"/>
+        <v>3.6794477883422452E-2</v>
       </c>
     </row>
     <row r="47" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C47" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147">
+      <c r="C47" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126">
         <v>28083</v>
       </c>
-      <c r="F47" s="147">
+      <c r="F47" s="126">
         <v>6086</v>
       </c>
-      <c r="G47" s="147">
-        <f t="shared" si="14"/>
+      <c r="G47" s="126">
+        <f t="shared" si="16"/>
         <v>34169</v>
       </c>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147">
-        <f t="shared" si="26"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="126">
+        <f t="shared" si="31"/>
         <v>34169</v>
       </c>
-      <c r="N47" s="147">
+      <c r="N47" s="126">
+        <f t="shared" si="18"/>
+        <v>37585.9</v>
+      </c>
+      <c r="O47" s="126">
+        <f t="shared" si="19"/>
+        <v>30752.100000000002</v>
+      </c>
+      <c r="P47" s="134">
+        <f>1-(AVERAGE(AB5:AB7)/$AB$18)</f>
+        <v>0.7842125554199062</v>
+      </c>
+      <c r="Q47" s="134">
+        <f>1-(AVERAGE(AC5:AC7)/$AC$18)</f>
+        <v>0.78572817895429459</v>
+      </c>
+      <c r="R47" s="134">
+        <f>1-(AVERAGE(AD5:AD7)/$AD$18)</f>
+        <v>0.77453416149068322</v>
+      </c>
+      <c r="S47" s="125">
+        <f>SUM(D$12)/SUM(D$6:D$13)*M47</f>
+        <v>2280.8985892319106</v>
+      </c>
+      <c r="T47" s="125">
+        <f t="shared" ref="T47" si="37">SUM(E$12)/SUM(E$6:E$13)*N47</f>
+        <v>2308.4294549566052</v>
+      </c>
+      <c r="U47" s="125">
+        <f t="shared" ref="U47" si="38">SUM(F$12)/SUM(F$6:F$13)*O47</f>
+        <v>1921.2154160116083</v>
+      </c>
+      <c r="V47" s="133">
+        <f>SUM(D$12)/SUM(D$6:D$13)*P47</f>
+        <v>5.2348892601926177E-2</v>
+      </c>
+      <c r="W47" s="133">
+        <f t="shared" ref="W47" si="39">SUM(E$12)/SUM(E$6:E$13)*Q47</f>
+        <v>4.8257406950146416E-2</v>
+      </c>
+      <c r="X47" s="133">
+        <f t="shared" ref="X47" si="40">SUM(F$12)/SUM(F$6:F$13)*R47</f>
+        <v>4.8388466845630869E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C48" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125">
+        <v>16850</v>
+      </c>
+      <c r="F48" s="125">
+        <v>5326</v>
+      </c>
+      <c r="G48" s="125">
         <f t="shared" si="16"/>
-        <v>37585.9</v>
-      </c>
-      <c r="O47" s="147">
-        <f t="shared" si="17"/>
-        <v>30752.100000000002</v>
-      </c>
-      <c r="P47" s="155">
-        <f>1-(AVERAGE(AB5:AB7)/$AB$18)</f>
-        <v>0.89113924050632909</v>
-      </c>
-      <c r="Q47" s="155">
-        <f>1-(AVERAGE(AC5:AC7)/$AC$18)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="R47" s="155">
-        <f>1-(AVERAGE(AD5:AD7)/$AD$18)</f>
-        <v>0.89305555555555549</v>
-      </c>
-      <c r="S47" s="147"/>
-      <c r="T47" s="147"/>
-      <c r="U47" s="147"/>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C48" s="146" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146">
-        <v>16850</v>
-      </c>
-      <c r="F48" s="146">
-        <v>5326</v>
-      </c>
-      <c r="G48" s="146">
-        <f t="shared" si="14"/>
         <v>22176</v>
       </c>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146">
-        <f t="shared" si="26"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125">
+        <f t="shared" si="31"/>
         <v>22176</v>
       </c>
-      <c r="N48" s="146">
+      <c r="N48" s="125">
+        <f t="shared" si="18"/>
+        <v>24393.600000000002</v>
+      </c>
+      <c r="O48" s="125">
+        <f t="shared" si="19"/>
+        <v>19958.400000000001</v>
+      </c>
+      <c r="P48" s="133">
+        <f>1-(AVERAGE(AB8:AB10)/$AB$18)</f>
+        <v>0.65388849621966627</v>
+      </c>
+      <c r="Q48" s="133">
+        <f>1-(AVERAGE(AC8:AC10)/$AC$18)</f>
+        <v>0.65178349847339401</v>
+      </c>
+      <c r="R48" s="133">
+        <f>1-(AVERAGE(AD8:AD10)/$AD$18)</f>
+        <v>0.64950310559006208</v>
+      </c>
+      <c r="S48" s="125">
+        <f>SUM(D$12)/SUM(D$6:D$13)*M48</f>
+        <v>1480.3244787616509</v>
+      </c>
+      <c r="T48" s="125">
+        <f t="shared" ref="T48:U48" si="41">SUM(E$12)/SUM(E$6:E$13)*N48</f>
+        <v>1498.1922676437027</v>
+      </c>
+      <c r="U48" s="125">
+        <f t="shared" si="41"/>
+        <v>1246.8867413583491</v>
+      </c>
+      <c r="V48" s="133">
+        <f>SUM(D$12)/SUM(D$6:D$13)*P48</f>
+        <v>4.3649312199432591E-2</v>
+      </c>
+      <c r="W48" s="133">
+        <f t="shared" ref="W48:X48" si="42">SUM(E$12)/SUM(E$6:E$13)*Q48</f>
+        <v>4.0030868653687851E-2</v>
+      </c>
+      <c r="X48" s="133">
+        <f t="shared" si="42"/>
+        <v>4.0577241203268805E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C49" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126">
+        <v>11233</v>
+      </c>
+      <c r="F49" s="126">
+        <v>4565</v>
+      </c>
+      <c r="G49" s="126">
         <f t="shared" si="16"/>
-        <v>24393.600000000002</v>
-      </c>
-      <c r="O48" s="146">
-        <f t="shared" si="17"/>
-        <v>19958.400000000001</v>
-      </c>
-      <c r="P48" s="154">
-        <f>1-(AVERAGE(AB8:AB10)/$AB$18)</f>
-        <v>0.75991561181434597</v>
-      </c>
-      <c r="Q48" s="154">
-        <f>1-(AVERAGE(AC8:AC10)/$AC$18)</f>
-        <v>0.75661375661375663</v>
-      </c>
-      <c r="R48" s="154">
-        <f>1-(AVERAGE(AD8:AD10)/$AD$18)</f>
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="S48" s="146">
-        <f>SUM(D12)/SUM(D6:D13)*M48</f>
-        <v>1480.3244787616509</v>
-      </c>
-      <c r="T48" s="146">
-        <f t="shared" ref="T48:U48" si="28">SUM(E12)/SUM(E6:E13)*N48</f>
-        <v>1498.1922676437027</v>
-      </c>
-      <c r="U48" s="146">
-        <f t="shared" si="28"/>
-        <v>1246.8867413583491</v>
-      </c>
-      <c r="V48" s="154">
-        <f>SUM(D12)/SUM(D6:D13)*P48</f>
-        <v>5.0726987822957821E-2</v>
-      </c>
-      <c r="W48" s="154">
-        <f t="shared" ref="W48:X48" si="29">SUM(E12)/SUM(E6:E13)*Q48</f>
-        <v>4.6469273897726641E-2</v>
-      </c>
-      <c r="X48" s="154">
-        <f t="shared" si="29"/>
-        <v>4.7636641228041378E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C49" s="147" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147">
-        <v>11233</v>
-      </c>
-      <c r="F49" s="147">
-        <v>4565</v>
-      </c>
-      <c r="G49" s="147">
-        <f t="shared" si="14"/>
         <v>15798</v>
       </c>
-      <c r="H49" s="147">
+      <c r="H49" s="126">
         <v>11000</v>
       </c>
-      <c r="I49" s="147"/>
-      <c r="J49" s="147">
+      <c r="I49" s="126"/>
+      <c r="J49" s="126">
         <f>J50+16375</f>
         <v>35375</v>
       </c>
-      <c r="K49" s="147"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147">
-        <f t="shared" si="26"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126">
+        <f t="shared" si="31"/>
         <v>13399</v>
       </c>
-      <c r="N49" s="147">
+      <c r="N49" s="126">
+        <f t="shared" si="18"/>
+        <v>26376.400000000001</v>
+      </c>
+      <c r="O49" s="126">
+        <f t="shared" si="19"/>
+        <v>14218.2</v>
+      </c>
+      <c r="P49" s="134">
+        <f>1-(AVERAGE(AB11:AB13)/$AB$18)</f>
+        <v>0.62712357880557112</v>
+      </c>
+      <c r="Q49" s="134">
+        <f>1-(AVERAGE(AC11:AC13)/$AC$18)</f>
+        <v>0.62048083999303505</v>
+      </c>
+      <c r="R49" s="134">
+        <f>1-(AVERAGE(AD11:AD13)/$AD$18)</f>
+        <v>0.62938185147608328</v>
+      </c>
+      <c r="S49" s="125">
+        <f>SUM(D$12)/SUM(D$6:D$13)*M49</f>
+        <v>894.42945936721503</v>
+      </c>
+      <c r="T49" s="125">
+        <f t="shared" ref="T49:T50" si="43">SUM(E$12)/SUM(E$6:E$13)*N49</f>
+        <v>1619.9707516839401</v>
+      </c>
+      <c r="U49" s="125">
+        <f t="shared" ref="U49:U50" si="44">SUM(F$12)/SUM(F$6:F$13)*O49</f>
+        <v>888.27185876529575</v>
+      </c>
+      <c r="V49" s="133">
+        <f>SUM(D$12)/SUM(D$6:D$13)*P49</f>
+        <v>4.1862661657399811E-2</v>
+      </c>
+      <c r="W49" s="133">
+        <f t="shared" ref="W49:W50" si="45">SUM(E$12)/SUM(E$6:E$13)*Q49</f>
+        <v>3.8108339757093442E-2</v>
+      </c>
+      <c r="X49" s="133">
+        <f t="shared" ref="X49:X50" si="46">SUM(F$12)/SUM(F$6:F$13)*R49</f>
+        <v>3.9320180267811942E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C50" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126">
+        <v>7489</v>
+      </c>
+      <c r="F50" s="126">
+        <v>3804</v>
+      </c>
+      <c r="G50" s="126">
         <f t="shared" si="16"/>
-        <v>26376.400000000001</v>
-      </c>
-      <c r="O49" s="147">
-        <f t="shared" si="17"/>
-        <v>14218.2</v>
-      </c>
-      <c r="P49" s="155">
-        <f>1-(AVERAGE(AB11:AB13)/$AB$18)</f>
-        <v>0.59493670886075956</v>
-      </c>
-      <c r="Q49" s="155">
-        <f>1-(AVERAGE(AC11:AC13)/$AC$18)</f>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="R49" s="155">
-        <f>1-(AVERAGE(AD11:AD13)/$AD$18)</f>
-        <v>0.59722222222222232</v>
-      </c>
-      <c r="S49" s="147"/>
-      <c r="T49" s="147"/>
-      <c r="U49" s="147"/>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C50" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147">
-        <v>7489</v>
-      </c>
-      <c r="F50" s="147">
-        <v>3804</v>
-      </c>
-      <c r="G50" s="147">
-        <f t="shared" si="14"/>
         <v>11293</v>
       </c>
-      <c r="H50" s="147">
+      <c r="H50" s="126">
         <v>9000</v>
       </c>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147">
+      <c r="I50" s="126"/>
+      <c r="J50" s="126">
         <v>19000</v>
       </c>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147">
-        <f t="shared" si="26"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="126"/>
+      <c r="M50" s="126">
+        <f t="shared" si="31"/>
         <v>10146.5</v>
       </c>
-      <c r="N50" s="147">
+      <c r="N50" s="126">
+        <f t="shared" si="18"/>
+        <v>15711.150000000001</v>
+      </c>
+      <c r="O50" s="126">
+        <f t="shared" si="19"/>
+        <v>10163.700000000001</v>
+      </c>
+      <c r="P50" s="134">
+        <f>1-(AVERAGE(AB14:AB15)/$AB$18)</f>
+        <v>0.42800464625999812</v>
+      </c>
+      <c r="Q50" s="134">
+        <f>1-(AVERAGE(AC14:AC15)/$AC$18)</f>
+        <v>0.41712351025950434</v>
+      </c>
+      <c r="R50" s="134">
+        <f>1-(AVERAGE(AD14:AD15)/$AD$18)</f>
+        <v>0.44667207285883592</v>
+      </c>
+      <c r="S50" s="125">
+        <f>SUM(D$12)/SUM(D$6:D$13)*M50</f>
+        <v>677.31386741319852</v>
+      </c>
+      <c r="T50" s="125">
+        <f t="shared" si="43"/>
+        <v>964.93848574176673</v>
+      </c>
+      <c r="U50" s="125">
+        <f t="shared" si="44"/>
+        <v>634.96987599927104</v>
+      </c>
+      <c r="V50" s="133">
+        <f>SUM(D$12)/SUM(D$6:D$13)*P50</f>
+        <v>2.857078620501427E-2</v>
+      </c>
+      <c r="W50" s="133">
+        <f t="shared" si="45"/>
+        <v>2.5618654799750264E-2</v>
+      </c>
+      <c r="X50" s="133">
+        <f t="shared" si="46"/>
+        <v>2.7905517746048429E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C51" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127">
+        <v>5617</v>
+      </c>
+      <c r="F51" s="127">
+        <v>3043</v>
+      </c>
+      <c r="G51" s="127">
         <f t="shared" si="16"/>
-        <v>15711.150000000001</v>
-      </c>
-      <c r="O50" s="147">
-        <f t="shared" si="17"/>
-        <v>10163.700000000001</v>
-      </c>
-      <c r="P50" s="155">
-        <f>1-(AVERAGE(AB14:AB15)/$AB$18)</f>
-        <v>0.40506329113924056</v>
-      </c>
-      <c r="Q50" s="155">
-        <f>1-(AVERAGE(AC14:AC15)/$AC$18)</f>
-        <v>0.39682539682539686</v>
-      </c>
-      <c r="R50" s="155">
-        <f>1-(AVERAGE(AD14:AD15)/$AD$18)</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C51" s="148" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148">
-        <v>5617</v>
-      </c>
-      <c r="F51" s="148">
-        <v>3043</v>
-      </c>
-      <c r="G51" s="148">
-        <f t="shared" si="14"/>
         <v>8660</v>
       </c>
-      <c r="H51" s="148">
+      <c r="H51" s="127">
         <v>1000</v>
       </c>
-      <c r="I51" s="148"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148">
-        <f t="shared" si="26"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127">
+        <f t="shared" si="31"/>
         <v>4830</v>
       </c>
-      <c r="N51" s="148">
-        <f t="shared" si="16"/>
+      <c r="N51" s="127">
+        <f t="shared" si="18"/>
         <v>9526</v>
       </c>
-      <c r="O51" s="148">
-        <f t="shared" si="17"/>
+      <c r="O51" s="127">
+        <f t="shared" si="19"/>
         <v>7794</v>
       </c>
-      <c r="P51" s="153">
+      <c r="P51" s="132">
         <f>1-(AVERAGE(AB16:AB17)/$AB$18)</f>
-        <v>0.21518987341772156</v>
-      </c>
-      <c r="Q51" s="153">
+        <v>0.2279808844507456</v>
+      </c>
+      <c r="Q51" s="132">
         <f>1-(AVERAGE(AC16:AC17)/$AC$18)</f>
-        <v>0.20634920634920639</v>
-      </c>
-      <c r="R51" s="153">
+        <v>0.21892148372984621</v>
+      </c>
+      <c r="R51" s="132">
         <f>1-(AVERAGE(AD16:AD17)/$AD$18)</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="S51" s="148">
+        <v>0.22951685337807815</v>
+      </c>
+      <c r="S51" s="127">
         <f>D12/SUM(D6:D13)*M51</f>
         <v>322.41915730604137</v>
       </c>
-      <c r="T51" s="148">
+      <c r="T51" s="127">
         <f>E12/SUM(E6:E13)*N51</f>
         <v>585.0624566105007</v>
       </c>
-      <c r="U51" s="148">
+      <c r="U51" s="127">
         <f>F12/SUM(F6:F13)*O51</f>
         <v>486.9245662050551</v>
       </c>
-      <c r="V51" s="153">
+      <c r="V51" s="132">
         <f>D12/SUM(D6:D13)*P51</f>
-        <v>1.4364666179738198E-2</v>
-      </c>
-      <c r="W51" s="153">
-        <f t="shared" ref="W51:X51" si="30">E12/SUM(E6:E13)*Q51</f>
-        <v>1.2673438335743631E-2</v>
-      </c>
-      <c r="X51" s="153">
-        <f t="shared" si="30"/>
-        <v>1.30154757453665E-2</v>
+        <v>1.5218510278777514E-2</v>
+      </c>
+      <c r="W51" s="132">
+        <f t="shared" ref="W51:X51" si="47">E12/SUM(E6:E13)*Q51</f>
+        <v>1.344559532603397E-2</v>
+      </c>
+      <c r="X51" s="132">
+        <f t="shared" si="47"/>
+        <v>1.4338900983817031E-2</v>
       </c>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C52" s="147" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147">
+      <c r="C52" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126">
         <v>29955</v>
       </c>
-      <c r="F52" s="147">
+      <c r="F52" s="126">
         <v>6086</v>
       </c>
-      <c r="G52" s="147">
-        <f t="shared" si="14"/>
+      <c r="G52" s="126">
+        <f t="shared" si="16"/>
         <v>36041</v>
       </c>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147">
-        <f t="shared" si="26"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="126">
+        <f t="shared" si="31"/>
         <v>36041</v>
       </c>
-      <c r="N52" s="147">
+      <c r="N52" s="126">
+        <f t="shared" si="18"/>
+        <v>39645.100000000006</v>
+      </c>
+      <c r="O52" s="126">
+        <f t="shared" si="19"/>
+        <v>32436.9</v>
+      </c>
+      <c r="P52" s="134">
+        <f>1-(AVERAGE(AB5:AB7)/$AB$19)</f>
+        <v>0.7811838232063617</v>
+      </c>
+      <c r="Q52" s="134">
+        <f>1-(AVERAGE(AC5:AC7)/$AC$19)</f>
+        <v>0.78546190139049687</v>
+      </c>
+      <c r="R52" s="134">
+        <f>1-(AVERAGE(AD5:AD7)/$AD$19)</f>
+        <v>0.78259796027911965</v>
+      </c>
+      <c r="S52" s="125"/>
+      <c r="T52" s="125"/>
+      <c r="U52" s="125"/>
+      <c r="V52" s="133"/>
+      <c r="W52" s="133"/>
+      <c r="X52" s="133"/>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C53" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125">
+        <v>16850</v>
+      </c>
+      <c r="F53" s="125">
+        <v>5326</v>
+      </c>
+      <c r="G53" s="125">
         <f t="shared" si="16"/>
-        <v>39645.100000000006</v>
-      </c>
-      <c r="O52" s="147">
-        <f t="shared" si="17"/>
-        <v>32436.9</v>
-      </c>
-      <c r="P52" s="155">
-        <f>1-(AVERAGE(AB5:AB7)/$AB$19)</f>
-        <v>0.91313131313131313</v>
-      </c>
-      <c r="Q52" s="155">
-        <f>1-(AVERAGE(AC5:AC7)/$AC$19)</f>
-        <v>0.91139240506329111</v>
-      </c>
-      <c r="R52" s="155">
-        <f>1-(AVERAGE(AD5:AD7)/$AD$19)</f>
-        <v>0.91444444444444439</v>
-      </c>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C53" s="146" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146">
-        <v>16850</v>
-      </c>
-      <c r="F53" s="146">
-        <v>5326</v>
-      </c>
-      <c r="G53" s="146">
-        <f t="shared" si="14"/>
         <v>22176</v>
       </c>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="146">
-        <f t="shared" si="26"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125">
+        <f t="shared" si="31"/>
         <v>22176</v>
       </c>
-      <c r="N53" s="146">
+      <c r="N53" s="125">
+        <f t="shared" si="18"/>
+        <v>24393.600000000002</v>
+      </c>
+      <c r="O53" s="125">
+        <f t="shared" si="19"/>
+        <v>19958.400000000001</v>
+      </c>
+      <c r="P53" s="133">
+        <f>1-(AVERAGE(AB8:AB10)/$AB$19)</f>
+        <v>0.64903057196453795</v>
+      </c>
+      <c r="Q53" s="133">
+        <f>1-(AVERAGE(AC8:AC10)/$AC$19)</f>
+        <v>0.6513507666225693</v>
+      </c>
+      <c r="R53" s="133">
+        <f>1-(AVERAGE(AD8:AD10)/$AD$19)</f>
+        <v>0.66203864734299511</v>
+      </c>
+      <c r="S53" s="125">
+        <f>SUM(D$13)/SUM(D$6:D$13)*M48</f>
+        <v>1556.6052637176085</v>
+      </c>
+      <c r="T53" s="125">
+        <f t="shared" ref="T53:U53" si="48">SUM(E$13)/SUM(E$6:E$13)*N48</f>
+        <v>2717.5942751454008</v>
+      </c>
+      <c r="U53" s="125">
+        <f t="shared" si="48"/>
+        <v>1538.1025473834977</v>
+      </c>
+      <c r="V53" s="133">
+        <f>SUM(D$13)/SUM(D$6:D$13)*P53</f>
+        <v>4.5557557929006579E-2</v>
+      </c>
+      <c r="W53" s="133">
+        <f t="shared" ref="W53:X53" si="49">SUM(E$13)/SUM(E$6:E$13)*Q53</f>
+        <v>7.2564406831507527E-2</v>
+      </c>
+      <c r="X53" s="133">
+        <f t="shared" si="49"/>
+        <v>5.1020288697720552E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C54" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126">
+        <v>11233</v>
+      </c>
+      <c r="F54" s="126">
+        <v>4565</v>
+      </c>
+      <c r="G54" s="126">
         <f t="shared" si="16"/>
-        <v>24393.600000000002</v>
-      </c>
-      <c r="O53" s="146">
-        <f t="shared" si="17"/>
-        <v>19958.400000000001</v>
-      </c>
-      <c r="P53" s="154">
-        <f>1-(AVERAGE(AB8:AB10)/$AB$19)</f>
-        <v>0.80841750841750848</v>
-      </c>
-      <c r="Q53" s="154">
-        <f>1-(AVERAGE(AC8:AC10)/$AC$19)</f>
-        <v>0.80590717299578063</v>
-      </c>
-      <c r="R53" s="154">
-        <f>1-(AVERAGE(AD8:AD10)/$AD$19)</f>
-        <v>0.81</v>
-      </c>
-      <c r="S53" s="146">
-        <f>SUM(D13)/SUM(D6:D13)*M48</f>
-        <v>1556.6052637176085</v>
-      </c>
-      <c r="T53" s="146">
-        <f t="shared" ref="T53:U53" si="31">SUM(E13)/SUM(E6:E13)*N48</f>
-        <v>2717.5942751454008</v>
-      </c>
-      <c r="U53" s="146">
+        <v>15798</v>
+      </c>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126">
+        <v>23500</v>
+      </c>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126">
+        <v>8100</v>
+      </c>
+      <c r="M54" s="126">
         <f t="shared" si="31"/>
-        <v>1538.1025473834977</v>
-      </c>
-      <c r="V53" s="154">
-        <f>SUM(D13)/SUM(D6:D13)*P53</f>
-        <v>5.6745443221688667E-2</v>
-      </c>
-      <c r="W53" s="154">
-        <f t="shared" ref="W53:X53" si="32">SUM(E13)/SUM(E6:E13)*Q53</f>
-        <v>8.9782923374653489E-2</v>
-      </c>
-      <c r="X53" s="154">
-        <f t="shared" si="32"/>
-        <v>6.2422992994460136E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C54" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147">
-        <v>11233</v>
-      </c>
-      <c r="F54" s="147">
-        <v>4565</v>
-      </c>
-      <c r="G54" s="147">
-        <f t="shared" si="14"/>
-        <v>15798</v>
-      </c>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147">
-        <v>23500</v>
-      </c>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147">
-        <v>8100</v>
-      </c>
-      <c r="M54" s="147">
-        <f t="shared" si="26"/>
         <v>19649</v>
       </c>
-      <c r="N54" s="147">
+      <c r="N54" s="126">
+        <f t="shared" si="18"/>
+        <v>17377.800000000003</v>
+      </c>
+      <c r="O54" s="126">
+        <f t="shared" si="19"/>
+        <v>11159.1</v>
+      </c>
+      <c r="P54" s="134">
+        <f>1-(AVERAGE(AB11:AB13)/$AB$19)</f>
+        <v>0.6218899896561173</v>
+      </c>
+      <c r="Q54" s="134">
+        <f>1-(AVERAGE(AC11:AC13)/$AC$19)</f>
+        <v>0.62000920804046178</v>
+      </c>
+      <c r="R54" s="134">
+        <f>1-(AVERAGE(AD11:AD13)/$AD$19)</f>
+        <v>0.64263703104917957</v>
+      </c>
+      <c r="S54" s="125">
+        <f>SUM(D$13)/SUM(D$6:D$13)*M49</f>
+        <v>940.51920673485915</v>
+      </c>
+      <c r="T54" s="125">
+        <f t="shared" ref="T54:T56" si="50">SUM(E$13)/SUM(E$6:E$13)*N49</f>
+        <v>2938.4901629503288</v>
+      </c>
+      <c r="U54" s="125">
+        <f t="shared" ref="U54:U56" si="51">SUM(F$13)/SUM(F$6:F$13)*O49</f>
+        <v>1095.7316036960901</v>
+      </c>
+      <c r="V54" s="133">
+        <f t="shared" ref="V54:V56" si="52">SUM(D$13)/SUM(D$6:D$13)*P54</f>
+        <v>4.3652472553751862E-2</v>
+      </c>
+      <c r="W54" s="133">
+        <f t="shared" ref="W54:W56" si="53">SUM(E$13)/SUM(E$6:E$13)*Q54</f>
+        <v>6.907276803375445E-2</v>
+      </c>
+      <c r="X54" s="133">
+        <f t="shared" ref="X54:X56" si="54">SUM(F$13)/SUM(F$6:F$13)*R54</f>
+        <v>4.9525094922424191E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C55" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126">
+        <v>7489</v>
+      </c>
+      <c r="F55" s="126">
+        <v>3804</v>
+      </c>
+      <c r="G55" s="126">
         <f t="shared" si="16"/>
-        <v>17377.800000000003</v>
-      </c>
-      <c r="O54" s="147">
-        <f t="shared" si="17"/>
-        <v>11159.1</v>
-      </c>
-      <c r="P54" s="155">
-        <f>1-(AVERAGE(AB11:AB13)/$AB$19)</f>
-        <v>0.67676767676767668</v>
-      </c>
-      <c r="Q54" s="155">
-        <f>1-(AVERAGE(AC11:AC13)/$AC$19)</f>
-        <v>0.67510548523206748</v>
-      </c>
-      <c r="R54" s="155">
-        <f>1-(AVERAGE(AD11:AD13)/$AD$19)</f>
-        <v>0.67777777777777781</v>
-      </c>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C55" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147">
-        <v>7489</v>
-      </c>
-      <c r="F55" s="147">
-        <v>3804</v>
-      </c>
-      <c r="G55" s="147">
-        <f t="shared" si="14"/>
         <v>11293</v>
       </c>
-      <c r="H55" s="147">
+      <c r="H55" s="126">
         <v>24000</v>
       </c>
-      <c r="I55" s="147">
+      <c r="I55" s="126">
         <v>21300</v>
       </c>
-      <c r="J55" s="147">
+      <c r="J55" s="126">
         <f>J56+5184</f>
         <v>31284</v>
       </c>
-      <c r="K55" s="147"/>
-      <c r="L55" s="147">
+      <c r="K55" s="126"/>
+      <c r="L55" s="126">
         <v>4400</v>
       </c>
-      <c r="M55" s="147">
-        <f t="shared" si="26"/>
+      <c r="M55" s="126">
+        <f t="shared" si="31"/>
         <v>18864.333333333332</v>
       </c>
-      <c r="N55" s="147">
+      <c r="N55" s="126">
+        <f t="shared" si="18"/>
+        <v>21853.15</v>
+      </c>
+      <c r="O55" s="126">
+        <f t="shared" si="19"/>
+        <v>7281.85</v>
+      </c>
+      <c r="P55" s="134">
+        <f>1-(AVERAGE(AB14:AB15)/$AB$19)</f>
+        <v>0.41997627946951466</v>
+      </c>
+      <c r="Q55" s="134">
+        <f>1-(AVERAGE(AC14:AC15)/$AC$19)</f>
+        <v>0.41639916428192481</v>
+      </c>
+      <c r="R55" s="134">
+        <f>1-(AVERAGE(AD14:AD15)/$AD$19)</f>
+        <v>0.46646187825902119</v>
+      </c>
+      <c r="S55" s="125">
+        <f>SUM(D$13)/SUM(D$6:D$13)*M50</f>
+        <v>712.21569752483379</v>
+      </c>
+      <c r="T55" s="125">
+        <f t="shared" si="50"/>
+        <v>1750.3169395230987</v>
+      </c>
+      <c r="U55" s="125">
+        <f t="shared" si="51"/>
+        <v>783.26984431826475</v>
+      </c>
+      <c r="V55" s="133">
+        <f t="shared" si="52"/>
+        <v>2.9479495276821064E-2</v>
+      </c>
+      <c r="W55" s="133">
+        <f t="shared" si="53"/>
+        <v>4.6389380207426861E-2</v>
+      </c>
+      <c r="X55" s="133">
+        <f t="shared" si="54"/>
+        <v>3.5948082171290856E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C56" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126">
+        <v>5617</v>
+      </c>
+      <c r="F56" s="126">
+        <v>3043</v>
+      </c>
+      <c r="G56" s="126">
         <f t="shared" si="16"/>
-        <v>21853.15</v>
-      </c>
-      <c r="O55" s="147">
-        <f t="shared" si="17"/>
-        <v>7281.85</v>
-      </c>
-      <c r="P55" s="155">
-        <f>1-(AVERAGE(AB14:AB15)/$AB$19)</f>
-        <v>0.5252525252525253</v>
-      </c>
-      <c r="Q55" s="155">
-        <f>1-(AVERAGE(AC14:AC15)/$AC$19)</f>
-        <v>0.51898734177215189</v>
-      </c>
-      <c r="R55" s="155">
-        <f>1-(AVERAGE(AD14:AD15)/$AD$19)</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="S55" s="147"/>
-      <c r="T55" s="147"/>
-      <c r="U55" s="147"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C56" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147">
-        <v>5617</v>
-      </c>
-      <c r="F56" s="147">
-        <v>3043</v>
-      </c>
-      <c r="G56" s="147">
-        <f t="shared" si="14"/>
         <v>8660</v>
       </c>
-      <c r="H56" s="147">
+      <c r="H56" s="126">
         <v>17000</v>
       </c>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147">
+      <c r="I56" s="126"/>
+      <c r="J56" s="126">
         <v>26100</v>
       </c>
-      <c r="K56" s="147">
+      <c r="K56" s="126">
         <v>16000</v>
       </c>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147">
-        <f t="shared" si="26"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126">
+        <f t="shared" si="31"/>
         <v>12830</v>
       </c>
-      <c r="N56" s="147">
-        <f t="shared" si="16"/>
+      <c r="N56" s="126">
+        <f t="shared" si="18"/>
         <v>17208.666666666668</v>
       </c>
-      <c r="O56" s="147">
-        <f t="shared" si="17"/>
+      <c r="O56" s="126">
+        <f t="shared" si="19"/>
         <v>7794</v>
       </c>
-      <c r="P56" s="155">
+      <c r="P56" s="134">
         <f>1-(AVERAGE(AB16:AB17)/$AB$19)</f>
-        <v>0.3737373737373737</v>
-      </c>
-      <c r="Q56" s="155">
+        <v>0.21714504008878011</v>
+      </c>
+      <c r="Q56" s="134">
         <f>1-(AVERAGE(AC16:AC17)/$AC$19)</f>
-        <v>0.36708860759493667</v>
-      </c>
-      <c r="R56" s="155">
+        <v>0.21795083026999229</v>
+      </c>
+      <c r="R56" s="134">
         <f>1-(AVERAGE(AD16:AD17)/$AD$19)</f>
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="S56" s="147"/>
-      <c r="T56" s="147"/>
-      <c r="U56" s="147"/>
+        <v>0.25707322779523334</v>
+      </c>
+      <c r="S56" s="125">
+        <f>SUM(D$13)/SUM(D$6:D$13)*M51</f>
+        <v>339.03334342334279</v>
+      </c>
+      <c r="T56" s="125">
+        <f t="shared" si="50"/>
+        <v>1061.2538971301933</v>
+      </c>
+      <c r="U56" s="125">
+        <f t="shared" si="51"/>
+        <v>600.64791036891643</v>
+      </c>
+      <c r="V56" s="133">
+        <f t="shared" si="52"/>
+        <v>1.524211365405692E-2</v>
+      </c>
+      <c r="W56" s="133">
+        <f t="shared" si="53"/>
+        <v>2.4281038001972562E-2</v>
+      </c>
+      <c r="X56" s="133">
+        <f t="shared" si="54"/>
+        <v>1.9811457157685314E-2</v>
+      </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C57" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="149"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="149"/>
-      <c r="G57" s="149"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="149">
+      <c r="C57" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128">
         <v>2128</v>
       </c>
-      <c r="J57" s="149">
+      <c r="J57" s="128">
         <v>3200</v>
       </c>
-      <c r="K57" s="149"/>
-      <c r="L57" s="149">
+      <c r="K57" s="128"/>
+      <c r="L57" s="128">
         <v>2200</v>
       </c>
-      <c r="M57" s="149">
-        <f t="shared" si="26"/>
+      <c r="M57" s="128">
+        <f t="shared" si="31"/>
         <v>2128</v>
       </c>
-      <c r="N57" s="149">
-        <f t="shared" si="16"/>
+      <c r="N57" s="128">
+        <f t="shared" si="18"/>
         <v>1600</v>
       </c>
-      <c r="O57" s="149">
-        <f t="shared" si="17"/>
+      <c r="O57" s="128">
+        <f t="shared" si="19"/>
         <v>1100</v>
       </c>
-      <c r="P57" s="153">
+      <c r="P57" s="132">
         <f>1-(AB18/$AB$19)</f>
-        <v>0.20202020202020199</v>
-      </c>
-      <c r="Q57" s="153">
+        <v>-1.4035720286869058E-2</v>
+      </c>
+      <c r="Q57" s="132">
         <f>1-(AC18/$AC$19)</f>
-        <v>0.20253164556962022</v>
-      </c>
-      <c r="R57" s="153">
+        <v>-1.2427092022566644E-3</v>
+      </c>
+      <c r="R57" s="132">
         <f>1-(AD18/$AD$19)</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="S57" s="148">
+        <v>3.5765057987280247E-2</v>
+      </c>
+      <c r="S57" s="127">
         <f>D13/SUM(D6:D13)*M57</f>
         <v>149.37121217492202</v>
       </c>
-      <c r="T57" s="148">
+      <c r="T57" s="127">
         <f>E13/SUM(E6:E13)*N57</f>
         <v>178.24965729669424</v>
       </c>
-      <c r="U57" s="148">
+      <c r="U57" s="127">
         <f>F13/SUM(F6:F13)*O57</f>
         <v>84.771965794945856</v>
       </c>
-      <c r="V57" s="153">
+      <c r="V57" s="132">
         <f>D13/SUM(D6:D13)*P57</f>
-        <v>1.4180452283637315E-2</v>
-      </c>
-      <c r="W57" s="153">
-        <f t="shared" ref="W57:X57" si="33">E13/SUM(E6:E13)*Q57</f>
-        <v>2.2563247759075217E-2</v>
-      </c>
-      <c r="X57" s="153">
-        <f t="shared" si="33"/>
-        <v>1.5413084689990152E-2</v>
+        <v>-9.8521266588241329E-4</v>
+      </c>
+      <c r="W57" s="132">
+        <f t="shared" ref="W57:X57" si="55">E13/SUM(E6:E13)*Q57</f>
+        <v>-1.3844530588856169E-4</v>
+      </c>
+      <c r="X57" s="132">
+        <f t="shared" si="55"/>
+        <v>2.7562493385017966E-3</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="S59" s="157">
+      <c r="S59" s="136">
         <f>SUM(S37,S39,S42,S46,S51,S57)</f>
         <v>9608.4735804205193</v>
       </c>
-      <c r="T59" s="157">
-        <f t="shared" ref="T59:U59" si="34">SUM(T37,T39,T42,T46,T51,T57)</f>
+      <c r="T59" s="136">
+        <f t="shared" ref="T59:U59" si="56">SUM(T37,T39,T42,T46,T51,T57)</f>
         <v>14333.869646601945</v>
       </c>
-      <c r="U59" s="157">
-        <f t="shared" si="34"/>
+      <c r="U59" s="136">
+        <f t="shared" si="56"/>
         <v>11196.414691601361</v>
       </c>
-      <c r="V59" s="156">
+      <c r="V59" s="135">
         <f>SUM(V37,V39,V42,V46,V51,V57)</f>
-        <v>0.3499559220938272</v>
-      </c>
-      <c r="W59" s="156">
-        <f t="shared" ref="W59:X59" si="35">SUM(W37,W39,W42,W46,W51,W57)</f>
-        <v>0.34759093292022342</v>
-      </c>
-      <c r="X59" s="156">
-        <f t="shared" si="35"/>
-        <v>0.36920600336632792</v>
+        <v>0.20172336037443986</v>
+      </c>
+      <c r="W59" s="135">
+        <f t="shared" ref="W59:X59" si="57">SUM(W37,W39,W42,W46,W51,W57)</f>
+        <v>0.2000191767273756</v>
+      </c>
+      <c r="X59" s="135">
+        <f t="shared" si="57"/>
+        <v>0.21813305903885022</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>209</v>
-      </c>
-      <c r="S60" s="158">
-        <f>SUM(S38,S41,S44,S48,S53,S57)</f>
-        <v>20563.0239417189</v>
-      </c>
-      <c r="T60" s="158">
-        <f t="shared" ref="T60:X60" si="36">SUM(T38,T41,T44,T48,T53,T57)</f>
-        <v>22259.387557085229</v>
-      </c>
-      <c r="U60" s="158">
-        <f t="shared" si="36"/>
-        <v>15982.779351113084</v>
-      </c>
-      <c r="V60" s="159">
-        <f t="shared" si="36"/>
-        <v>0.56982150406598298</v>
-      </c>
-      <c r="W60" s="159">
-        <f t="shared" si="36"/>
-        <v>0.57417922843609159</v>
-      </c>
-      <c r="X60" s="159">
-        <f t="shared" si="36"/>
-        <v>0.51228555848472779</v>
+        <v>183</v>
+      </c>
+      <c r="S60" s="213" cm="1">
+        <f t="array" ref="S60">S38+AVERAGE(S40:S41)+AVERAGE(S43:S45)+AVERAGE(S47:S50+AVERAGE(S53:S56))</f>
+        <v>22294.679797673529</v>
+      </c>
+      <c r="T60" s="213" cm="1">
+        <f t="array" ref="T60">T38+AVERAGE(T40:T41)+AVERAGE(T43:T45)+AVERAGE(T47:T50+AVERAGE(T53:T56))</f>
+        <v>24114.356797661487</v>
+      </c>
+      <c r="U60" s="213" cm="1">
+        <f t="array" ref="U60">U38+AVERAGE(U40:U41)+AVERAGE(U43:U45)+AVERAGE(U47:U50+AVERAGE(U53:U56))</f>
+        <v>17266.169771719473</v>
+      </c>
+      <c r="V60" s="137" cm="1">
+        <f t="array" ref="V60">V38+AVERAGE(V40:V41)+AVERAGE(V43:V45)+AVERAGE(V47:V50+AVERAGE(V53:V56))</f>
+        <v>0.44109160694603122</v>
+      </c>
+      <c r="W60" s="137" cm="1">
+        <f t="array" ref="W60">W38+AVERAGE(W40:W41)+AVERAGE(W43:W45)+AVERAGE(W47:W50+AVERAGE(W53:W56))</f>
+        <v>0.43814428681539097</v>
+      </c>
+      <c r="X60" s="137" cm="1">
+        <f t="array" ref="X60">X38+AVERAGE(X40:X41)+AVERAGE(X43:X45)+AVERAGE(X47:X50+AVERAGE(X53:X56))</f>
+        <v>0.37835986642564029</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +9420,10 @@
     <mergeCell ref="P29:R29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Y20" r:id="rId1" display="http://www.seai.ie/Your_Building/BER/Your_Guide_to_Building_Energy_" xr:uid="{5807D69C-F428-4936-9796-3FEC8B37998C}"/>
-    <hyperlink ref="AA30" r:id="rId2" xr:uid="{994975AB-F83B-4F7E-B1E2-49D7A02B19F7}"/>
-    <hyperlink ref="H29" r:id="rId3" xr:uid="{55D40456-65AC-4DC1-BDA5-C642CA7C3A86}"/>
-    <hyperlink ref="AA33" r:id="rId4" xr:uid="{7E910491-C37D-4D30-8CD9-EB0922E7F99E}"/>
+    <hyperlink ref="AA20" r:id="rId1" display="http://www.seai.ie/Your_Building/BER/Your_Guide_to_Building_Energy_" xr:uid="{5807D69C-F428-4936-9796-3FEC8B37998C}"/>
+    <hyperlink ref="H29" r:id="rId2" xr:uid="{55D40456-65AC-4DC1-BDA5-C642CA7C3A86}"/>
+    <hyperlink ref="AA30" r:id="rId3" xr:uid="{AF869BAA-9B41-4B32-8C2B-813CEDB4E002}"/>
+    <hyperlink ref="AA33" r:id="rId4" xr:uid="{E20DF966-7475-4A73-A2F1-AEF4BBC31038}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B52CE5-5141-42B1-BE25-4CF95BFB9EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC9BB3-BBC0-4CB0-A15C-6A1DFD76C779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -769,25 +769,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -918,24 +910,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1114,7 +1088,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,11 +1147,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -1873,579 +1842,555 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="18" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="18" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="16" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="18" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="14"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="43" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="39" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="44" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="40" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="15" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="14" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="49" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="14" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="14" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="29" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="40" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="44" fillId="20" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="16">
-    <cellStyle name="20% - Colore 2" xfId="10" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
-    <cellStyle name="Comma 2" xfId="11" xr:uid="{0ABA8B51-FCCD-40DB-958F-AE78849A8FFE}"/>
-    <cellStyle name="Currency" xfId="15" builtinId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="4" xr:uid="{E1BCE1F9-C32B-49FB-A63B-D516C5E840D2}"/>
-    <cellStyle name="Normal 10 2" xfId="9" xr:uid="{403CABF5-5076-4EF0-B1C7-90DFA4621072}"/>
-    <cellStyle name="Normal 13" xfId="3" xr:uid="{7795B802-A17D-4590-A427-E52A73DAE426}"/>
-    <cellStyle name="Normal 15" xfId="6" xr:uid="{ECC42FCF-829B-4185-889D-06A7EB4A5E0F}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{81BCDB32-370A-45D4-8768-8E71CE87AC81}"/>
-    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{5199F4FA-30A6-4F2B-B914-9F4ECA1F08E9}"/>
-    <cellStyle name="Normal 3 2 2" xfId="5" xr:uid="{AB77C6EE-5FAA-4EA6-92D0-2986F2803EAB}"/>
-    <cellStyle name="Normal 4" xfId="12" xr:uid="{C3AFA141-A2C0-4D00-BCC8-D2E525C207DA}"/>
-    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{87BDABB2-3FF4-448F-8C91-A21FFDA39A5E}"/>
-    <cellStyle name="Normal 4 2 3 4" xfId="13" xr:uid="{49AF852B-ED69-4B51-AAC6-D5AE0788B9D3}"/>
-    <cellStyle name="Percent" xfId="14" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3998,14 +3943,14 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -4043,13 +3988,13 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
@@ -4063,13 +4008,13 @@
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
@@ -4083,13 +4028,13 @@
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -4118,22 +4063,22 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="194"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
+      <c r="A25" s="195"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="190"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -4320,17 +4265,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="147"/>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="197"/>
+      <c r="I2" s="198"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -4640,10 +4585,10 @@
         <v>80</v>
       </c>
       <c r="F15" s="149"/>
-      <c r="H15" s="195" t="s">
+      <c r="H15" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
@@ -4717,12 +4662,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="200"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="201"/>
       <c r="F20" s="150"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4933,17 +4878,17 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="195" t="s">
+      <c r="B38" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="196"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="197"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="198"/>
       <c r="F38" s="147"/>
-      <c r="H38" s="201" t="s">
+      <c r="H38" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="202"/>
+      <c r="I38" s="203"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="61" t="s">
@@ -5044,7 +4989,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB6E983-7CFA-4082-B04E-86B82188DDBD}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:Z50"/>
@@ -5148,10 +5093,10 @@
       <c r="S5" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="T5" s="203" t="s">
+      <c r="T5" s="204" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="203"/>
+      <c r="U5" s="204"/>
     </row>
     <row r="6" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
@@ -5830,6 +5775,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A6DB4B-6EBE-42F5-800F-C9AB0144B3BB}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5863,33 +5809,33 @@
   <sheetData>
     <row r="1" spans="3:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="208" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="207" t="s">
+      <c r="M2" s="209"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="207" t="s">
+      <c r="P2" s="209"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="208" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
       <c r="AD2" s="118" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="3:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="206" t="s">
+      <c r="C3" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
       <c r="L3" s="88" t="s">
         <v>165</v>
       </c>
@@ -7530,40 +7476,40 @@
       <c r="A29" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="210" t="s">
+      <c r="C29" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="211"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="210" t="s">
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="211" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="212"/>
-      <c r="M29" s="204" t="s">
+      <c r="I29" s="212"/>
+      <c r="J29" s="212"/>
+      <c r="K29" s="212"/>
+      <c r="L29" s="213"/>
+      <c r="M29" s="205" t="s">
         <v>190</v>
       </c>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205"/>
-      <c r="P29" s="204" t="s">
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="205" t="s">
         <v>191</v>
       </c>
-      <c r="Q29" s="205"/>
-      <c r="R29" s="205"/>
-      <c r="S29" s="204" t="s">
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="T29" s="205"/>
-      <c r="U29" s="205"/>
-      <c r="V29" s="204" t="s">
+      <c r="T29" s="206"/>
+      <c r="U29" s="206"/>
+      <c r="V29" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="W29" s="205"/>
-      <c r="X29" s="205"/>
+      <c r="W29" s="206"/>
+      <c r="X29" s="206"/>
     </row>
     <row r="30" spans="1:42" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
@@ -9381,15 +9327,15 @@
       <c r="C60" t="s">
         <v>183</v>
       </c>
-      <c r="S60" s="213" cm="1">
+      <c r="S60" s="190" cm="1">
         <f t="array" ref="S60">S38+AVERAGE(S40:S41)+AVERAGE(S43:S45)+AVERAGE(S47:S50+AVERAGE(S53:S56))</f>
         <v>22294.679797673529</v>
       </c>
-      <c r="T60" s="213" cm="1">
+      <c r="T60" s="190" cm="1">
         <f t="array" ref="T60">T38+AVERAGE(T40:T41)+AVERAGE(T43:T45)+AVERAGE(T47:T50+AVERAGE(T53:T56))</f>
         <v>24114.356797661487</v>
       </c>
-      <c r="U60" s="213" cm="1">
+      <c r="U60" s="190" cm="1">
         <f t="array" ref="U60">U38+AVERAGE(U40:U41)+AVERAGE(U43:U45)+AVERAGE(U47:U50+AVERAGE(U53:U56))</f>
         <v>17266.169771719473</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,23 +3,91 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC9BB3-BBC0-4CB0-A15C-6A1DFD76C779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957AE8B2-F2E2-4CC6-8DFB-6E30179BA1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="34" r:id="rId1"/>
-    <sheet name="Intro" sheetId="35" r:id="rId2"/>
-    <sheet name="RSD_Retrofit" sheetId="57" r:id="rId3"/>
-    <sheet name="Data" sheetId="58" r:id="rId4"/>
+    <sheet name="Cover" sheetId="59" r:id="rId1"/>
+    <sheet name="Cover_old" sheetId="34" r:id="rId2"/>
+    <sheet name="Intro" sheetId="35" r:id="rId3"/>
+    <sheet name="RSD_Retrofit" sheetId="57" r:id="rId4"/>
+    <sheet name="Data" sheetId="58" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -94,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="231">
   <si>
     <t>Document type:</t>
   </si>
@@ -764,6 +832,51 @@
   <si>
     <t>Pre-Retrofit Rating</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
 </sst>
 </file>
 
@@ -773,13 +886,20 @@
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1842,554 +1962,615 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="17" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="17" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="17" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="16" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="18" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="18" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="17" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="14"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="39" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="40" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="40" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="41" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="14" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="14" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="14" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="14" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="14" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="14" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="25" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="26" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="40" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{37EFECFA-CBA6-4D00-925F-28E9B62EC2C7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{F50BA982-35C5-4C5E-8F0A-41822741DCC7}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{F464E3EA-5528-423F-8BC9-6A8F84DE3D12}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -2423,6 +2604,315 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45A9FD9-E3F3-4C7E-9EAB-E130B60ED42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1293BF-ACD7-4D46-925A-9ABDE228D160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AF7C45-6EE0-471D-84D6-6989A222E61C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D5852E-5303-4F43-88E7-2F123722690B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143F55EB-4046-4F0D-B5E5-495B6F86DC98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6E207B-8B61-4B7E-BC6A-47231017610E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2715,7 +3205,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3287,7 +3777,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3464,6 +3954,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3786,6 +4289,2857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4022E9-11A6-419E-94F4-DF9E7F2A9822}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" style="216" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="216" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="216" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="216" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="216" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="216" customWidth="1"/>
+    <col min="13" max="13" width="10" style="216" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="216" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="216" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="216"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="214"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="215"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="214"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="215"/>
+      <c r="S5" s="215"/>
+      <c r="T5" s="215"/>
+      <c r="U5" s="215"/>
+      <c r="V5" s="215"/>
+      <c r="W5" s="215"/>
+      <c r="X5" s="215"/>
+      <c r="Y5" s="215"/>
+      <c r="Z5" s="215"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
+      <c r="V6" s="215"/>
+      <c r="W6" s="215"/>
+      <c r="X6" s="215"/>
+      <c r="Y6" s="215"/>
+      <c r="Z6" s="215"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="214"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="215"/>
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
+      <c r="V7" s="215"/>
+      <c r="W7" s="215"/>
+      <c r="X7" s="215"/>
+      <c r="Y7" s="215"/>
+      <c r="Z7" s="215"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="214"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="215"/>
+      <c r="X8" s="215"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="215"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="214"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="215"/>
+      <c r="X9" s="215"/>
+      <c r="Y9" s="215"/>
+      <c r="Z9" s="215"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="214"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="215"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="215"/>
+      <c r="V10" s="215"/>
+      <c r="W10" s="215"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="215"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="214"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="215"/>
+      <c r="W11" s="215"/>
+      <c r="X11" s="215"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="215"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="214"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="215"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="215"/>
+      <c r="V12" s="215"/>
+      <c r="W12" s="215"/>
+      <c r="X12" s="215"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="215"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="214"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="215"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="215"/>
+      <c r="V13" s="215"/>
+      <c r="W13" s="215"/>
+      <c r="X13" s="215"/>
+      <c r="Y13" s="215"/>
+      <c r="Z13" s="215"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="214"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="215"/>
+      <c r="N14" s="215"/>
+      <c r="O14" s="215"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="215"/>
+      <c r="W14" s="215"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="215"/>
+      <c r="Z14" s="215"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="214"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="215"/>
+      <c r="O15" s="215"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
+      <c r="T15" s="215"/>
+      <c r="U15" s="215"/>
+      <c r="V15" s="215"/>
+      <c r="W15" s="215"/>
+      <c r="X15" s="215"/>
+      <c r="Y15" s="215"/>
+      <c r="Z15" s="215"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="215"/>
+      <c r="O16" s="215"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="215"/>
+      <c r="R16" s="215"/>
+      <c r="S16" s="215"/>
+      <c r="T16" s="215"/>
+      <c r="U16" s="215"/>
+      <c r="V16" s="215"/>
+      <c r="W16" s="215"/>
+      <c r="X16" s="215"/>
+      <c r="Y16" s="215"/>
+      <c r="Z16" s="215"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="220"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="215"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="215"/>
+      <c r="R17" s="215"/>
+      <c r="S17" s="215"/>
+      <c r="T17" s="215"/>
+      <c r="U17" s="215"/>
+      <c r="V17" s="215"/>
+      <c r="W17" s="215"/>
+      <c r="X17" s="215"/>
+      <c r="Y17" s="215"/>
+      <c r="Z17" s="215"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="220"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="222"/>
+      <c r="L18" s="222"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="215"/>
+      <c r="O18" s="215"/>
+      <c r="P18" s="215"/>
+      <c r="Q18" s="215"/>
+      <c r="R18" s="215"/>
+      <c r="S18" s="215"/>
+      <c r="T18" s="215"/>
+      <c r="U18" s="215"/>
+      <c r="V18" s="215"/>
+      <c r="W18" s="215"/>
+      <c r="X18" s="215"/>
+      <c r="Y18" s="215"/>
+      <c r="Z18" s="215"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="224" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="215"/>
+      <c r="R19" s="215"/>
+      <c r="S19" s="215"/>
+      <c r="T19" s="215"/>
+      <c r="U19" s="215"/>
+      <c r="V19" s="215"/>
+      <c r="W19" s="215"/>
+      <c r="X19" s="215"/>
+      <c r="Y19" s="215"/>
+      <c r="Z19" s="215"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="224" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="226"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="215"/>
+      <c r="O20" s="215"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="215"/>
+      <c r="R20" s="215"/>
+      <c r="S20" s="215"/>
+      <c r="T20" s="215"/>
+      <c r="U20" s="215"/>
+      <c r="V20" s="215"/>
+      <c r="W20" s="215"/>
+      <c r="X20" s="215"/>
+      <c r="Y20" s="215"/>
+      <c r="Z20" s="215"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="223" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="226"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="226"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="226"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="215"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="215"/>
+      <c r="V21" s="215"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="215"/>
+      <c r="Z21" s="215"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="223"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="215"/>
+      <c r="O22" s="215"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="215"/>
+      <c r="R22" s="215"/>
+      <c r="S22" s="215"/>
+      <c r="T22" s="215"/>
+      <c r="U22" s="215"/>
+      <c r="V22" s="215"/>
+      <c r="W22" s="215"/>
+      <c r="X22" s="215"/>
+      <c r="Y22" s="215"/>
+      <c r="Z22" s="215"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="215"/>
+      <c r="R23" s="215"/>
+      <c r="S23" s="215"/>
+      <c r="T23" s="215"/>
+      <c r="U23" s="215"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="215"/>
+      <c r="X23" s="215"/>
+      <c r="Y23" s="215"/>
+      <c r="Z23" s="215"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="223"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="215"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="215"/>
+      <c r="J24" s="215"/>
+      <c r="K24" s="215"/>
+      <c r="L24" s="215"/>
+      <c r="M24" s="215"/>
+      <c r="N24" s="215"/>
+      <c r="O24" s="215"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="215"/>
+      <c r="R24" s="215"/>
+      <c r="S24" s="215"/>
+      <c r="T24" s="215"/>
+      <c r="U24" s="215"/>
+      <c r="V24" s="215"/>
+      <c r="W24" s="215"/>
+      <c r="X24" s="215"/>
+      <c r="Y24" s="215"/>
+      <c r="Z24" s="215"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="223"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="215"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="215"/>
+      <c r="R25" s="215"/>
+      <c r="S25" s="215"/>
+      <c r="T25" s="215"/>
+      <c r="U25" s="215"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="215"/>
+      <c r="X25" s="215"/>
+      <c r="Y25" s="215"/>
+      <c r="Z25" s="215"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="215"/>
+      <c r="O26" s="215"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="215"/>
+      <c r="R26" s="215"/>
+      <c r="S26" s="215"/>
+      <c r="T26" s="215"/>
+      <c r="U26" s="215"/>
+      <c r="V26" s="215"/>
+      <c r="W26" s="215"/>
+      <c r="X26" s="215"/>
+      <c r="Y26" s="215"/>
+      <c r="Z26" s="215"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="223"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="215"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="215"/>
+      <c r="O27" s="215"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="215"/>
+      <c r="R27" s="215"/>
+      <c r="S27" s="215"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="215"/>
+      <c r="V27" s="215"/>
+      <c r="W27" s="215"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="215"/>
+      <c r="Z27" s="215"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="223"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="215"/>
+      <c r="O28" s="215"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="215"/>
+      <c r="R28" s="215"/>
+      <c r="S28" s="215"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="215"/>
+      <c r="V28" s="215"/>
+      <c r="W28" s="215"/>
+      <c r="X28" s="215"/>
+      <c r="Y28" s="215"/>
+      <c r="Z28" s="215"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="228">
+        <v>1</v>
+      </c>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="215"/>
+      <c r="R29" s="215"/>
+      <c r="S29" s="215"/>
+      <c r="T29" s="215"/>
+      <c r="U29" s="215"/>
+      <c r="V29" s="215"/>
+      <c r="W29" s="215"/>
+      <c r="X29" s="215"/>
+      <c r="Y29" s="215"/>
+      <c r="Z29" s="215"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="229" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="215"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="215"/>
+      <c r="O30" s="215"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="215"/>
+      <c r="R30" s="215"/>
+      <c r="S30" s="215"/>
+      <c r="T30" s="215"/>
+      <c r="U30" s="215"/>
+      <c r="V30" s="215"/>
+      <c r="W30" s="215"/>
+      <c r="X30" s="215"/>
+      <c r="Y30" s="215"/>
+      <c r="Z30" s="215"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="224" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
+      <c r="R31" s="215"/>
+      <c r="S31" s="215"/>
+      <c r="T31" s="215"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="215"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="215"/>
+      <c r="Z31" s="215"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="231"/>
+      <c r="B32" s="232" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="231"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
+      <c r="M32" s="215"/>
+      <c r="N32" s="215"/>
+      <c r="O32" s="215"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="215"/>
+      <c r="R32" s="215"/>
+      <c r="S32" s="215"/>
+      <c r="T32" s="215"/>
+      <c r="U32" s="215"/>
+      <c r="V32" s="215"/>
+      <c r="W32" s="215"/>
+      <c r="X32" s="215"/>
+      <c r="Y32" s="215"/>
+      <c r="Z32" s="215"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="214"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="215"/>
+      <c r="N33" s="215"/>
+      <c r="O33" s="215"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="215"/>
+      <c r="R33" s="215"/>
+      <c r="S33" s="215"/>
+      <c r="T33" s="215"/>
+      <c r="U33" s="215"/>
+      <c r="V33" s="215"/>
+      <c r="W33" s="215"/>
+      <c r="X33" s="215"/>
+      <c r="Y33" s="215"/>
+      <c r="Z33" s="215"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="214"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="215"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="215"/>
+      <c r="P34" s="215"/>
+      <c r="Q34" s="215"/>
+      <c r="R34" s="215"/>
+      <c r="S34" s="215"/>
+      <c r="T34" s="215"/>
+      <c r="U34" s="215"/>
+      <c r="V34" s="215"/>
+      <c r="W34" s="215"/>
+      <c r="X34" s="215"/>
+      <c r="Y34" s="215"/>
+      <c r="Z34" s="215"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="214"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="215"/>
+      <c r="M35" s="215"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
+      <c r="R35" s="215"/>
+      <c r="S35" s="215"/>
+      <c r="T35" s="215"/>
+      <c r="U35" s="215"/>
+      <c r="V35" s="215"/>
+      <c r="W35" s="215"/>
+      <c r="X35" s="215"/>
+      <c r="Y35" s="215"/>
+      <c r="Z35" s="215"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="214"/>
+      <c r="B36" s="214"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="215"/>
+      <c r="M36" s="215"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="215"/>
+      <c r="P36" s="215"/>
+      <c r="Q36" s="215"/>
+      <c r="R36" s="215"/>
+      <c r="S36" s="215"/>
+      <c r="T36" s="215"/>
+      <c r="U36" s="215"/>
+      <c r="V36" s="215"/>
+      <c r="W36" s="215"/>
+      <c r="X36" s="215"/>
+      <c r="Y36" s="215"/>
+      <c r="Z36" s="215"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="214"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="214"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="215"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="215"/>
+      <c r="P37" s="215"/>
+      <c r="Q37" s="215"/>
+      <c r="R37" s="215"/>
+      <c r="S37" s="215"/>
+      <c r="T37" s="215"/>
+      <c r="U37" s="215"/>
+      <c r="V37" s="215"/>
+      <c r="W37" s="215"/>
+      <c r="X37" s="215"/>
+      <c r="Y37" s="215"/>
+      <c r="Z37" s="215"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="214"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="215"/>
+      <c r="N38" s="215"/>
+      <c r="O38" s="215"/>
+      <c r="P38" s="215"/>
+      <c r="Q38" s="215"/>
+      <c r="R38" s="215"/>
+      <c r="S38" s="215"/>
+      <c r="T38" s="215"/>
+      <c r="U38" s="215"/>
+      <c r="V38" s="215"/>
+      <c r="W38" s="215"/>
+      <c r="X38" s="215"/>
+      <c r="Y38" s="215"/>
+      <c r="Z38" s="215"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="214"/>
+      <c r="B39" s="214"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="215"/>
+      <c r="K39" s="215"/>
+      <c r="L39" s="215"/>
+      <c r="M39" s="215"/>
+      <c r="N39" s="215"/>
+      <c r="O39" s="215"/>
+      <c r="P39" s="215"/>
+      <c r="Q39" s="215"/>
+      <c r="R39" s="215"/>
+      <c r="S39" s="215"/>
+      <c r="T39" s="215"/>
+      <c r="U39" s="215"/>
+      <c r="V39" s="215"/>
+      <c r="W39" s="215"/>
+      <c r="X39" s="215"/>
+      <c r="Y39" s="215"/>
+      <c r="Z39" s="215"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="214"/>
+      <c r="B40" s="214"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="215"/>
+      <c r="P40" s="215"/>
+      <c r="Q40" s="215"/>
+      <c r="R40" s="215"/>
+      <c r="S40" s="215"/>
+      <c r="T40" s="215"/>
+      <c r="U40" s="215"/>
+      <c r="V40" s="215"/>
+      <c r="W40" s="215"/>
+      <c r="X40" s="215"/>
+      <c r="Y40" s="215"/>
+      <c r="Z40" s="215"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="214"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="215"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="215"/>
+      <c r="P41" s="215"/>
+      <c r="Q41" s="215"/>
+      <c r="R41" s="215"/>
+      <c r="S41" s="215"/>
+      <c r="T41" s="215"/>
+      <c r="U41" s="215"/>
+      <c r="V41" s="215"/>
+      <c r="W41" s="215"/>
+      <c r="X41" s="215"/>
+      <c r="Y41" s="215"/>
+      <c r="Z41" s="215"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="214"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="214"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="215"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="215"/>
+      <c r="P42" s="215"/>
+      <c r="Q42" s="215"/>
+      <c r="R42" s="215"/>
+      <c r="S42" s="215"/>
+      <c r="T42" s="215"/>
+      <c r="U42" s="215"/>
+      <c r="V42" s="215"/>
+      <c r="W42" s="215"/>
+      <c r="X42" s="215"/>
+      <c r="Y42" s="215"/>
+      <c r="Z42" s="215"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="215"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="215"/>
+      <c r="M43" s="215"/>
+      <c r="N43" s="215"/>
+      <c r="O43" s="215"/>
+      <c r="P43" s="215"/>
+      <c r="Q43" s="215"/>
+      <c r="R43" s="215"/>
+      <c r="S43" s="215"/>
+      <c r="T43" s="215"/>
+      <c r="U43" s="215"/>
+      <c r="V43" s="215"/>
+      <c r="W43" s="215"/>
+      <c r="X43" s="215"/>
+      <c r="Y43" s="215"/>
+      <c r="Z43" s="215"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="215"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="215"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="215"/>
+      <c r="G44" s="215"/>
+      <c r="H44" s="215"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="215"/>
+      <c r="L44" s="215"/>
+      <c r="M44" s="215"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="215"/>
+      <c r="P44" s="215"/>
+      <c r="Q44" s="215"/>
+      <c r="R44" s="215"/>
+      <c r="S44" s="215"/>
+      <c r="T44" s="215"/>
+      <c r="U44" s="215"/>
+      <c r="V44" s="215"/>
+      <c r="W44" s="215"/>
+      <c r="X44" s="215"/>
+      <c r="Y44" s="215"/>
+      <c r="Z44" s="215"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="215"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="215"/>
+      <c r="D45" s="215"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="215"/>
+      <c r="H45" s="215"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="215"/>
+      <c r="K45" s="215"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="215"/>
+      <c r="O45" s="215"/>
+      <c r="P45" s="215"/>
+      <c r="Q45" s="215"/>
+      <c r="R45" s="215"/>
+      <c r="S45" s="215"/>
+      <c r="T45" s="215"/>
+      <c r="U45" s="215"/>
+      <c r="V45" s="215"/>
+      <c r="W45" s="215"/>
+      <c r="X45" s="215"/>
+      <c r="Y45" s="215"/>
+      <c r="Z45" s="215"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="215"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="215"/>
+      <c r="O46" s="215"/>
+      <c r="P46" s="215"/>
+      <c r="Q46" s="215"/>
+      <c r="R46" s="215"/>
+      <c r="S46" s="215"/>
+      <c r="T46" s="215"/>
+      <c r="U46" s="215"/>
+      <c r="V46" s="215"/>
+      <c r="W46" s="215"/>
+      <c r="X46" s="215"/>
+      <c r="Y46" s="215"/>
+      <c r="Z46" s="215"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="215"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="215"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="215"/>
+      <c r="K47" s="215"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="215"/>
+      <c r="N47" s="215"/>
+      <c r="O47" s="215"/>
+      <c r="P47" s="215"/>
+      <c r="Q47" s="215"/>
+      <c r="R47" s="215"/>
+      <c r="S47" s="215"/>
+      <c r="T47" s="215"/>
+      <c r="U47" s="215"/>
+      <c r="V47" s="215"/>
+      <c r="W47" s="215"/>
+      <c r="X47" s="215"/>
+      <c r="Y47" s="215"/>
+      <c r="Z47" s="215"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="215"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="215"/>
+      <c r="D48" s="215"/>
+      <c r="E48" s="215"/>
+      <c r="F48" s="215"/>
+      <c r="G48" s="215"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="215"/>
+      <c r="L48" s="215"/>
+      <c r="M48" s="215"/>
+      <c r="N48" s="215"/>
+      <c r="O48" s="215"/>
+      <c r="P48" s="215"/>
+      <c r="Q48" s="215"/>
+      <c r="R48" s="215"/>
+      <c r="S48" s="215"/>
+      <c r="T48" s="215"/>
+      <c r="U48" s="215"/>
+      <c r="V48" s="215"/>
+      <c r="W48" s="215"/>
+      <c r="X48" s="215"/>
+      <c r="Y48" s="215"/>
+      <c r="Z48" s="215"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="215"/>
+      <c r="B49" s="215"/>
+      <c r="C49" s="215"/>
+      <c r="D49" s="215"/>
+      <c r="E49" s="215"/>
+      <c r="F49" s="215"/>
+      <c r="G49" s="215"/>
+      <c r="H49" s="215"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="215"/>
+      <c r="N49" s="215"/>
+      <c r="O49" s="215"/>
+      <c r="P49" s="215"/>
+      <c r="Q49" s="215"/>
+      <c r="R49" s="215"/>
+      <c r="S49" s="215"/>
+      <c r="T49" s="215"/>
+      <c r="U49" s="215"/>
+      <c r="V49" s="215"/>
+      <c r="W49" s="215"/>
+      <c r="X49" s="215"/>
+      <c r="Y49" s="215"/>
+      <c r="Z49" s="215"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="215"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="215"/>
+      <c r="D50" s="215"/>
+      <c r="E50" s="215"/>
+      <c r="F50" s="215"/>
+      <c r="G50" s="215"/>
+      <c r="H50" s="215"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="215"/>
+      <c r="L50" s="215"/>
+      <c r="M50" s="215"/>
+      <c r="N50" s="215"/>
+      <c r="O50" s="215"/>
+      <c r="P50" s="215"/>
+      <c r="Q50" s="215"/>
+      <c r="R50" s="215"/>
+      <c r="S50" s="215"/>
+      <c r="T50" s="215"/>
+      <c r="U50" s="215"/>
+      <c r="V50" s="215"/>
+      <c r="W50" s="215"/>
+      <c r="X50" s="215"/>
+      <c r="Y50" s="215"/>
+      <c r="Z50" s="215"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="215"/>
+      <c r="B51" s="215"/>
+      <c r="C51" s="215"/>
+      <c r="D51" s="215"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="215"/>
+      <c r="H51" s="215"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="215"/>
+      <c r="L51" s="215"/>
+      <c r="M51" s="215"/>
+      <c r="N51" s="215"/>
+      <c r="O51" s="215"/>
+      <c r="P51" s="215"/>
+      <c r="Q51" s="215"/>
+      <c r="R51" s="215"/>
+      <c r="S51" s="215"/>
+      <c r="T51" s="215"/>
+      <c r="U51" s="215"/>
+      <c r="V51" s="215"/>
+      <c r="W51" s="215"/>
+      <c r="X51" s="215"/>
+      <c r="Y51" s="215"/>
+      <c r="Z51" s="215"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="215"/>
+      <c r="B52" s="215"/>
+      <c r="C52" s="215"/>
+      <c r="D52" s="215"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="215"/>
+      <c r="N52" s="215"/>
+      <c r="O52" s="215"/>
+      <c r="P52" s="215"/>
+      <c r="Q52" s="215"/>
+      <c r="R52" s="215"/>
+      <c r="S52" s="215"/>
+      <c r="T52" s="215"/>
+      <c r="U52" s="215"/>
+      <c r="V52" s="215"/>
+      <c r="W52" s="215"/>
+      <c r="X52" s="215"/>
+      <c r="Y52" s="215"/>
+      <c r="Z52" s="215"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="215"/>
+      <c r="B53" s="215"/>
+      <c r="C53" s="215"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="215"/>
+      <c r="G53" s="215"/>
+      <c r="H53" s="215"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="215"/>
+      <c r="L53" s="215"/>
+      <c r="M53" s="215"/>
+      <c r="N53" s="215"/>
+      <c r="O53" s="215"/>
+      <c r="P53" s="215"/>
+      <c r="Q53" s="215"/>
+      <c r="R53" s="215"/>
+      <c r="S53" s="215"/>
+      <c r="T53" s="215"/>
+      <c r="U53" s="215"/>
+      <c r="V53" s="215"/>
+      <c r="W53" s="215"/>
+      <c r="X53" s="215"/>
+      <c r="Y53" s="215"/>
+      <c r="Z53" s="215"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="215"/>
+      <c r="B54" s="215"/>
+      <c r="C54" s="215"/>
+      <c r="D54" s="215"/>
+      <c r="E54" s="215"/>
+      <c r="F54" s="215"/>
+      <c r="G54" s="215"/>
+      <c r="H54" s="215"/>
+      <c r="I54" s="215"/>
+      <c r="J54" s="215"/>
+      <c r="K54" s="215"/>
+      <c r="L54" s="215"/>
+      <c r="M54" s="215"/>
+      <c r="N54" s="215"/>
+      <c r="O54" s="215"/>
+      <c r="P54" s="215"/>
+      <c r="Q54" s="215"/>
+      <c r="R54" s="215"/>
+      <c r="S54" s="215"/>
+      <c r="T54" s="215"/>
+      <c r="U54" s="215"/>
+      <c r="V54" s="215"/>
+      <c r="W54" s="215"/>
+      <c r="X54" s="215"/>
+      <c r="Y54" s="215"/>
+      <c r="Z54" s="215"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="215"/>
+      <c r="B55" s="215"/>
+      <c r="C55" s="215"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="215"/>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="215"/>
+      <c r="N55" s="215"/>
+      <c r="O55" s="215"/>
+      <c r="P55" s="215"/>
+      <c r="Q55" s="215"/>
+      <c r="R55" s="215"/>
+      <c r="S55" s="215"/>
+      <c r="T55" s="215"/>
+      <c r="U55" s="215"/>
+      <c r="V55" s="215"/>
+      <c r="W55" s="215"/>
+      <c r="X55" s="215"/>
+      <c r="Y55" s="215"/>
+      <c r="Z55" s="215"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="215"/>
+      <c r="B56" s="215"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="215"/>
+      <c r="M56" s="215"/>
+      <c r="N56" s="215"/>
+      <c r="O56" s="215"/>
+      <c r="P56" s="215"/>
+      <c r="Q56" s="215"/>
+      <c r="R56" s="215"/>
+      <c r="S56" s="215"/>
+      <c r="T56" s="215"/>
+      <c r="U56" s="215"/>
+      <c r="V56" s="215"/>
+      <c r="W56" s="215"/>
+      <c r="X56" s="215"/>
+      <c r="Y56" s="215"/>
+      <c r="Z56" s="215"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="215"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
+      <c r="L57" s="215"/>
+      <c r="M57" s="215"/>
+      <c r="N57" s="215"/>
+      <c r="O57" s="215"/>
+      <c r="P57" s="215"/>
+      <c r="Q57" s="215"/>
+      <c r="R57" s="215"/>
+      <c r="S57" s="215"/>
+      <c r="T57" s="215"/>
+      <c r="U57" s="215"/>
+      <c r="V57" s="215"/>
+      <c r="W57" s="215"/>
+      <c r="X57" s="215"/>
+      <c r="Y57" s="215"/>
+      <c r="Z57" s="215"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="215"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="215"/>
+      <c r="E58" s="215"/>
+      <c r="F58" s="215"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="215"/>
+      <c r="N58" s="215"/>
+      <c r="O58" s="215"/>
+      <c r="P58" s="215"/>
+      <c r="Q58" s="215"/>
+      <c r="R58" s="215"/>
+      <c r="S58" s="215"/>
+      <c r="T58" s="215"/>
+      <c r="U58" s="215"/>
+      <c r="V58" s="215"/>
+      <c r="W58" s="215"/>
+      <c r="X58" s="215"/>
+      <c r="Y58" s="215"/>
+      <c r="Z58" s="215"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="215"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="215"/>
+      <c r="M59" s="215"/>
+      <c r="N59" s="215"/>
+      <c r="O59" s="215"/>
+      <c r="P59" s="215"/>
+      <c r="Q59" s="215"/>
+      <c r="R59" s="215"/>
+      <c r="S59" s="215"/>
+      <c r="T59" s="215"/>
+      <c r="U59" s="215"/>
+      <c r="V59" s="215"/>
+      <c r="W59" s="215"/>
+      <c r="X59" s="215"/>
+      <c r="Y59" s="215"/>
+      <c r="Z59" s="215"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="215"/>
+      <c r="B60" s="215"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="215"/>
+      <c r="E60" s="215"/>
+      <c r="F60" s="215"/>
+      <c r="G60" s="215"/>
+      <c r="H60" s="215"/>
+      <c r="I60" s="215"/>
+      <c r="J60" s="215"/>
+      <c r="K60" s="215"/>
+      <c r="L60" s="215"/>
+      <c r="M60" s="215"/>
+      <c r="N60" s="215"/>
+      <c r="O60" s="215"/>
+      <c r="P60" s="215"/>
+      <c r="Q60" s="215"/>
+      <c r="R60" s="215"/>
+      <c r="S60" s="215"/>
+      <c r="T60" s="215"/>
+      <c r="U60" s="215"/>
+      <c r="V60" s="215"/>
+      <c r="W60" s="215"/>
+      <c r="X60" s="215"/>
+      <c r="Y60" s="215"/>
+      <c r="Z60" s="215"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="215"/>
+      <c r="B61" s="215"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215"/>
+      <c r="G61" s="215"/>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="215"/>
+      <c r="N61" s="215"/>
+      <c r="O61" s="215"/>
+      <c r="P61" s="215"/>
+      <c r="Q61" s="215"/>
+      <c r="R61" s="215"/>
+      <c r="S61" s="215"/>
+      <c r="T61" s="215"/>
+      <c r="U61" s="215"/>
+      <c r="V61" s="215"/>
+      <c r="W61" s="215"/>
+      <c r="X61" s="215"/>
+      <c r="Y61" s="215"/>
+      <c r="Z61" s="215"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="215"/>
+      <c r="B62" s="215"/>
+      <c r="C62" s="215"/>
+      <c r="D62" s="215"/>
+      <c r="E62" s="215"/>
+      <c r="F62" s="215"/>
+      <c r="G62" s="215"/>
+      <c r="H62" s="215"/>
+      <c r="I62" s="215"/>
+      <c r="J62" s="215"/>
+      <c r="K62" s="215"/>
+      <c r="L62" s="215"/>
+      <c r="M62" s="215"/>
+      <c r="N62" s="215"/>
+      <c r="O62" s="215"/>
+      <c r="P62" s="215"/>
+      <c r="Q62" s="215"/>
+      <c r="R62" s="215"/>
+      <c r="S62" s="215"/>
+      <c r="T62" s="215"/>
+      <c r="U62" s="215"/>
+      <c r="V62" s="215"/>
+      <c r="W62" s="215"/>
+      <c r="X62" s="215"/>
+      <c r="Y62" s="215"/>
+      <c r="Z62" s="215"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="215"/>
+      <c r="B63" s="215"/>
+      <c r="C63" s="215"/>
+      <c r="D63" s="215"/>
+      <c r="E63" s="215"/>
+      <c r="F63" s="215"/>
+      <c r="G63" s="215"/>
+      <c r="H63" s="215"/>
+      <c r="I63" s="215"/>
+      <c r="J63" s="215"/>
+      <c r="K63" s="215"/>
+      <c r="L63" s="215"/>
+      <c r="M63" s="215"/>
+      <c r="N63" s="215"/>
+      <c r="O63" s="215"/>
+      <c r="P63" s="215"/>
+      <c r="Q63" s="215"/>
+      <c r="R63" s="215"/>
+      <c r="S63" s="215"/>
+      <c r="T63" s="215"/>
+      <c r="U63" s="215"/>
+      <c r="V63" s="215"/>
+      <c r="W63" s="215"/>
+      <c r="X63" s="215"/>
+      <c r="Y63" s="215"/>
+      <c r="Z63" s="215"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="215"/>
+      <c r="B64" s="215"/>
+      <c r="C64" s="215"/>
+      <c r="D64" s="215"/>
+      <c r="E64" s="215"/>
+      <c r="F64" s="215"/>
+      <c r="G64" s="215"/>
+      <c r="H64" s="215"/>
+      <c r="I64" s="215"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="215"/>
+      <c r="N64" s="215"/>
+      <c r="O64" s="215"/>
+      <c r="P64" s="215"/>
+      <c r="Q64" s="215"/>
+      <c r="R64" s="215"/>
+      <c r="S64" s="215"/>
+      <c r="T64" s="215"/>
+      <c r="U64" s="215"/>
+      <c r="V64" s="215"/>
+      <c r="W64" s="215"/>
+      <c r="X64" s="215"/>
+      <c r="Y64" s="215"/>
+      <c r="Z64" s="215"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="215"/>
+      <c r="B65" s="215"/>
+      <c r="C65" s="215"/>
+      <c r="D65" s="215"/>
+      <c r="E65" s="215"/>
+      <c r="F65" s="215"/>
+      <c r="G65" s="215"/>
+      <c r="H65" s="215"/>
+      <c r="I65" s="215"/>
+      <c r="J65" s="215"/>
+      <c r="K65" s="215"/>
+      <c r="L65" s="215"/>
+      <c r="M65" s="215"/>
+      <c r="N65" s="215"/>
+      <c r="O65" s="215"/>
+      <c r="P65" s="215"/>
+      <c r="Q65" s="215"/>
+      <c r="R65" s="215"/>
+      <c r="S65" s="215"/>
+      <c r="T65" s="215"/>
+      <c r="U65" s="215"/>
+      <c r="V65" s="215"/>
+      <c r="W65" s="215"/>
+      <c r="X65" s="215"/>
+      <c r="Y65" s="215"/>
+      <c r="Z65" s="215"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="215"/>
+      <c r="B66" s="215"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215"/>
+      <c r="G66" s="215"/>
+      <c r="H66" s="215"/>
+      <c r="I66" s="215"/>
+      <c r="J66" s="215"/>
+      <c r="K66" s="215"/>
+      <c r="L66" s="215"/>
+      <c r="M66" s="215"/>
+      <c r="N66" s="215"/>
+      <c r="O66" s="215"/>
+      <c r="P66" s="215"/>
+      <c r="Q66" s="215"/>
+      <c r="R66" s="215"/>
+      <c r="S66" s="215"/>
+      <c r="T66" s="215"/>
+      <c r="U66" s="215"/>
+      <c r="V66" s="215"/>
+      <c r="W66" s="215"/>
+      <c r="X66" s="215"/>
+      <c r="Y66" s="215"/>
+      <c r="Z66" s="215"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="215"/>
+      <c r="B67" s="215"/>
+      <c r="C67" s="215"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="215"/>
+      <c r="F67" s="215"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="215"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="215"/>
+      <c r="M67" s="215"/>
+      <c r="N67" s="215"/>
+      <c r="O67" s="215"/>
+      <c r="P67" s="215"/>
+      <c r="Q67" s="215"/>
+      <c r="R67" s="215"/>
+      <c r="S67" s="215"/>
+      <c r="T67" s="215"/>
+      <c r="U67" s="215"/>
+      <c r="V67" s="215"/>
+      <c r="W67" s="215"/>
+      <c r="X67" s="215"/>
+      <c r="Y67" s="215"/>
+      <c r="Z67" s="215"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="215"/>
+      <c r="B68" s="215"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="215"/>
+      <c r="H68" s="215"/>
+      <c r="I68" s="215"/>
+      <c r="J68" s="215"/>
+      <c r="K68" s="215"/>
+      <c r="L68" s="215"/>
+      <c r="M68" s="215"/>
+      <c r="N68" s="215"/>
+      <c r="O68" s="215"/>
+      <c r="P68" s="215"/>
+      <c r="Q68" s="215"/>
+      <c r="R68" s="215"/>
+      <c r="S68" s="215"/>
+      <c r="T68" s="215"/>
+      <c r="U68" s="215"/>
+      <c r="V68" s="215"/>
+      <c r="W68" s="215"/>
+      <c r="X68" s="215"/>
+      <c r="Y68" s="215"/>
+      <c r="Z68" s="215"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="215"/>
+      <c r="B69" s="215"/>
+      <c r="C69" s="215"/>
+      <c r="D69" s="215"/>
+      <c r="E69" s="215"/>
+      <c r="F69" s="215"/>
+      <c r="G69" s="215"/>
+      <c r="H69" s="215"/>
+      <c r="I69" s="215"/>
+      <c r="J69" s="215"/>
+      <c r="K69" s="215"/>
+      <c r="L69" s="215"/>
+      <c r="M69" s="215"/>
+      <c r="N69" s="215"/>
+      <c r="O69" s="215"/>
+      <c r="P69" s="215"/>
+      <c r="Q69" s="215"/>
+      <c r="R69" s="215"/>
+      <c r="S69" s="215"/>
+      <c r="T69" s="215"/>
+      <c r="U69" s="215"/>
+      <c r="V69" s="215"/>
+      <c r="W69" s="215"/>
+      <c r="X69" s="215"/>
+      <c r="Y69" s="215"/>
+      <c r="Z69" s="215"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="215"/>
+      <c r="B70" s="215"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="215"/>
+      <c r="F70" s="215"/>
+      <c r="G70" s="215"/>
+      <c r="H70" s="215"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="215"/>
+      <c r="L70" s="215"/>
+      <c r="M70" s="215"/>
+      <c r="N70" s="215"/>
+      <c r="O70" s="215"/>
+      <c r="P70" s="215"/>
+      <c r="Q70" s="215"/>
+      <c r="R70" s="215"/>
+      <c r="S70" s="215"/>
+      <c r="T70" s="215"/>
+      <c r="U70" s="215"/>
+      <c r="V70" s="215"/>
+      <c r="W70" s="215"/>
+      <c r="X70" s="215"/>
+      <c r="Y70" s="215"/>
+      <c r="Z70" s="215"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="215"/>
+      <c r="B71" s="215"/>
+      <c r="C71" s="215"/>
+      <c r="D71" s="215"/>
+      <c r="E71" s="215"/>
+      <c r="F71" s="215"/>
+      <c r="G71" s="215"/>
+      <c r="H71" s="215"/>
+      <c r="I71" s="215"/>
+      <c r="J71" s="215"/>
+      <c r="K71" s="215"/>
+      <c r="L71" s="215"/>
+      <c r="M71" s="215"/>
+      <c r="N71" s="215"/>
+      <c r="O71" s="215"/>
+      <c r="P71" s="215"/>
+      <c r="Q71" s="215"/>
+      <c r="R71" s="215"/>
+      <c r="S71" s="215"/>
+      <c r="T71" s="215"/>
+      <c r="U71" s="215"/>
+      <c r="V71" s="215"/>
+      <c r="W71" s="215"/>
+      <c r="X71" s="215"/>
+      <c r="Y71" s="215"/>
+      <c r="Z71" s="215"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="215"/>
+      <c r="B72" s="215"/>
+      <c r="C72" s="215"/>
+      <c r="D72" s="215"/>
+      <c r="E72" s="215"/>
+      <c r="F72" s="215"/>
+      <c r="G72" s="215"/>
+      <c r="H72" s="215"/>
+      <c r="I72" s="215"/>
+      <c r="J72" s="215"/>
+      <c r="K72" s="215"/>
+      <c r="L72" s="215"/>
+      <c r="M72" s="215"/>
+      <c r="N72" s="215"/>
+      <c r="O72" s="215"/>
+      <c r="P72" s="215"/>
+      <c r="Q72" s="215"/>
+      <c r="R72" s="215"/>
+      <c r="S72" s="215"/>
+      <c r="T72" s="215"/>
+      <c r="U72" s="215"/>
+      <c r="V72" s="215"/>
+      <c r="W72" s="215"/>
+      <c r="X72" s="215"/>
+      <c r="Y72" s="215"/>
+      <c r="Z72" s="215"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="215"/>
+      <c r="B73" s="215"/>
+      <c r="C73" s="215"/>
+      <c r="D73" s="215"/>
+      <c r="E73" s="215"/>
+      <c r="F73" s="215"/>
+      <c r="G73" s="215"/>
+      <c r="H73" s="215"/>
+      <c r="I73" s="215"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="215"/>
+      <c r="N73" s="215"/>
+      <c r="O73" s="215"/>
+      <c r="P73" s="215"/>
+      <c r="Q73" s="215"/>
+      <c r="R73" s="215"/>
+      <c r="S73" s="215"/>
+      <c r="T73" s="215"/>
+      <c r="U73" s="215"/>
+      <c r="V73" s="215"/>
+      <c r="W73" s="215"/>
+      <c r="X73" s="215"/>
+      <c r="Y73" s="215"/>
+      <c r="Z73" s="215"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="215"/>
+      <c r="B74" s="215"/>
+      <c r="C74" s="215"/>
+      <c r="D74" s="215"/>
+      <c r="E74" s="215"/>
+      <c r="F74" s="215"/>
+      <c r="G74" s="215"/>
+      <c r="H74" s="215"/>
+      <c r="I74" s="215"/>
+      <c r="J74" s="215"/>
+      <c r="K74" s="215"/>
+      <c r="L74" s="215"/>
+      <c r="M74" s="215"/>
+      <c r="N74" s="215"/>
+      <c r="O74" s="215"/>
+      <c r="P74" s="215"/>
+      <c r="Q74" s="215"/>
+      <c r="R74" s="215"/>
+      <c r="S74" s="215"/>
+      <c r="T74" s="215"/>
+      <c r="U74" s="215"/>
+      <c r="V74" s="215"/>
+      <c r="W74" s="215"/>
+      <c r="X74" s="215"/>
+      <c r="Y74" s="215"/>
+      <c r="Z74" s="215"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="215"/>
+      <c r="B75" s="215"/>
+      <c r="C75" s="215"/>
+      <c r="D75" s="215"/>
+      <c r="E75" s="215"/>
+      <c r="F75" s="215"/>
+      <c r="G75" s="215"/>
+      <c r="H75" s="215"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
+      <c r="M75" s="215"/>
+      <c r="N75" s="215"/>
+      <c r="O75" s="215"/>
+      <c r="P75" s="215"/>
+      <c r="Q75" s="215"/>
+      <c r="R75" s="215"/>
+      <c r="S75" s="215"/>
+      <c r="T75" s="215"/>
+      <c r="U75" s="215"/>
+      <c r="V75" s="215"/>
+      <c r="W75" s="215"/>
+      <c r="X75" s="215"/>
+      <c r="Y75" s="215"/>
+      <c r="Z75" s="215"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="215"/>
+      <c r="B76" s="215"/>
+      <c r="C76" s="215"/>
+      <c r="D76" s="215"/>
+      <c r="E76" s="215"/>
+      <c r="F76" s="215"/>
+      <c r="G76" s="215"/>
+      <c r="H76" s="215"/>
+      <c r="I76" s="215"/>
+      <c r="J76" s="215"/>
+      <c r="K76" s="215"/>
+      <c r="L76" s="215"/>
+      <c r="M76" s="215"/>
+      <c r="N76" s="215"/>
+      <c r="O76" s="215"/>
+      <c r="P76" s="215"/>
+      <c r="Q76" s="215"/>
+      <c r="R76" s="215"/>
+      <c r="S76" s="215"/>
+      <c r="T76" s="215"/>
+      <c r="U76" s="215"/>
+      <c r="V76" s="215"/>
+      <c r="W76" s="215"/>
+      <c r="X76" s="215"/>
+      <c r="Y76" s="215"/>
+      <c r="Z76" s="215"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="215"/>
+      <c r="B77" s="215"/>
+      <c r="C77" s="215"/>
+      <c r="D77" s="215"/>
+      <c r="E77" s="215"/>
+      <c r="F77" s="215"/>
+      <c r="G77" s="215"/>
+      <c r="H77" s="215"/>
+      <c r="I77" s="215"/>
+      <c r="J77" s="215"/>
+      <c r="K77" s="215"/>
+      <c r="L77" s="215"/>
+      <c r="M77" s="215"/>
+      <c r="N77" s="215"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="215"/>
+      <c r="Q77" s="215"/>
+      <c r="R77" s="215"/>
+      <c r="S77" s="215"/>
+      <c r="T77" s="215"/>
+      <c r="U77" s="215"/>
+      <c r="V77" s="215"/>
+      <c r="W77" s="215"/>
+      <c r="X77" s="215"/>
+      <c r="Y77" s="215"/>
+      <c r="Z77" s="215"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="215"/>
+      <c r="B78" s="215"/>
+      <c r="C78" s="215"/>
+      <c r="D78" s="215"/>
+      <c r="E78" s="215"/>
+      <c r="F78" s="215"/>
+      <c r="G78" s="215"/>
+      <c r="H78" s="215"/>
+      <c r="I78" s="215"/>
+      <c r="J78" s="215"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="215"/>
+      <c r="M78" s="215"/>
+      <c r="N78" s="215"/>
+      <c r="O78" s="215"/>
+      <c r="P78" s="215"/>
+      <c r="Q78" s="215"/>
+      <c r="R78" s="215"/>
+      <c r="S78" s="215"/>
+      <c r="T78" s="215"/>
+      <c r="U78" s="215"/>
+      <c r="V78" s="215"/>
+      <c r="W78" s="215"/>
+      <c r="X78" s="215"/>
+      <c r="Y78" s="215"/>
+      <c r="Z78" s="215"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="215"/>
+      <c r="B79" s="215"/>
+      <c r="C79" s="215"/>
+      <c r="D79" s="215"/>
+      <c r="E79" s="215"/>
+      <c r="F79" s="215"/>
+      <c r="G79" s="215"/>
+      <c r="H79" s="215"/>
+      <c r="I79" s="215"/>
+      <c r="J79" s="215"/>
+      <c r="K79" s="215"/>
+      <c r="L79" s="215"/>
+      <c r="M79" s="215"/>
+      <c r="N79" s="215"/>
+      <c r="O79" s="215"/>
+      <c r="P79" s="215"/>
+      <c r="Q79" s="215"/>
+      <c r="R79" s="215"/>
+      <c r="S79" s="215"/>
+      <c r="T79" s="215"/>
+      <c r="U79" s="215"/>
+      <c r="V79" s="215"/>
+      <c r="W79" s="215"/>
+      <c r="X79" s="215"/>
+      <c r="Y79" s="215"/>
+      <c r="Z79" s="215"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="215"/>
+      <c r="B80" s="215"/>
+      <c r="C80" s="215"/>
+      <c r="D80" s="215"/>
+      <c r="E80" s="215"/>
+      <c r="F80" s="215"/>
+      <c r="G80" s="215"/>
+      <c r="H80" s="215"/>
+      <c r="I80" s="215"/>
+      <c r="J80" s="215"/>
+      <c r="K80" s="215"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="215"/>
+      <c r="N80" s="215"/>
+      <c r="O80" s="215"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="215"/>
+      <c r="R80" s="215"/>
+      <c r="S80" s="215"/>
+      <c r="T80" s="215"/>
+      <c r="U80" s="215"/>
+      <c r="V80" s="215"/>
+      <c r="W80" s="215"/>
+      <c r="X80" s="215"/>
+      <c r="Y80" s="215"/>
+      <c r="Z80" s="215"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="215"/>
+      <c r="B81" s="215"/>
+      <c r="C81" s="215"/>
+      <c r="D81" s="215"/>
+      <c r="E81" s="215"/>
+      <c r="F81" s="215"/>
+      <c r="G81" s="215"/>
+      <c r="H81" s="215"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="215"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="215"/>
+      <c r="M81" s="215"/>
+      <c r="N81" s="215"/>
+      <c r="O81" s="215"/>
+      <c r="P81" s="215"/>
+      <c r="Q81" s="215"/>
+      <c r="R81" s="215"/>
+      <c r="S81" s="215"/>
+      <c r="T81" s="215"/>
+      <c r="U81" s="215"/>
+      <c r="V81" s="215"/>
+      <c r="W81" s="215"/>
+      <c r="X81" s="215"/>
+      <c r="Y81" s="215"/>
+      <c r="Z81" s="215"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="215"/>
+      <c r="B82" s="215"/>
+      <c r="C82" s="215"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="215"/>
+      <c r="F82" s="215"/>
+      <c r="G82" s="215"/>
+      <c r="H82" s="215"/>
+      <c r="I82" s="215"/>
+      <c r="J82" s="215"/>
+      <c r="K82" s="215"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="215"/>
+      <c r="N82" s="215"/>
+      <c r="O82" s="215"/>
+      <c r="P82" s="215"/>
+      <c r="Q82" s="215"/>
+      <c r="R82" s="215"/>
+      <c r="S82" s="215"/>
+      <c r="T82" s="215"/>
+      <c r="U82" s="215"/>
+      <c r="V82" s="215"/>
+      <c r="W82" s="215"/>
+      <c r="X82" s="215"/>
+      <c r="Y82" s="215"/>
+      <c r="Z82" s="215"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="215"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
+      <c r="E83" s="215"/>
+      <c r="F83" s="215"/>
+      <c r="G83" s="215"/>
+      <c r="H83" s="215"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
+      <c r="K83" s="215"/>
+      <c r="L83" s="215"/>
+      <c r="M83" s="215"/>
+      <c r="N83" s="215"/>
+      <c r="O83" s="215"/>
+      <c r="P83" s="215"/>
+      <c r="Q83" s="215"/>
+      <c r="R83" s="215"/>
+      <c r="S83" s="215"/>
+      <c r="T83" s="215"/>
+      <c r="U83" s="215"/>
+      <c r="V83" s="215"/>
+      <c r="W83" s="215"/>
+      <c r="X83" s="215"/>
+      <c r="Y83" s="215"/>
+      <c r="Z83" s="215"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="215"/>
+      <c r="B84" s="215"/>
+      <c r="C84" s="215"/>
+      <c r="D84" s="215"/>
+      <c r="E84" s="215"/>
+      <c r="F84" s="215"/>
+      <c r="G84" s="215"/>
+      <c r="H84" s="215"/>
+      <c r="I84" s="215"/>
+      <c r="J84" s="215"/>
+      <c r="K84" s="215"/>
+      <c r="L84" s="215"/>
+      <c r="M84" s="215"/>
+      <c r="N84" s="215"/>
+      <c r="O84" s="215"/>
+      <c r="P84" s="215"/>
+      <c r="Q84" s="215"/>
+      <c r="R84" s="215"/>
+      <c r="S84" s="215"/>
+      <c r="T84" s="215"/>
+      <c r="U84" s="215"/>
+      <c r="V84" s="215"/>
+      <c r="W84" s="215"/>
+      <c r="X84" s="215"/>
+      <c r="Y84" s="215"/>
+      <c r="Z84" s="215"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="215"/>
+      <c r="B85" s="215"/>
+      <c r="C85" s="215"/>
+      <c r="D85" s="215"/>
+      <c r="E85" s="215"/>
+      <c r="F85" s="215"/>
+      <c r="G85" s="215"/>
+      <c r="H85" s="215"/>
+      <c r="I85" s="215"/>
+      <c r="J85" s="215"/>
+      <c r="K85" s="215"/>
+      <c r="L85" s="215"/>
+      <c r="M85" s="215"/>
+      <c r="N85" s="215"/>
+      <c r="O85" s="215"/>
+      <c r="P85" s="215"/>
+      <c r="Q85" s="215"/>
+      <c r="R85" s="215"/>
+      <c r="S85" s="215"/>
+      <c r="T85" s="215"/>
+      <c r="U85" s="215"/>
+      <c r="V85" s="215"/>
+      <c r="W85" s="215"/>
+      <c r="X85" s="215"/>
+      <c r="Y85" s="215"/>
+      <c r="Z85" s="215"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="215"/>
+      <c r="B86" s="215"/>
+      <c r="C86" s="215"/>
+      <c r="D86" s="215"/>
+      <c r="E86" s="215"/>
+      <c r="F86" s="215"/>
+      <c r="G86" s="215"/>
+      <c r="H86" s="215"/>
+      <c r="I86" s="215"/>
+      <c r="J86" s="215"/>
+      <c r="K86" s="215"/>
+      <c r="L86" s="215"/>
+      <c r="M86" s="215"/>
+      <c r="N86" s="215"/>
+      <c r="O86" s="215"/>
+      <c r="P86" s="215"/>
+      <c r="Q86" s="215"/>
+      <c r="R86" s="215"/>
+      <c r="S86" s="215"/>
+      <c r="T86" s="215"/>
+      <c r="U86" s="215"/>
+      <c r="V86" s="215"/>
+      <c r="W86" s="215"/>
+      <c r="X86" s="215"/>
+      <c r="Y86" s="215"/>
+      <c r="Z86" s="215"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="215"/>
+      <c r="B87" s="215"/>
+      <c r="C87" s="215"/>
+      <c r="D87" s="215"/>
+      <c r="E87" s="215"/>
+      <c r="F87" s="215"/>
+      <c r="G87" s="215"/>
+      <c r="H87" s="215"/>
+      <c r="I87" s="215"/>
+      <c r="J87" s="215"/>
+      <c r="K87" s="215"/>
+      <c r="L87" s="215"/>
+      <c r="M87" s="215"/>
+      <c r="N87" s="215"/>
+      <c r="O87" s="215"/>
+      <c r="P87" s="215"/>
+      <c r="Q87" s="215"/>
+      <c r="R87" s="215"/>
+      <c r="S87" s="215"/>
+      <c r="T87" s="215"/>
+      <c r="U87" s="215"/>
+      <c r="V87" s="215"/>
+      <c r="W87" s="215"/>
+      <c r="X87" s="215"/>
+      <c r="Y87" s="215"/>
+      <c r="Z87" s="215"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="215"/>
+      <c r="B88" s="215"/>
+      <c r="C88" s="215"/>
+      <c r="D88" s="215"/>
+      <c r="E88" s="215"/>
+      <c r="F88" s="215"/>
+      <c r="G88" s="215"/>
+      <c r="H88" s="215"/>
+      <c r="I88" s="215"/>
+      <c r="J88" s="215"/>
+      <c r="K88" s="215"/>
+      <c r="L88" s="215"/>
+      <c r="M88" s="215"/>
+      <c r="N88" s="215"/>
+      <c r="O88" s="215"/>
+      <c r="P88" s="215"/>
+      <c r="Q88" s="215"/>
+      <c r="R88" s="215"/>
+      <c r="S88" s="215"/>
+      <c r="T88" s="215"/>
+      <c r="U88" s="215"/>
+      <c r="V88" s="215"/>
+      <c r="W88" s="215"/>
+      <c r="X88" s="215"/>
+      <c r="Y88" s="215"/>
+      <c r="Z88" s="215"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="215"/>
+      <c r="B89" s="215"/>
+      <c r="C89" s="215"/>
+      <c r="D89" s="215"/>
+      <c r="E89" s="215"/>
+      <c r="F89" s="215"/>
+      <c r="G89" s="215"/>
+      <c r="H89" s="215"/>
+      <c r="I89" s="215"/>
+      <c r="J89" s="215"/>
+      <c r="K89" s="215"/>
+      <c r="L89" s="215"/>
+      <c r="M89" s="215"/>
+      <c r="N89" s="215"/>
+      <c r="O89" s="215"/>
+      <c r="P89" s="215"/>
+      <c r="Q89" s="215"/>
+      <c r="R89" s="215"/>
+      <c r="S89" s="215"/>
+      <c r="T89" s="215"/>
+      <c r="U89" s="215"/>
+      <c r="V89" s="215"/>
+      <c r="W89" s="215"/>
+      <c r="X89" s="215"/>
+      <c r="Y89" s="215"/>
+      <c r="Z89" s="215"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="215"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
+      <c r="D90" s="215"/>
+      <c r="E90" s="215"/>
+      <c r="F90" s="215"/>
+      <c r="G90" s="215"/>
+      <c r="H90" s="215"/>
+      <c r="I90" s="215"/>
+      <c r="J90" s="215"/>
+      <c r="K90" s="215"/>
+      <c r="L90" s="215"/>
+      <c r="M90" s="215"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="215"/>
+      <c r="P90" s="215"/>
+      <c r="Q90" s="215"/>
+      <c r="R90" s="215"/>
+      <c r="S90" s="215"/>
+      <c r="T90" s="215"/>
+      <c r="U90" s="215"/>
+      <c r="V90" s="215"/>
+      <c r="W90" s="215"/>
+      <c r="X90" s="215"/>
+      <c r="Y90" s="215"/>
+      <c r="Z90" s="215"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="215"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
+      <c r="G91" s="215"/>
+      <c r="H91" s="215"/>
+      <c r="I91" s="215"/>
+      <c r="J91" s="215"/>
+      <c r="K91" s="215"/>
+      <c r="L91" s="215"/>
+      <c r="M91" s="215"/>
+      <c r="N91" s="215"/>
+      <c r="O91" s="215"/>
+      <c r="P91" s="215"/>
+      <c r="Q91" s="215"/>
+      <c r="R91" s="215"/>
+      <c r="S91" s="215"/>
+      <c r="T91" s="215"/>
+      <c r="U91" s="215"/>
+      <c r="V91" s="215"/>
+      <c r="W91" s="215"/>
+      <c r="X91" s="215"/>
+      <c r="Y91" s="215"/>
+      <c r="Z91" s="215"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="215"/>
+      <c r="B92" s="215"/>
+      <c r="C92" s="215"/>
+      <c r="D92" s="215"/>
+      <c r="E92" s="215"/>
+      <c r="F92" s="215"/>
+      <c r="G92" s="215"/>
+      <c r="H92" s="215"/>
+      <c r="I92" s="215"/>
+      <c r="J92" s="215"/>
+      <c r="K92" s="215"/>
+      <c r="L92" s="215"/>
+      <c r="M92" s="215"/>
+      <c r="N92" s="215"/>
+      <c r="O92" s="215"/>
+      <c r="P92" s="215"/>
+      <c r="Q92" s="215"/>
+      <c r="R92" s="215"/>
+      <c r="S92" s="215"/>
+      <c r="T92" s="215"/>
+      <c r="U92" s="215"/>
+      <c r="V92" s="215"/>
+      <c r="W92" s="215"/>
+      <c r="X92" s="215"/>
+      <c r="Y92" s="215"/>
+      <c r="Z92" s="215"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="215"/>
+      <c r="B93" s="215"/>
+      <c r="C93" s="215"/>
+      <c r="D93" s="215"/>
+      <c r="E93" s="215"/>
+      <c r="F93" s="215"/>
+      <c r="G93" s="215"/>
+      <c r="H93" s="215"/>
+      <c r="I93" s="215"/>
+      <c r="J93" s="215"/>
+      <c r="K93" s="215"/>
+      <c r="L93" s="215"/>
+      <c r="M93" s="215"/>
+      <c r="N93" s="215"/>
+      <c r="O93" s="215"/>
+      <c r="P93" s="215"/>
+      <c r="Q93" s="215"/>
+      <c r="R93" s="215"/>
+      <c r="S93" s="215"/>
+      <c r="T93" s="215"/>
+      <c r="U93" s="215"/>
+      <c r="V93" s="215"/>
+      <c r="W93" s="215"/>
+      <c r="X93" s="215"/>
+      <c r="Y93" s="215"/>
+      <c r="Z93" s="215"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="215"/>
+      <c r="B94" s="215"/>
+      <c r="C94" s="215"/>
+      <c r="D94" s="215"/>
+      <c r="E94" s="215"/>
+      <c r="F94" s="215"/>
+      <c r="G94" s="215"/>
+      <c r="H94" s="215"/>
+      <c r="I94" s="215"/>
+      <c r="J94" s="215"/>
+      <c r="K94" s="215"/>
+      <c r="L94" s="215"/>
+      <c r="M94" s="215"/>
+      <c r="N94" s="215"/>
+      <c r="O94" s="215"/>
+      <c r="P94" s="215"/>
+      <c r="Q94" s="215"/>
+      <c r="R94" s="215"/>
+      <c r="S94" s="215"/>
+      <c r="T94" s="215"/>
+      <c r="U94" s="215"/>
+      <c r="V94" s="215"/>
+      <c r="W94" s="215"/>
+      <c r="X94" s="215"/>
+      <c r="Y94" s="215"/>
+      <c r="Z94" s="215"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="215"/>
+      <c r="B95" s="215"/>
+      <c r="C95" s="215"/>
+      <c r="D95" s="215"/>
+      <c r="E95" s="215"/>
+      <c r="F95" s="215"/>
+      <c r="G95" s="215"/>
+      <c r="H95" s="215"/>
+      <c r="I95" s="215"/>
+      <c r="J95" s="215"/>
+      <c r="K95" s="215"/>
+      <c r="L95" s="215"/>
+      <c r="M95" s="215"/>
+      <c r="N95" s="215"/>
+      <c r="O95" s="215"/>
+      <c r="P95" s="215"/>
+      <c r="Q95" s="215"/>
+      <c r="R95" s="215"/>
+      <c r="S95" s="215"/>
+      <c r="T95" s="215"/>
+      <c r="U95" s="215"/>
+      <c r="V95" s="215"/>
+      <c r="W95" s="215"/>
+      <c r="X95" s="215"/>
+      <c r="Y95" s="215"/>
+      <c r="Z95" s="215"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="215"/>
+      <c r="B96" s="215"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
+      <c r="E96" s="215"/>
+      <c r="F96" s="215"/>
+      <c r="G96" s="215"/>
+      <c r="H96" s="215"/>
+      <c r="I96" s="215"/>
+      <c r="J96" s="215"/>
+      <c r="K96" s="215"/>
+      <c r="L96" s="215"/>
+      <c r="M96" s="215"/>
+      <c r="N96" s="215"/>
+      <c r="O96" s="215"/>
+      <c r="P96" s="215"/>
+      <c r="Q96" s="215"/>
+      <c r="R96" s="215"/>
+      <c r="S96" s="215"/>
+      <c r="T96" s="215"/>
+      <c r="U96" s="215"/>
+      <c r="V96" s="215"/>
+      <c r="W96" s="215"/>
+      <c r="X96" s="215"/>
+      <c r="Y96" s="215"/>
+      <c r="Z96" s="215"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="215"/>
+      <c r="B97" s="215"/>
+      <c r="C97" s="215"/>
+      <c r="D97" s="215"/>
+      <c r="E97" s="215"/>
+      <c r="F97" s="215"/>
+      <c r="G97" s="215"/>
+      <c r="H97" s="215"/>
+      <c r="I97" s="215"/>
+      <c r="J97" s="215"/>
+      <c r="K97" s="215"/>
+      <c r="L97" s="215"/>
+      <c r="M97" s="215"/>
+      <c r="N97" s="215"/>
+      <c r="O97" s="215"/>
+      <c r="P97" s="215"/>
+      <c r="Q97" s="215"/>
+      <c r="R97" s="215"/>
+      <c r="S97" s="215"/>
+      <c r="T97" s="215"/>
+      <c r="U97" s="215"/>
+      <c r="V97" s="215"/>
+      <c r="W97" s="215"/>
+      <c r="X97" s="215"/>
+      <c r="Y97" s="215"/>
+      <c r="Z97" s="215"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="215"/>
+      <c r="B98" s="215"/>
+      <c r="C98" s="215"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="215"/>
+      <c r="F98" s="215"/>
+      <c r="G98" s="215"/>
+      <c r="H98" s="215"/>
+      <c r="I98" s="215"/>
+      <c r="J98" s="215"/>
+      <c r="K98" s="215"/>
+      <c r="L98" s="215"/>
+      <c r="M98" s="215"/>
+      <c r="N98" s="215"/>
+      <c r="O98" s="215"/>
+      <c r="P98" s="215"/>
+      <c r="Q98" s="215"/>
+      <c r="R98" s="215"/>
+      <c r="S98" s="215"/>
+      <c r="T98" s="215"/>
+      <c r="U98" s="215"/>
+      <c r="V98" s="215"/>
+      <c r="W98" s="215"/>
+      <c r="X98" s="215"/>
+      <c r="Y98" s="215"/>
+      <c r="Z98" s="215"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="215"/>
+      <c r="B99" s="215"/>
+      <c r="C99" s="215"/>
+      <c r="D99" s="215"/>
+      <c r="E99" s="215"/>
+      <c r="F99" s="215"/>
+      <c r="G99" s="215"/>
+      <c r="H99" s="215"/>
+      <c r="I99" s="215"/>
+      <c r="J99" s="215"/>
+      <c r="K99" s="215"/>
+      <c r="L99" s="215"/>
+      <c r="M99" s="215"/>
+      <c r="N99" s="215"/>
+      <c r="O99" s="215"/>
+      <c r="P99" s="215"/>
+      <c r="Q99" s="215"/>
+      <c r="R99" s="215"/>
+      <c r="S99" s="215"/>
+      <c r="T99" s="215"/>
+      <c r="U99" s="215"/>
+      <c r="V99" s="215"/>
+      <c r="W99" s="215"/>
+      <c r="X99" s="215"/>
+      <c r="Y99" s="215"/>
+      <c r="Z99" s="215"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{437FA3AB-31EB-4FD7-A7E7-87C1242F0967}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{D0C28B2E-8DF1-4E5B-9519-44F33BC2C71D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="7"/>
@@ -4239,7 +7593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="7"/>
@@ -4987,7 +8341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB6E983-7CFA-4082-B04E-86B82188DDBD}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
@@ -5773,12 +9127,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A6DB4B-6EBE-42F5-800F-C9AB0144B3BB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
